--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>110.1</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>8</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-60</v>
+      </c>
       <c r="L13" t="n">
         <v>110</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>9</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>109.8</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>10</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>109.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>109.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>10</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-60</v>
+      </c>
       <c r="L17" t="n">
         <v>109.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>10</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-50</v>
+      </c>
       <c r="L18" t="n">
         <v>108.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>10</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-50</v>
+      </c>
       <c r="L19" t="n">
         <v>108.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>12</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>108.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>13</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>108.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>14</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>108.6</v>
       </c>
@@ -1466,7 +1488,7 @@
         <v>15</v>
       </c>
       <c r="K24" t="n">
-        <v>-16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
         <v>108.7</v>
@@ -1515,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>108.9</v>
@@ -1564,7 +1586,7 @@
         <v>16</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>109.1</v>
@@ -1613,7 +1635,7 @@
         <v>17</v>
       </c>
       <c r="K27" t="n">
-        <v>7.692307692307693</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L27" t="n">
         <v>109.4</v>
@@ -1662,7 +1684,7 @@
         <v>17</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L28" t="n">
         <v>109.7</v>
@@ -1711,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="K29" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L29" t="n">
         <v>109.8</v>
@@ -1760,7 +1782,7 @@
         <v>21</v>
       </c>
       <c r="K30" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L30" t="n">
         <v>109.5</v>
@@ -1860,7 +1882,7 @@
         <v>24</v>
       </c>
       <c r="K32" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L32" t="n">
         <v>109.6</v>
@@ -1911,7 +1933,7 @@
         <v>25</v>
       </c>
       <c r="K33" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>109.6</v>
@@ -1962,7 +1984,7 @@
         <v>27</v>
       </c>
       <c r="K34" t="n">
-        <v>-11.11111111111111</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L34" t="n">
         <v>109.4</v>
@@ -2013,7 +2035,7 @@
         <v>27</v>
       </c>
       <c r="K35" t="n">
-        <v>-5.88235294117647</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L35" t="n">
         <v>109.1</v>
@@ -2064,7 +2086,7 @@
         <v>27</v>
       </c>
       <c r="K36" t="n">
-        <v>-5.88235294117647</v>
+        <v>-40</v>
       </c>
       <c r="L36" t="n">
         <v>108.8</v>
@@ -2115,7 +2137,7 @@
         <v>27</v>
       </c>
       <c r="K37" t="n">
-        <v>-5.88235294117647</v>
+        <v>-40</v>
       </c>
       <c r="L37" t="n">
         <v>108.4</v>
@@ -2166,7 +2188,7 @@
         <v>27</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L38" t="n">
         <v>108</v>
@@ -2217,7 +2239,7 @@
         <v>27</v>
       </c>
       <c r="K39" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>107.8</v>
@@ -2268,7 +2290,7 @@
         <v>27</v>
       </c>
       <c r="K40" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L40" t="n">
         <v>107.8</v>
@@ -2319,7 +2341,7 @@
         <v>27</v>
       </c>
       <c r="K41" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L41" t="n">
         <v>107.5</v>
@@ -2370,7 +2392,7 @@
         <v>27</v>
       </c>
       <c r="K42" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L42" t="n">
         <v>107.2</v>
@@ -2420,9 +2442,7 @@
       <c r="J43" t="n">
         <v>27</v>
       </c>
-      <c r="K43" t="n">
-        <v>-16.66666666666666</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>107</v>
       </c>
@@ -2472,7 +2492,7 @@
         <v>28</v>
       </c>
       <c r="K44" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L44" t="n">
         <v>106.9</v>
@@ -2523,7 +2543,7 @@
         <v>30</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>107</v>
@@ -2574,7 +2594,7 @@
         <v>30</v>
       </c>
       <c r="K46" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>107.1</v>
@@ -2625,7 +2645,7 @@
         <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>-23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>107.2</v>
@@ -2676,7 +2696,7 @@
         <v>31</v>
       </c>
       <c r="K48" t="n">
-        <v>-14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L48" t="n">
         <v>107.4</v>
@@ -2727,7 +2747,7 @@
         <v>34</v>
       </c>
       <c r="K49" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L49" t="n">
         <v>107.3</v>
@@ -2778,7 +2798,7 @@
         <v>34</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L50" t="n">
         <v>107.2</v>
@@ -2829,7 +2849,7 @@
         <v>34</v>
       </c>
       <c r="K51" t="n">
-        <v>-40</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L51" t="n">
         <v>107.1</v>
@@ -2880,7 +2900,7 @@
         <v>34</v>
       </c>
       <c r="K52" t="n">
-        <v>-40</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L52" t="n">
         <v>107</v>
@@ -2931,7 +2951,7 @@
         <v>34</v>
       </c>
       <c r="K53" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>106.9</v>
@@ -2982,7 +3002,7 @@
         <v>34</v>
       </c>
       <c r="K54" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L54" t="n">
         <v>106.9</v>
@@ -3033,7 +3053,7 @@
         <v>35</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L55" t="n">
         <v>106.8</v>
@@ -3084,7 +3104,7 @@
         <v>36</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>106.6</v>
@@ -3135,7 +3155,7 @@
         <v>38</v>
       </c>
       <c r="K57" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>106.6</v>
@@ -3186,7 +3206,7 @@
         <v>39</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L58" t="n">
         <v>106.4</v>
@@ -3288,7 +3308,7 @@
         <v>42</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>106.3</v>
@@ -3339,7 +3359,7 @@
         <v>42</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>106.3</v>
@@ -3390,7 +3410,7 @@
         <v>43</v>
       </c>
       <c r="K62" t="n">
-        <v>-12.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L62" t="n">
         <v>106.2</v>
@@ -3441,7 +3461,7 @@
         <v>44</v>
       </c>
       <c r="K63" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>106.2</v>
@@ -3492,7 +3512,7 @@
         <v>45</v>
       </c>
       <c r="K64" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>106.3</v>
@@ -3543,7 +3563,7 @@
         <v>46</v>
       </c>
       <c r="K65" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>106.2</v>
@@ -3594,7 +3614,7 @@
         <v>48</v>
       </c>
       <c r="K66" t="n">
-        <v>-22.22222222222222</v>
+        <v>-40</v>
       </c>
       <c r="L66" t="n">
         <v>106</v>
@@ -3645,7 +3665,7 @@
         <v>51</v>
       </c>
       <c r="K67" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>105.9</v>
@@ -3696,7 +3716,7 @@
         <v>51</v>
       </c>
       <c r="K68" t="n">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="L68" t="n">
         <v>105.9</v>
@@ -3747,7 +3767,7 @@
         <v>51</v>
       </c>
       <c r="K69" t="n">
-        <v>5.88235294117647</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L69" t="n">
         <v>106.1</v>
@@ -3798,7 +3818,7 @@
         <v>53</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L70" t="n">
         <v>106</v>
@@ -3849,7 +3869,7 @@
         <v>54</v>
       </c>
       <c r="K71" t="n">
-        <v>-10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L71" t="n">
         <v>105.8</v>
@@ -3900,7 +3920,7 @@
         <v>54</v>
       </c>
       <c r="K72" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L72" t="n">
         <v>105.7</v>
@@ -3951,7 +3971,7 @@
         <v>55</v>
       </c>
       <c r="K73" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L73" t="n">
         <v>105.6</v>
@@ -4002,7 +4022,7 @@
         <v>58</v>
       </c>
       <c r="K74" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>105.1</v>
@@ -4053,7 +4073,7 @@
         <v>59</v>
       </c>
       <c r="K75" t="n">
-        <v>-16.66666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L75" t="n">
         <v>104.8</v>
@@ -4104,7 +4124,7 @@
         <v>59</v>
       </c>
       <c r="K76" t="n">
-        <v>-13.04347826086956</v>
+        <v>-50</v>
       </c>
       <c r="L76" t="n">
         <v>104.7</v>
@@ -4155,7 +4175,7 @@
         <v>60</v>
       </c>
       <c r="K77" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>104.4</v>
@@ -4206,7 +4226,7 @@
         <v>61</v>
       </c>
       <c r="K78" t="n">
-        <v>-18.18181818181818</v>
+        <v>-40</v>
       </c>
       <c r="L78" t="n">
         <v>104</v>
@@ -4257,7 +4277,7 @@
         <v>62</v>
       </c>
       <c r="K79" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>103.5</v>
@@ -4308,7 +4328,7 @@
         <v>62</v>
       </c>
       <c r="K80" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L80" t="n">
         <v>103.2</v>
@@ -4359,7 +4379,7 @@
         <v>62</v>
       </c>
       <c r="K81" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L81" t="n">
         <v>103</v>
@@ -4410,7 +4430,7 @@
         <v>63</v>
       </c>
       <c r="K82" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L82" t="n">
         <v>102.7</v>
@@ -4461,7 +4481,7 @@
         <v>63</v>
       </c>
       <c r="K83" t="n">
-        <v>-26.31578947368421</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>102.3</v>
@@ -4512,7 +4532,7 @@
         <v>64</v>
       </c>
       <c r="K84" t="n">
-        <v>-36.84210526315789</v>
+        <v>-60</v>
       </c>
       <c r="L84" t="n">
         <v>102.1</v>
@@ -4563,7 +4583,7 @@
         <v>66</v>
       </c>
       <c r="K85" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L85" t="n">
         <v>102</v>
@@ -4614,7 +4634,7 @@
         <v>66</v>
       </c>
       <c r="K86" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>101.9</v>
@@ -4665,7 +4685,7 @@
         <v>67</v>
       </c>
       <c r="K87" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>101.6</v>
@@ -4716,7 +4736,7 @@
         <v>67</v>
       </c>
       <c r="K88" t="n">
-        <v>-37.5</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>101.4</v>
@@ -4767,7 +4787,7 @@
         <v>68</v>
       </c>
       <c r="K89" t="n">
-        <v>-41.17647058823529</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>101.2</v>
@@ -4869,7 +4889,7 @@
         <v>68</v>
       </c>
       <c r="K91" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L91" t="n">
         <v>100.8</v>
@@ -4920,7 +4940,7 @@
         <v>68.5</v>
       </c>
       <c r="K92" t="n">
-        <v>-31.03448275862069</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L92" t="n">
         <v>100.65</v>
@@ -4971,7 +4991,7 @@
         <v>70</v>
       </c>
       <c r="K93" t="n">
-        <v>-46.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>100.35</v>
@@ -5022,7 +5042,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>-19.40298507462682</v>
+        <v>-48.14814814814799</v>
       </c>
       <c r="L94" t="n">
         <v>100.29</v>
@@ -5073,7 +5093,7 @@
         <v>71.40000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>-29.03225806451607</v>
+        <v>-48.14814814814799</v>
       </c>
       <c r="L95" t="n">
         <v>100.03</v>
@@ -5124,7 +5144,7 @@
         <v>71.90000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>-24.03100775193793</v>
+        <v>-22.44897959183659</v>
       </c>
       <c r="L96" t="n">
         <v>99.82000000000002</v>
@@ -5175,7 +5195,7 @@
         <v>71.90000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>-34.45378151260498</v>
+        <v>-22.44897959183659</v>
       </c>
       <c r="L97" t="n">
         <v>99.71000000000004</v>
@@ -5226,7 +5246,7 @@
         <v>71.90000000000001</v>
       </c>
       <c r="K98" t="n">
-        <v>-28.440366972477</v>
+        <v>-2.564102564102415</v>
       </c>
       <c r="L98" t="n">
         <v>99.60000000000005</v>
@@ -5277,7 +5297,7 @@
         <v>72</v>
       </c>
       <c r="K99" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>99.60000000000005</v>
@@ -5328,7 +5348,7 @@
         <v>73</v>
       </c>
       <c r="K100" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L100" t="n">
         <v>99.70000000000005</v>
@@ -5379,7 +5399,7 @@
         <v>73</v>
       </c>
       <c r="K101" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>99.80000000000004</v>
@@ -5430,7 +5450,7 @@
         <v>73</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>99.95000000000005</v>
@@ -5481,7 +5501,7 @@
         <v>73</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>100.25</v>
@@ -5532,7 +5552,7 @@
         <v>73</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
         <v>100.4100000000001</v>
@@ -5583,7 +5603,7 @@
         <v>73</v>
       </c>
       <c r="K105" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
         <v>100.57</v>
@@ -5634,7 +5654,7 @@
         <v>75</v>
       </c>
       <c r="K106" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
         <v>100.88</v>
@@ -5685,7 +5705,7 @@
         <v>76</v>
       </c>
       <c r="K107" t="n">
-        <v>11.11111111111111</v>
+        <v>51.21951219512189</v>
       </c>
       <c r="L107" t="n">
         <v>101.09</v>
@@ -5736,7 +5756,7 @@
         <v>76</v>
       </c>
       <c r="K108" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L108" t="n">
         <v>101.3</v>
@@ -5787,7 +5807,7 @@
         <v>76</v>
       </c>
       <c r="K109" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>101.5</v>
@@ -5838,7 +5858,7 @@
         <v>76</v>
       </c>
       <c r="K110" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>101.6</v>
@@ -5889,7 +5909,7 @@
         <v>76</v>
       </c>
       <c r="K111" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>101.7</v>
@@ -5991,7 +6011,7 @@
         <v>77</v>
       </c>
       <c r="K113" t="n">
-        <v>71.42857142857143</v>
+        <v>50</v>
       </c>
       <c r="L113" t="n">
         <v>102</v>
@@ -6042,7 +6062,7 @@
         <v>78</v>
       </c>
       <c r="K114" t="n">
-        <v>69.69696969696967</v>
+        <v>60</v>
       </c>
       <c r="L114" t="n">
         <v>102.3</v>
@@ -6093,7 +6113,7 @@
         <v>78</v>
       </c>
       <c r="K115" t="n">
-        <v>69.69696969696967</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>102.6</v>
@@ -6144,7 +6164,7 @@
         <v>79</v>
       </c>
       <c r="K116" t="n">
-        <v>43.66197183098587</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>102.6</v>
@@ -6195,7 +6215,7 @@
         <v>80</v>
       </c>
       <c r="K117" t="n">
-        <v>25.92592592592587</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>102.6</v>
@@ -6246,7 +6266,7 @@
         <v>80</v>
       </c>
       <c r="K118" t="n">
-        <v>25.92592592592587</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>102.6</v>
@@ -6297,7 +6317,7 @@
         <v>81</v>
       </c>
       <c r="K119" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L119" t="n">
         <v>102.7</v>
@@ -6348,7 +6368,7 @@
         <v>82</v>
       </c>
       <c r="K120" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>102.7</v>
@@ -6399,7 +6419,7 @@
         <v>83</v>
       </c>
       <c r="K121" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>102.8</v>
@@ -6450,7 +6470,7 @@
         <v>84</v>
       </c>
       <c r="K122" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L122" t="n">
         <v>102.8</v>
@@ -6501,7 +6521,7 @@
         <v>87.3</v>
       </c>
       <c r="K123" t="n">
-        <v>-16.08391608391607</v>
+        <v>-56.98924731182794</v>
       </c>
       <c r="L123" t="n">
         <v>102.37</v>
@@ -6552,7 +6572,7 @@
         <v>89.59999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>-25.86206896551725</v>
       </c>
       <c r="L124" t="n">
         <v>102.07</v>
@@ -6603,7 +6623,7 @@
         <v>91.59999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>-10.75268817204301</v>
+        <v>-31.74603174603176</v>
       </c>
       <c r="L125" t="n">
         <v>101.57</v>
@@ -6654,7 +6674,7 @@
         <v>92</v>
       </c>
       <c r="K126" t="n">
-        <v>-25.88235294117651</v>
+        <v>-28.33333333333338</v>
       </c>
       <c r="L126" t="n">
         <v>101.13</v>
@@ -6705,7 +6725,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-5.434782608695651</v>
+        <v>-6.944444444444442</v>
       </c>
       <c r="L127" t="n">
         <v>101.03</v>
@@ -6756,7 +6776,7 @@
         <v>94.40000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.434782608695651</v>
+        <v>-14.92537313432835</v>
       </c>
       <c r="L128" t="n">
         <v>100.93</v>
@@ -6807,7 +6827,7 @@
         <v>95.7</v>
       </c>
       <c r="K129" t="n">
-        <v>-11.67512690355328</v>
+        <v>-16.78832116788319</v>
       </c>
       <c r="L129" t="n">
         <v>100.6</v>
@@ -6858,7 +6878,7 @@
         <v>95.7</v>
       </c>
       <c r="K130" t="n">
-        <v>-11.67512690355328</v>
+        <v>-25.98425196850391</v>
       </c>
       <c r="L130" t="n">
         <v>100.37</v>
@@ -6909,7 +6929,7 @@
         <v>95.8</v>
       </c>
       <c r="K131" t="n">
-        <v>-11.11111111111113</v>
+        <v>-18.6440677966102</v>
       </c>
       <c r="L131" t="n">
         <v>100.05</v>
@@ -6960,7 +6980,7 @@
         <v>96</v>
       </c>
       <c r="K132" t="n">
-        <v>-10</v>
+        <v>14.94252873563215</v>
       </c>
       <c r="L132" t="n">
         <v>99.84999999999999</v>
@@ -7011,7 +7031,7 @@
         <v>96</v>
       </c>
       <c r="K133" t="n">
-        <v>-15.78947368421053</v>
+        <v>-15.62499999999999</v>
       </c>
       <c r="L133" t="n">
         <v>99.97999999999999</v>
@@ -7062,7 +7082,7 @@
         <v>96</v>
       </c>
       <c r="K134" t="n">
-        <v>-22.22222222222222</v>
+        <v>22.7272727272727</v>
       </c>
       <c r="L134" t="n">
         <v>99.88</v>
@@ -7113,7 +7133,7 @@
         <v>96</v>
       </c>
       <c r="K135" t="n">
-        <v>-22.22222222222222</v>
+        <v>35.00000000000014</v>
       </c>
       <c r="L135" t="n">
         <v>99.97999999999999</v>
@@ -7164,7 +7184,7 @@
         <v>98</v>
       </c>
       <c r="K136" t="n">
-        <v>-5.263157894736842</v>
+        <v>27.77777777777782</v>
       </c>
       <c r="L136" t="n">
         <v>100.32</v>
@@ -7215,7 +7235,7 @@
         <v>99</v>
       </c>
       <c r="K137" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>100.32</v>
@@ -7266,7 +7286,7 @@
         <v>99</v>
       </c>
       <c r="K138" t="n">
-        <v>-5.263157894736842</v>
+        <v>39.39393939393934</v>
       </c>
       <c r="L138" t="n">
         <v>100.32</v>
@@ -7317,7 +7337,7 @@
         <v>101</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>62.2641509433962</v>
       </c>
       <c r="L139" t="n">
         <v>100.65</v>
@@ -7368,7 +7388,7 @@
         <v>102</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>35.48387096774196</v>
       </c>
       <c r="L140" t="n">
         <v>100.88</v>
@@ -7419,7 +7439,7 @@
         <v>103</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L141" t="n">
         <v>101.2</v>
@@ -7470,7 +7490,7 @@
         <v>104</v>
       </c>
       <c r="K142" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L142" t="n">
         <v>101.6</v>
@@ -7521,7 +7541,7 @@
         <v>104</v>
       </c>
       <c r="K143" t="n">
-        <v>31.73652694610776</v>
+        <v>50</v>
       </c>
       <c r="L143" t="n">
         <v>102</v>
@@ -7572,7 +7592,7 @@
         <v>105</v>
       </c>
       <c r="K144" t="n">
-        <v>12.98701298701298</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>102.3</v>
@@ -7623,7 +7643,7 @@
         <v>105</v>
       </c>
       <c r="K145" t="n">
-        <v>29.8507462686567</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L145" t="n">
         <v>102.6</v>
@@ -7674,7 +7694,7 @@
         <v>106</v>
       </c>
       <c r="K146" t="n">
-        <v>24.28571428571433</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L146" t="n">
         <v>102.6</v>
@@ -7725,7 +7745,7 @@
         <v>106</v>
       </c>
       <c r="K147" t="n">
-        <v>8.620689655172418</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L147" t="n">
         <v>102.7</v>
@@ -7776,7 +7796,7 @@
         <v>106</v>
       </c>
       <c r="K148" t="n">
-        <v>8.620689655172418</v>
+        <v>-20</v>
       </c>
       <c r="L148" t="n">
         <v>102.8</v>
@@ -7827,7 +7847,7 @@
         <v>108</v>
       </c>
       <c r="K149" t="n">
-        <v>34.95934959349592</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>102.9</v>
@@ -7878,7 +7898,7 @@
         <v>109</v>
       </c>
       <c r="K150" t="n">
-        <v>24.81203007518796</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>103</v>
@@ -7929,7 +7949,7 @@
         <v>109</v>
       </c>
       <c r="K151" t="n">
-        <v>24.24242424242426</v>
+        <v>-20</v>
       </c>
       <c r="L151" t="n">
         <v>103</v>
@@ -7980,7 +8000,7 @@
         <v>110</v>
       </c>
       <c r="K152" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>102.8</v>
@@ -8031,7 +8051,7 @@
         <v>110</v>
       </c>
       <c r="K153" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L153" t="n">
         <v>102.6</v>
@@ -8082,7 +8102,7 @@
         <v>110</v>
       </c>
       <c r="K154" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>102.5</v>
@@ -8133,7 +8153,7 @@
         <v>110</v>
       </c>
       <c r="K155" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>102.4</v>
@@ -8235,7 +8255,7 @@
         <v>110</v>
       </c>
       <c r="K157" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>102.4</v>
@@ -8286,7 +8306,7 @@
         <v>110</v>
       </c>
       <c r="K158" t="n">
-        <v>9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L158" t="n">
         <v>102.4</v>
@@ -8337,7 +8357,7 @@
         <v>110</v>
       </c>
       <c r="K159" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L159" t="n">
         <v>102.2</v>
@@ -8388,7 +8408,7 @@
         <v>111</v>
       </c>
       <c r="K160" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>102.2</v>
@@ -8439,7 +8459,7 @@
         <v>112</v>
       </c>
       <c r="K161" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>102.1</v>
@@ -8592,7 +8612,7 @@
         <v>113</v>
       </c>
       <c r="K164" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>101.8</v>
@@ -8643,7 +8663,7 @@
         <v>113</v>
       </c>
       <c r="K165" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>101.7</v>
@@ -8694,7 +8714,7 @@
         <v>113</v>
       </c>
       <c r="K166" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>101.6</v>
@@ -8745,7 +8765,7 @@
         <v>113</v>
       </c>
       <c r="K167" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>101.5</v>
@@ -8796,7 +8816,7 @@
         <v>115</v>
       </c>
       <c r="K168" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
         <v>101.6</v>
@@ -8847,7 +8867,7 @@
         <v>115</v>
       </c>
       <c r="K169" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>101.7</v>
@@ -8898,7 +8918,7 @@
         <v>117</v>
       </c>
       <c r="K170" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L170" t="n">
         <v>101.5</v>
@@ -8949,7 +8969,7 @@
         <v>119</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L171" t="n">
         <v>101.6</v>
@@ -9000,7 +9020,7 @@
         <v>119</v>
       </c>
       <c r="K172" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>101.8</v>
@@ -9051,7 +9071,7 @@
         <v>119</v>
       </c>
       <c r="K173" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>102</v>
@@ -9102,7 +9122,7 @@
         <v>119</v>
       </c>
       <c r="K174" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>102.2</v>
@@ -9153,7 +9173,7 @@
         <v>119</v>
       </c>
       <c r="K175" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>102.4</v>
@@ -9204,7 +9224,7 @@
         <v>119</v>
       </c>
       <c r="K176" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>102.6</v>
@@ -9306,7 +9326,7 @@
         <v>121</v>
       </c>
       <c r="K178" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>102.9</v>
@@ -9357,7 +9377,7 @@
         <v>122</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L179" t="n">
         <v>102.8</v>
@@ -9408,7 +9428,7 @@
         <v>123</v>
       </c>
       <c r="K180" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L180" t="n">
         <v>102.8</v>
@@ -9459,7 +9479,7 @@
         <v>124.2</v>
       </c>
       <c r="K181" t="n">
-        <v>-18.03278688524592</v>
+        <v>-61.53846153846156</v>
       </c>
       <c r="L181" t="n">
         <v>102.48</v>
@@ -9510,7 +9530,7 @@
         <v>125</v>
       </c>
       <c r="K182" t="n">
-        <v>-16.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L182" t="n">
         <v>102.08</v>
@@ -9561,7 +9581,7 @@
         <v>125</v>
       </c>
       <c r="K183" t="n">
-        <v>-16.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L183" t="n">
         <v>101.68</v>
@@ -9612,7 +9632,7 @@
         <v>125</v>
       </c>
       <c r="K184" t="n">
-        <v>-16.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L184" t="n">
         <v>101.28</v>
@@ -9663,7 +9683,7 @@
         <v>125.8</v>
       </c>
       <c r="K185" t="n">
-        <v>-9.375000000000025</v>
+        <v>-47.05882352941182</v>
       </c>
       <c r="L185" t="n">
         <v>100.96</v>
@@ -9714,7 +9734,7 @@
         <v>126</v>
       </c>
       <c r="K186" t="n">
-        <v>-7.692307692307693</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L186" t="n">
         <v>100.66</v>
@@ -9765,7 +9785,7 @@
         <v>127.7</v>
       </c>
       <c r="K187" t="n">
-        <v>-18.36734693877553</v>
+        <v>-70.14925373134329</v>
       </c>
       <c r="L187" t="n">
         <v>100.09</v>
@@ -9816,7 +9836,7 @@
         <v>129.4</v>
       </c>
       <c r="K188" t="n">
-        <v>-20.83333333333333</v>
+        <v>-27.02702702702701</v>
       </c>
       <c r="L188" t="n">
         <v>99.78999999999996</v>
@@ -9867,7 +9887,7 @@
         <v>130.9</v>
       </c>
       <c r="K189" t="n">
-        <v>-28.30188679245282</v>
+        <v>-31.64556962025314</v>
       </c>
       <c r="L189" t="n">
         <v>99.43999999999997</v>
@@ -9918,7 +9938,7 @@
         <v>132.2</v>
       </c>
       <c r="K190" t="n">
-        <v>-7.894736842105288</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>99.31999999999996</v>
@@ -9969,7 +9989,7 @@
         <v>133.4</v>
       </c>
       <c r="K191" t="n">
-        <v>-30.55555555555564</v>
+        <v>-4.761904761904842</v>
       </c>
       <c r="L191" t="n">
         <v>99.19999999999996</v>
@@ -10020,7 +10040,7 @@
         <v>133.4</v>
       </c>
       <c r="K192" t="n">
-        <v>-30.55555555555564</v>
+        <v>-4.761904761904842</v>
       </c>
       <c r="L192" t="n">
         <v>99.15999999999994</v>
@@ -10071,7 +10091,7 @@
         <v>133.9</v>
       </c>
       <c r="K193" t="n">
-        <v>-32.88590604026854</v>
+        <v>-10.11235955056189</v>
       </c>
       <c r="L193" t="n">
         <v>99.06999999999994</v>
@@ -10122,7 +10142,7 @@
         <v>135.4</v>
       </c>
       <c r="K194" t="n">
-        <v>-20.73170731707323</v>
+        <v>-2.083333333333367</v>
       </c>
       <c r="L194" t="n">
         <v>99.12999999999992</v>
@@ -10173,7 +10193,7 @@
         <v>136.9</v>
       </c>
       <c r="K195" t="n">
-        <v>-27.37430167597772</v>
+        <v>-17.43119266055055</v>
       </c>
       <c r="L195" t="n">
         <v>98.95999999999992</v>
@@ -10224,7 +10244,7 @@
         <v>137</v>
       </c>
       <c r="K196" t="n">
-        <v>-27.77777777777782</v>
+        <v>-3.225806451612883</v>
       </c>
       <c r="L196" t="n">
         <v>98.75999999999992</v>
@@ -10275,7 +10295,7 @@
         <v>140</v>
       </c>
       <c r="K197" t="n">
-        <v>-45.00000000000006</v>
+        <v>-47.16981132075487</v>
       </c>
       <c r="L197" t="n">
         <v>98.42999999999992</v>
@@ -10326,7 +10346,7 @@
         <v>143.6</v>
       </c>
       <c r="K198" t="n">
-        <v>-19.46902654867262</v>
+        <v>0.7874015748031072</v>
       </c>
       <c r="L198" t="n">
         <v>98.28999999999992</v>
@@ -10377,7 +10397,7 @@
         <v>146.2</v>
       </c>
       <c r="K199" t="n">
-        <v>-24.79338842975211</v>
+        <v>-27.14285714285718</v>
       </c>
       <c r="L199" t="n">
         <v>98.03999999999992</v>
@@ -10428,7 +10448,7 @@
         <v>148.9999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>-8.461538461538492</v>
+        <v>1.282051282051303</v>
       </c>
       <c r="L200" t="n">
         <v>97.93999999999991</v>
@@ -10479,7 +10499,7 @@
         <v>149.1999999999999</v>
       </c>
       <c r="K201" t="n">
-        <v>-3.199999999999998</v>
+        <v>2.531645569620296</v>
       </c>
       <c r="L201" t="n">
         <v>97.97999999999992</v>
@@ -10530,7 +10550,7 @@
         <v>152.0999999999999</v>
       </c>
       <c r="K202" t="n">
-        <v>-10.70110701107016</v>
+        <v>-10.98901098901101</v>
       </c>
       <c r="L202" t="n">
         <v>97.72999999999992</v>
@@ -10581,7 +10601,7 @@
         <v>152.0999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>-10.70110701107016</v>
+        <v>-20.95808383233538</v>
       </c>
       <c r="L203" t="n">
         <v>97.52999999999992</v>
@@ -10632,7 +10652,7 @@
         <v>152.1999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>-10.29411764705884</v>
+        <v>-12.41830065359475</v>
       </c>
       <c r="L204" t="n">
         <v>97.18999999999991</v>
@@ -10683,7 +10703,7 @@
         <v>152.1999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>-13.63636363636365</v>
+        <v>-11.84210526315791</v>
       </c>
       <c r="L205" t="n">
         <v>96.9999999999999</v>
@@ -10734,7 +10754,7 @@
         <v>154.5999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>-4.895104895104931</v>
+        <v>24.65753424657541</v>
       </c>
       <c r="L206" t="n">
         <v>97.0599999999999</v>
@@ -10785,7 +10805,7 @@
         <v>154.5999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>1.115241635687726</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>97.41999999999989</v>
@@ -10836,7 +10856,7 @@
         <v>154.5999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-5.5555555555556</v>
+        <v>30.95238095238108</v>
       </c>
       <c r="L208" t="n">
         <v>97.41999999999987</v>
@@ -10887,7 +10907,7 @@
         <v>154.6999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>0.8403361344537961</v>
+        <v>-1.754385964912184</v>
       </c>
       <c r="L209" t="n">
         <v>97.68999999999987</v>
@@ -10938,7 +10958,7 @@
         <v>154.6999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>-4.888888888888876</v>
+        <v>-5.454545454545403</v>
       </c>
       <c r="L210" t="n">
         <v>97.67999999999988</v>
@@ -10989,7 +11009,7 @@
         <v>155.5999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>4.504504504504518</v>
+        <v>100.0000000000008</v>
       </c>
       <c r="L211" t="n">
         <v>97.73999999999987</v>
@@ -11040,7 +11060,7 @@
         <v>155.5999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>4.504504504504518</v>
+        <v>100.0000000000008</v>
       </c>
       <c r="L212" t="n">
         <v>98.08999999999986</v>
@@ -11091,7 +11111,7 @@
         <v>155.5999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>6.912442396313385</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L213" t="n">
         <v>98.43999999999986</v>
@@ -11142,7 +11162,7 @@
         <v>155.9999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>1.941747572815568</v>
+        <v>100.0000000000004</v>
       </c>
       <c r="L214" t="n">
         <v>98.81999999999987</v>
@@ -11193,7 +11213,7 @@
         <v>155.9999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>9.947643979057654</v>
+        <v>100</v>
       </c>
       <c r="L215" t="n">
         <v>99.19999999999986</v>
@@ -11244,7 +11264,7 @@
         <v>155.9999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>10.52631578947372</v>
+        <v>100</v>
       </c>
       <c r="L216" t="n">
         <v>99.33999999999986</v>
@@ -11295,7 +11315,7 @@
         <v>155.9999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>31.25000000000011</v>
+        <v>100</v>
       </c>
       <c r="L217" t="n">
         <v>99.47999999999988</v>
@@ -11346,7 +11366,7 @@
         <v>155.9999999999999</v>
       </c>
       <c r="K218" t="n">
-        <v>11.29032258064525</v>
+        <v>100.0000000000011</v>
       </c>
       <c r="L218" t="n">
         <v>99.61999999999988</v>
@@ -11397,7 +11417,7 @@
         <v>155.9999999999999</v>
       </c>
       <c r="K219" t="n">
-        <v>40.81632653061244</v>
+        <v>100.0000000000011</v>
       </c>
       <c r="L219" t="n">
         <v>99.74999999999989</v>
@@ -11448,7 +11468,7 @@
         <v>158.0999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>-9.890109890109834</v>
+        <v>-67.99999999999955</v>
       </c>
       <c r="L220" t="n">
         <v>99.66999999999989</v>
@@ -11499,7 +11519,7 @@
         <v>158.4999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>-7.526881720430175</v>
+        <v>-44.82758620689681</v>
       </c>
       <c r="L221" t="n">
         <v>99.53999999999988</v>
@@ -11550,7 +11570,7 @@
         <v>159.5999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>44.00000000000032</v>
+        <v>-4.999999999999716</v>
       </c>
       <c r="L222" t="n">
         <v>99.51999999999988</v>
@@ -11601,7 +11621,7 @@
         <v>159.5999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>44.00000000000032</v>
+        <v>-16.66666666666654</v>
       </c>
       <c r="L223" t="n">
         <v>99.49999999999987</v>
@@ -11652,7 +11672,7 @@
         <v>159.5999999999999</v>
       </c>
       <c r="K224" t="n">
-        <v>43.24324324324341</v>
+        <v>-16.66666666666654</v>
       </c>
       <c r="L224" t="n">
         <v>99.43999999999987</v>
@@ -11703,7 +11723,7 @@
         <v>160.1999999999999</v>
       </c>
       <c r="K225" t="n">
-        <v>47.50000000000013</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>99.43999999999987</v>
@@ -11754,7 +11774,7 @@
         <v>160.6999999999999</v>
       </c>
       <c r="K226" t="n">
-        <v>14.75409836065585</v>
+        <v>-10.63829787234045</v>
       </c>
       <c r="L226" t="n">
         <v>99.38999999999987</v>
@@ -11805,7 +11825,7 @@
         <v>161.9999999999999</v>
       </c>
       <c r="K227" t="n">
-        <v>-5.405405405405307</v>
+        <v>-30.00000000000009</v>
       </c>
       <c r="L227" t="n">
         <v>99.20999999999988</v>
@@ -11856,7 +11876,7 @@
         <v>162.0999999999999</v>
       </c>
       <c r="K228" t="n">
-        <v>-6.666666666666667</v>
+        <v>-31.14754098360668</v>
       </c>
       <c r="L228" t="n">
         <v>99.01999999999987</v>
@@ -11907,7 +11927,7 @@
         <v>163.9999999999999</v>
       </c>
       <c r="K229" t="n">
-        <v>13.97849462365591</v>
+        <v>35.59322033898292</v>
       </c>
       <c r="L229" t="n">
         <v>99.01999999999987</v>
@@ -11958,7 +11978,7 @@
         <v>164.9999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>22.33009708737865</v>
+        <v>41.53846153846141</v>
       </c>
       <c r="L230" t="n">
         <v>99.32999999999987</v>
@@ -12009,7 +12029,7 @@
         <v>167.6999999999999</v>
       </c>
       <c r="K231" t="n">
-        <v>-10.74380165289252</v>
+        <v>-13.58024691358031</v>
       </c>
       <c r="L231" t="n">
         <v>99.32999999999988</v>
@@ -12060,7 +12080,7 @@
         <v>171.3999999999999</v>
       </c>
       <c r="K232" t="n">
-        <v>15.18987341772154</v>
+        <v>22.03389830508468</v>
       </c>
       <c r="L232" t="n">
         <v>99.58999999999989</v>
@@ -12111,7 +12131,7 @@
         <v>174.9999999999999</v>
       </c>
       <c r="K233" t="n">
-        <v>-6.185567010309218</v>
+        <v>-6.493506493506492</v>
       </c>
       <c r="L233" t="n">
         <v>99.48999999999988</v>
@@ -12162,7 +12182,7 @@
         <v>175.7999999999999</v>
       </c>
       <c r="K234" t="n">
-        <v>-4.04040404040403</v>
+        <v>-5.128205128205112</v>
       </c>
       <c r="L234" t="n">
         <v>99.46999999999989</v>
@@ -12213,7 +12233,7 @@
         <v>175.8999999999999</v>
       </c>
       <c r="K235" t="n">
-        <v>-3.51758793969851</v>
+        <v>-1.31578947368423</v>
       </c>
       <c r="L235" t="n">
         <v>99.39999999999989</v>
@@ -12264,7 +12284,7 @@
         <v>178.5999999999999</v>
       </c>
       <c r="K236" t="n">
-        <v>8.849557522123897</v>
+        <v>22.89156626506019</v>
       </c>
       <c r="L236" t="n">
         <v>99.64999999999989</v>
@@ -12315,7 +12335,7 @@
         <v>181.6999999999999</v>
       </c>
       <c r="K237" t="n">
-        <v>-4.280155642023327</v>
+        <v>4.081632653061284</v>
       </c>
       <c r="L237" t="n">
         <v>99.71999999999989</v>
@@ -12366,7 +12386,7 @@
         <v>181.7999999999999</v>
       </c>
       <c r="K238" t="n">
-        <v>-3.875968992248065</v>
+        <v>-5.617977528089893</v>
       </c>
       <c r="L238" t="n">
         <v>99.80999999999989</v>
@@ -12417,7 +12437,7 @@
         <v>184.7999999999999</v>
       </c>
       <c r="K239" t="n">
-        <v>6.944444444444449</v>
+        <v>5.050505050505055</v>
       </c>
       <c r="L239" t="n">
         <v>100.0099999999999</v>
@@ -12468,7 +12488,7 @@
         <v>187.8999999999999</v>
       </c>
       <c r="K240" t="n">
-        <v>3.355704697986579</v>
+        <v>2.970297029703018</v>
       </c>
       <c r="L240" t="n">
         <v>99.79999999999991</v>
@@ -12519,7 +12539,7 @@
         <v>191.9999999999999</v>
       </c>
       <c r="K241" t="n">
-        <v>14.02985074626867</v>
+        <v>4.854368932038843</v>
       </c>
       <c r="L241" t="n">
         <v>100.2699999999999</v>
@@ -12570,7 +12590,7 @@
         <v>196.0999999999999</v>
       </c>
       <c r="K242" t="n">
-        <v>-1.369863013698631</v>
+        <v>2.369668246445502</v>
       </c>
       <c r="L242" t="n">
         <v>99.95999999999992</v>
@@ -12621,7 +12641,7 @@
         <v>196.0999999999999</v>
       </c>
       <c r="K243" t="n">
-        <v>-1.369863013698631</v>
+        <v>-1.477832512315258</v>
       </c>
       <c r="L243" t="n">
         <v>100.0099999999999</v>
@@ -12672,7 +12692,7 @@
         <v>201.1999999999999</v>
       </c>
       <c r="K244" t="n">
-        <v>11.0576923076923</v>
+        <v>18.57707509881425</v>
       </c>
       <c r="L244" t="n">
         <v>100.4899999999999</v>
@@ -12723,7 +12743,7 @@
         <v>202.1999999999999</v>
       </c>
       <c r="K245" t="n">
-        <v>7.142857142857148</v>
+        <v>4.237288135593227</v>
       </c>
       <c r="L245" t="n">
         <v>100.8599999999999</v>
@@ -12774,7 +12794,7 @@
         <v>202.1999999999999</v>
       </c>
       <c r="K246" t="n">
-        <v>8.433734939759043</v>
+        <v>20</v>
       </c>
       <c r="L246" t="n">
         <v>100.96</v>
@@ -12825,7 +12845,7 @@
         <v>202.1999999999999</v>
       </c>
       <c r="K247" t="n">
-        <v>11.94029850746268</v>
+        <v>19.60784313725492</v>
       </c>
       <c r="L247" t="n">
         <v>101.3699999999999</v>
@@ -12876,7 +12896,7 @@
         <v>204.1999999999999</v>
       </c>
       <c r="K248" t="n">
-        <v>16.38954869358673</v>
+        <v>15.46391752577321</v>
       </c>
       <c r="L248" t="n">
         <v>101.9699999999999</v>
@@ -12927,7 +12947,7 @@
         <v>204.1999999999999</v>
       </c>
       <c r="K249" t="n">
-        <v>12.43781094527364</v>
+        <v>37.42331288343559</v>
       </c>
       <c r="L249" t="n">
         <v>102.2699999999999</v>
@@ -12978,7 +12998,7 @@
         <v>206.1999999999999</v>
       </c>
       <c r="K250" t="n">
-        <v>4.85436893203884</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>102.6799999999999</v>
@@ -13029,7 +13049,7 @@
         <v>206.1999999999999</v>
       </c>
       <c r="K251" t="n">
-        <v>12.20779220779223</v>
+        <v>40.59405940594056</v>
       </c>
       <c r="L251" t="n">
         <v>102.6799999999999</v>
@@ -13080,7 +13100,7 @@
         <v>206.1999999999999</v>
       </c>
       <c r="K252" t="n">
-        <v>2.873563218390808</v>
+        <v>40.59405940594056</v>
       </c>
       <c r="L252" t="n">
         <v>103.0899999999999</v>
@@ -13131,7 +13151,7 @@
         <v>209.1999999999999</v>
       </c>
       <c r="K253" t="n">
-        <v>22.22222222222223</v>
+        <v>25</v>
       </c>
       <c r="L253" t="n">
         <v>103.7999999999999</v>

--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S253"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>110</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,22 +841,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L13" t="n">
-        <v>110</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>109.8</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1055,22 +911,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>10</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>109.5</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1102,22 +946,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>10</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L16" t="n">
-        <v>109.3</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,22 +981,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>10</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L17" t="n">
-        <v>109.1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,22 +1016,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L18" t="n">
-        <v>108.8</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1243,22 +1051,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L19" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>12</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>13</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>108.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>109.25</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>14</v>
-      </c>
-      <c r="K22" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>108.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>109.35</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>15</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>108.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>109.35</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>15</v>
-      </c>
-      <c r="K24" t="n">
-        <v>20</v>
-      </c>
-      <c r="L24" t="n">
-        <v>108.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>109.25</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>16</v>
-      </c>
-      <c r="K25" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>108.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>109.2</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>16</v>
-      </c>
-      <c r="K26" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>109.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>109.2</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>17</v>
-      </c>
-      <c r="K27" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L27" t="n">
-        <v>109.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>109.25</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>17</v>
-      </c>
-      <c r="K28" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L28" t="n">
-        <v>109.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>109.25</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>19</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L29" t="n">
-        <v>109.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>109.2</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>21</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L30" t="n">
-        <v>109.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>109.05</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
-      </c>
-      <c r="J31" t="n">
-        <v>24</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>109.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>109.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>109.3666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>24</v>
-      </c>
-      <c r="K32" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L32" t="n">
-        <v>109.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>109.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>109.4333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>25</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>109.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>109.15</v>
-      </c>
-      <c r="N33" t="n">
-        <v>109.4333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>27</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L34" t="n">
-        <v>109.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>109.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>109.3</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>27</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L35" t="n">
-        <v>109.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>109</v>
-      </c>
-      <c r="N35" t="n">
-        <v>109.1666666666667</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>27</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L36" t="n">
-        <v>108.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>108.95</v>
-      </c>
-      <c r="N36" t="n">
-        <v>109.0666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>27</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L37" t="n">
-        <v>108.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>108.9</v>
-      </c>
-      <c r="N37" t="n">
-        <v>108.9666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>27</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L38" t="n">
-        <v>108</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>108.85</v>
-      </c>
-      <c r="N38" t="n">
-        <v>108.8333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>27</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>107.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>108.8</v>
-      </c>
-      <c r="N39" t="n">
-        <v>108.7333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>27</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L40" t="n">
-        <v>107.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>108.65</v>
-      </c>
-      <c r="N40" t="n">
-        <v>108.6333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>27</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L41" t="n">
-        <v>107.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>108.55</v>
-      </c>
-      <c r="N41" t="n">
-        <v>108.5333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>27</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L42" t="n">
-        <v>107.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>108.4</v>
-      </c>
-      <c r="N42" t="n">
-        <v>108.4666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,26 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>107</v>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>108.3</v>
-      </c>
-      <c r="N43" t="n">
-        <v>108.4333333333333</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2486,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>28</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L44" t="n">
-        <v>106.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>108.15</v>
-      </c>
-      <c r="N44" t="n">
-        <v>108.3333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,26 +1961,10 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>30</v>
-      </c>
-      <c r="K45" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>107</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>108.05</v>
-      </c>
-      <c r="N45" t="n">
-        <v>108.3333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,26 +1996,10 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>30</v>
-      </c>
-      <c r="K46" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L46" t="n">
-        <v>107.1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>107.95</v>
-      </c>
-      <c r="N46" t="n">
-        <v>108.3333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,26 +2031,10 @@
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>30</v>
-      </c>
-      <c r="K47" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>107.2</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>107.8</v>
-      </c>
-      <c r="N47" t="n">
-        <v>108.3333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2690,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>31</v>
-      </c>
-      <c r="K48" t="n">
-        <v>50</v>
-      </c>
-      <c r="L48" t="n">
-        <v>107.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>107.7</v>
-      </c>
-      <c r="N48" t="n">
-        <v>108.3666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J49" t="n">
-        <v>34</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L49" t="n">
-        <v>107.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>107.55</v>
-      </c>
-      <c r="N49" t="n">
-        <v>108.3</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>34</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L50" t="n">
-        <v>107.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="N50" t="n">
-        <v>108.1666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2843,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>34</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L51" t="n">
-        <v>107.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>107.3</v>
-      </c>
-      <c r="N51" t="n">
-        <v>108.0666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2894,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>34</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L52" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>107.1</v>
-      </c>
-      <c r="N52" t="n">
-        <v>107.9333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>34</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>106.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>106.95</v>
-      </c>
-      <c r="N53" t="n">
-        <v>107.8333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2996,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>34</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L54" t="n">
-        <v>106.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>106.9</v>
-      </c>
-      <c r="N54" t="n">
-        <v>107.7333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3047,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>35</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L55" t="n">
-        <v>106.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>106.9</v>
-      </c>
-      <c r="N55" t="n">
-        <v>107.6333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>36</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L56" t="n">
-        <v>106.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>106.85</v>
-      </c>
-      <c r="N56" t="n">
-        <v>107.5</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,26 +2381,10 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>38</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L57" t="n">
-        <v>106.6</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>106.9</v>
-      </c>
-      <c r="N57" t="n">
-        <v>107.4</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3200,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>39</v>
-      </c>
-      <c r="K58" t="n">
-        <v>20</v>
-      </c>
-      <c r="L58" t="n">
-        <v>106.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>106.9</v>
-      </c>
-      <c r="N58" t="n">
-        <v>107.2666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3251,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>41</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L59" t="n">
-        <v>106.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>106.8</v>
-      </c>
-      <c r="N59" t="n">
-        <v>107.1333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>42</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>106.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>106.75</v>
-      </c>
-      <c r="N60" t="n">
-        <v>107.1</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>42</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>106.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="N61" t="n">
-        <v>106.9666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>43</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L62" t="n">
-        <v>106.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>106.6</v>
-      </c>
-      <c r="N62" t="n">
-        <v>106.8</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3455,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>44</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>106.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>106.55</v>
-      </c>
-      <c r="N63" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>45</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>106.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>106.6</v>
-      </c>
-      <c r="N64" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3557,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>46</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>106.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="N65" t="n">
-        <v>106.6666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>48</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L66" t="n">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>106.3</v>
-      </c>
-      <c r="N66" t="n">
-        <v>106.5666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>51</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>105.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>106.25</v>
-      </c>
-      <c r="N67" t="n">
-        <v>106.5666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>51</v>
-      </c>
-      <c r="K68" t="n">
-        <v>20</v>
-      </c>
-      <c r="L68" t="n">
-        <v>105.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>106.15</v>
-      </c>
-      <c r="N68" t="n">
-        <v>106.5666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3761,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>51</v>
-      </c>
-      <c r="K69" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L69" t="n">
-        <v>106.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="N69" t="n">
-        <v>106.5666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>53</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L70" t="n">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>106.15</v>
-      </c>
-      <c r="N70" t="n">
-        <v>106.5</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>54</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L71" t="n">
-        <v>105.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>106.05</v>
-      </c>
-      <c r="N71" t="n">
-        <v>106.4</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>54</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L72" t="n">
-        <v>105.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>105.95</v>
-      </c>
-      <c r="N72" t="n">
-        <v>106.3</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>55</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L73" t="n">
-        <v>105.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>105.9</v>
-      </c>
-      <c r="N73" t="n">
-        <v>106.2333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>58</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L74" t="n">
-        <v>105.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="N74" t="n">
-        <v>106.1</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4067,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>59</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L75" t="n">
-        <v>104.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>105.5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>105.9333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>59</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L76" t="n">
-        <v>104.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>105.35</v>
-      </c>
-      <c r="N76" t="n">
-        <v>105.7666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4169,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>60</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>104.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>105.15</v>
-      </c>
-      <c r="N77" t="n">
-        <v>105.6333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>61</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L78" t="n">
-        <v>104</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>104.95</v>
-      </c>
-      <c r="N78" t="n">
-        <v>105.4333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4271,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>62</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L79" t="n">
-        <v>103.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="N79" t="n">
-        <v>105.3</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>62</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L80" t="n">
-        <v>103.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>104.6</v>
-      </c>
-      <c r="N80" t="n">
-        <v>105.1666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4373,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>62</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L81" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="N81" t="n">
-        <v>105.0333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>63</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L82" t="n">
-        <v>102.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="N82" t="n">
-        <v>104.8666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4475,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>63</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L83" t="n">
-        <v>102.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>103.95</v>
-      </c>
-      <c r="N83" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>64</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L84" t="n">
-        <v>102.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="N84" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>66</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L85" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="N85" t="n">
-        <v>104.3333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>66</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>101.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>103.3</v>
-      </c>
-      <c r="N86" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4679,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>67</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L87" t="n">
-        <v>101.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>103</v>
-      </c>
-      <c r="N87" t="n">
-        <v>103.9666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>67</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L88" t="n">
-        <v>101.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="N88" t="n">
-        <v>103.7666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4781,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J89" t="n">
-        <v>68</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L89" t="n">
-        <v>101.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>102.35</v>
-      </c>
-      <c r="N89" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J90" t="n">
-        <v>68</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="N90" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4883,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>68</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L91" t="n">
-        <v>100.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="N91" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4934,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L92" t="n">
-        <v>100.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>101.675</v>
-      </c>
-      <c r="N92" t="n">
-        <v>103.0166666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4985,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>70</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L93" t="n">
-        <v>100.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="N93" t="n">
-        <v>102.75</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-8.599999999999994</v>
-      </c>
-      <c r="J94" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-48.14814814814799</v>
-      </c>
-      <c r="L94" t="n">
-        <v>100.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>101.195</v>
-      </c>
-      <c r="N94" t="n">
-        <v>102.4966666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-8.599999999999994</v>
-      </c>
-      <c r="J95" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-48.14814814814799</v>
-      </c>
-      <c r="L95" t="n">
-        <v>100.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>101.015</v>
-      </c>
-      <c r="N95" t="n">
-        <v>102.2766666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-8.099999999999994</v>
-      </c>
-      <c r="J96" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-22.44897959183659</v>
-      </c>
-      <c r="L96" t="n">
-        <v>99.82000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>100.86</v>
-      </c>
-      <c r="N96" t="n">
-        <v>102.14</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-8.099999999999994</v>
-      </c>
-      <c r="J97" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-22.44897959183659</v>
-      </c>
-      <c r="L97" t="n">
-        <v>99.71000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>100.655</v>
-      </c>
-      <c r="N97" t="n">
-        <v>101.9033333333334</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5240,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-8.099999999999994</v>
-      </c>
-      <c r="J98" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-2.564102564102415</v>
-      </c>
-      <c r="L98" t="n">
-        <v>99.60000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="N98" t="n">
-        <v>101.6666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5291,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>72</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>99.60000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="N99" t="n">
-        <v>101.4333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>73</v>
-      </c>
-      <c r="K100" t="n">
-        <v>20</v>
-      </c>
-      <c r="L100" t="n">
-        <v>99.70000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>100.35</v>
-      </c>
-      <c r="N100" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5393,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>73</v>
-      </c>
-      <c r="K101" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L101" t="n">
-        <v>99.80000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="N101" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J102" t="n">
-        <v>73</v>
-      </c>
-      <c r="K102" t="n">
-        <v>100</v>
-      </c>
-      <c r="L102" t="n">
-        <v>99.95000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="N102" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5495,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J103" t="n">
-        <v>73</v>
-      </c>
-      <c r="K103" t="n">
-        <v>100</v>
-      </c>
-      <c r="L103" t="n">
-        <v>100.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="N103" t="n">
-        <v>100.9666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>73</v>
-      </c>
-      <c r="K104" t="n">
-        <v>100</v>
-      </c>
-      <c r="L104" t="n">
-        <v>100.4100000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>100.35</v>
-      </c>
-      <c r="N104" t="n">
-        <v>100.9333333333334</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5597,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J105" t="n">
-        <v>73</v>
-      </c>
-      <c r="K105" t="n">
-        <v>100</v>
-      </c>
-      <c r="L105" t="n">
-        <v>100.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="N105" t="n">
-        <v>100.8666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,28 +4094,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>75</v>
-      </c>
-      <c r="K106" t="n">
-        <v>100</v>
-      </c>
-      <c r="L106" t="n">
-        <v>100.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>100.35</v>
-      </c>
-      <c r="N106" t="n">
-        <v>100.8666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>76</v>
-      </c>
-      <c r="K107" t="n">
-        <v>51.21951219512189</v>
-      </c>
-      <c r="L107" t="n">
-        <v>101.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="N107" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J108" t="n">
-        <v>76</v>
-      </c>
-      <c r="K108" t="n">
-        <v>50</v>
-      </c>
-      <c r="L108" t="n">
-        <v>101.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>100.45</v>
-      </c>
-      <c r="N108" t="n">
-        <v>100.7666666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5801,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J109" t="n">
-        <v>76</v>
-      </c>
-      <c r="K109" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L109" t="n">
-        <v>101.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>100.55</v>
-      </c>
-      <c r="N109" t="n">
-        <v>100.7666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5852,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J110" t="n">
-        <v>76</v>
-      </c>
-      <c r="K110" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L110" t="n">
-        <v>101.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>100.65</v>
-      </c>
-      <c r="N110" t="n">
-        <v>100.7666666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5903,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J111" t="n">
-        <v>76</v>
-      </c>
-      <c r="K111" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L111" t="n">
-        <v>101.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>100.75</v>
-      </c>
-      <c r="N111" t="n">
-        <v>100.7666666666667</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5954,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J112" t="n">
-        <v>76</v>
-      </c>
-      <c r="K112" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L112" t="n">
-        <v>101.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>100.875</v>
-      </c>
-      <c r="N112" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6005,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>77</v>
-      </c>
-      <c r="K113" t="n">
-        <v>50</v>
-      </c>
-      <c r="L113" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>101.125</v>
-      </c>
-      <c r="N113" t="n">
-        <v>100.8666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6056,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>78</v>
-      </c>
-      <c r="K114" t="n">
-        <v>60</v>
-      </c>
-      <c r="L114" t="n">
-        <v>102.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>101.355</v>
-      </c>
-      <c r="N114" t="n">
-        <v>101</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6107,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J115" t="n">
-        <v>78</v>
-      </c>
-      <c r="K115" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L115" t="n">
-        <v>102.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>101.585</v>
-      </c>
-      <c r="N115" t="n">
-        <v>101.0666666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6158,28 +4444,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>79</v>
-      </c>
-      <c r="K116" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L116" t="n">
-        <v>102.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>101.74</v>
-      </c>
-      <c r="N116" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6209,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J117" t="n">
-        <v>80</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>102.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>101.845</v>
-      </c>
-      <c r="N117" t="n">
-        <v>101.1333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6260,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J118" t="n">
-        <v>80</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>102.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>101.95</v>
-      </c>
-      <c r="N118" t="n">
-        <v>101.1666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>81</v>
-      </c>
-      <c r="K119" t="n">
-        <v>20</v>
-      </c>
-      <c r="L119" t="n">
-        <v>102.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="N119" t="n">
-        <v>101.2666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J120" t="n">
-        <v>82</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>102.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>102.15</v>
-      </c>
-      <c r="N120" t="n">
-        <v>101.3333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6413,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>83</v>
-      </c>
-      <c r="K121" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L121" t="n">
-        <v>102.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>102.25</v>
-      </c>
-      <c r="N121" t="n">
-        <v>101.4333333333334</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6464,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J122" t="n">
-        <v>84</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L122" t="n">
-        <v>102.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="N122" t="n">
-        <v>101.5166666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6515,28 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-9.299999999999997</v>
-      </c>
-      <c r="J123" t="n">
-        <v>87.3</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-56.98924731182794</v>
-      </c>
-      <c r="L123" t="n">
-        <v>102.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>102.185</v>
-      </c>
-      <c r="N123" t="n">
-        <v>101.54</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6566,28 +4724,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J124" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-25.86206896551725</v>
-      </c>
-      <c r="L124" t="n">
-        <v>102.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>102.185</v>
-      </c>
-      <c r="N124" t="n">
-        <v>101.5933333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6617,28 +4759,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J125" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-31.74603174603176</v>
-      </c>
-      <c r="L125" t="n">
-        <v>101.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>102.085</v>
-      </c>
-      <c r="N125" t="n">
-        <v>101.58</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,28 +4794,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-9.400000000000006</v>
-      </c>
-      <c r="J126" t="n">
-        <v>92</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-28.33333333333338</v>
-      </c>
-      <c r="L126" t="n">
-        <v>101.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>101.865</v>
-      </c>
-      <c r="N126" t="n">
-        <v>101.5366666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6719,28 +4829,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J127" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-6.944444444444442</v>
-      </c>
-      <c r="L127" t="n">
-        <v>101.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>101.815</v>
-      </c>
-      <c r="N127" t="n">
-        <v>101.5733333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6770,28 +4864,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J128" t="n">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-14.92537313432835</v>
-      </c>
-      <c r="L128" t="n">
-        <v>100.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>101.765</v>
-      </c>
-      <c r="N128" t="n">
-        <v>101.61</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6821,28 +4899,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-8.299999999999997</v>
-      </c>
-      <c r="J129" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-16.78832116788319</v>
-      </c>
-      <c r="L129" t="n">
-        <v>100.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>101.65</v>
-      </c>
-      <c r="N129" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6872,28 +4934,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-8.299999999999997</v>
-      </c>
-      <c r="J130" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-25.98425196850391</v>
-      </c>
-      <c r="L130" t="n">
-        <v>100.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>101.535</v>
-      </c>
-      <c r="N130" t="n">
-        <v>101.5566666666666</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,28 +4969,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-8.200000000000003</v>
-      </c>
-      <c r="J131" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-18.6440677966102</v>
-      </c>
-      <c r="L131" t="n">
-        <v>100.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>101.425</v>
-      </c>
-      <c r="N131" t="n">
-        <v>101.5166666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,28 +5004,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J132" t="n">
-        <v>96</v>
-      </c>
-      <c r="K132" t="n">
-        <v>14.94252873563215</v>
-      </c>
-      <c r="L132" t="n">
-        <v>99.84999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>101.325</v>
-      </c>
-      <c r="N132" t="n">
-        <v>101.4833333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7025,28 +5039,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>96</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-15.62499999999999</v>
-      </c>
-      <c r="L133" t="n">
-        <v>99.97999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>101.175</v>
-      </c>
-      <c r="N133" t="n">
-        <v>101.45</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7076,28 +5074,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J134" t="n">
-        <v>96</v>
-      </c>
-      <c r="K134" t="n">
-        <v>22.7272727272727</v>
-      </c>
-      <c r="L134" t="n">
-        <v>99.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>100.975</v>
-      </c>
-      <c r="N134" t="n">
-        <v>101.4166666666667</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7127,28 +5109,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J135" t="n">
-        <v>96</v>
-      </c>
-      <c r="K135" t="n">
-        <v>35.00000000000014</v>
-      </c>
-      <c r="L135" t="n">
-        <v>99.97999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>100.775</v>
-      </c>
-      <c r="N135" t="n">
-        <v>101.3833333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7178,28 +5144,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J136" t="n">
-        <v>98</v>
-      </c>
-      <c r="K136" t="n">
-        <v>27.77777777777782</v>
-      </c>
-      <c r="L136" t="n">
-        <v>100.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>100.725</v>
-      </c>
-      <c r="N136" t="n">
-        <v>101.35</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7229,28 +5179,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>99</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
-      <c r="L137" t="n">
-        <v>100.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>100.675</v>
-      </c>
-      <c r="N137" t="n">
-        <v>101.3166666666666</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7280,28 +5214,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J138" t="n">
-        <v>99</v>
-      </c>
-      <c r="K138" t="n">
-        <v>39.39393939393934</v>
-      </c>
-      <c r="L138" t="n">
-        <v>100.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>100.625</v>
-      </c>
-      <c r="N138" t="n">
-        <v>101.2833333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7331,28 +5249,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J139" t="n">
-        <v>101</v>
-      </c>
-      <c r="K139" t="n">
-        <v>62.2641509433962</v>
-      </c>
-      <c r="L139" t="n">
-        <v>100.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>100.625</v>
-      </c>
-      <c r="N139" t="n">
-        <v>101.3166666666666</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7382,28 +5284,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J140" t="n">
-        <v>102</v>
-      </c>
-      <c r="K140" t="n">
-        <v>35.48387096774196</v>
-      </c>
-      <c r="L140" t="n">
-        <v>100.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>100.625</v>
-      </c>
-      <c r="N140" t="n">
-        <v>101.3166666666666</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,28 +5319,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J141" t="n">
-        <v>103</v>
-      </c>
-      <c r="K141" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L141" t="n">
-        <v>101.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>100.625</v>
-      </c>
-      <c r="N141" t="n">
-        <v>101.35</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7484,28 +5354,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J142" t="n">
-        <v>104</v>
-      </c>
-      <c r="K142" t="n">
-        <v>50</v>
-      </c>
-      <c r="L142" t="n">
-        <v>101.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>100.725</v>
-      </c>
-      <c r="N142" t="n">
-        <v>101.4166666666667</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7535,28 +5389,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J143" t="n">
-        <v>104</v>
-      </c>
-      <c r="K143" t="n">
-        <v>50</v>
-      </c>
-      <c r="L143" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>100.99</v>
-      </c>
-      <c r="N143" t="n">
-        <v>101.45</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7586,28 +5424,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>105</v>
-      </c>
-      <c r="K144" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L144" t="n">
-        <v>102.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>101.09</v>
-      </c>
-      <c r="N144" t="n">
-        <v>101.4166666666667</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7637,28 +5459,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J145" t="n">
-        <v>105</v>
-      </c>
-      <c r="K145" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L145" t="n">
-        <v>102.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>101.29</v>
-      </c>
-      <c r="N145" t="n">
-        <v>101.3833333333333</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7688,28 +5494,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J146" t="n">
-        <v>106</v>
-      </c>
-      <c r="K146" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L146" t="n">
-        <v>102.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>101.46</v>
-      </c>
-      <c r="N146" t="n">
-        <v>101.35</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7739,28 +5529,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J147" t="n">
-        <v>106</v>
-      </c>
-      <c r="K147" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L147" t="n">
-        <v>102.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>101.51</v>
-      </c>
-      <c r="N147" t="n">
-        <v>101.35</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7790,28 +5564,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J148" t="n">
-        <v>106</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L148" t="n">
-        <v>102.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>101.56</v>
-      </c>
-      <c r="N148" t="n">
-        <v>101.35</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7841,28 +5599,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J149" t="n">
-        <v>108</v>
-      </c>
-      <c r="K149" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L149" t="n">
-        <v>102.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>101.775</v>
-      </c>
-      <c r="N149" t="n">
-        <v>101.3833333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7892,28 +5634,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J150" t="n">
-        <v>109</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>101.94</v>
-      </c>
-      <c r="N150" t="n">
-        <v>101.4166666666667</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7943,28 +5669,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J151" t="n">
-        <v>109</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L151" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="N151" t="n">
-        <v>101.4166666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7994,28 +5704,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J152" t="n">
-        <v>110</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L152" t="n">
-        <v>102.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="N152" t="n">
-        <v>101.4166666666667</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8045,28 +5739,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J153" t="n">
-        <v>110</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L153" t="n">
-        <v>102.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="N153" t="n">
-        <v>101.5266666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8096,28 +5774,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J154" t="n">
-        <v>110</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L154" t="n">
-        <v>102.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>102.3999999999999</v>
-      </c>
-      <c r="N154" t="n">
-        <v>101.56</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8147,28 +5809,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J155" t="n">
-        <v>110</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>102.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="N155" t="n">
-        <v>101.66</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8198,28 +5844,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J156" t="n">
-        <v>110</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>102.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="N156" t="n">
-        <v>101.7733333333333</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8249,28 +5879,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>110</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0</v>
-      </c>
-      <c r="L157" t="n">
-        <v>102.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>102.55</v>
-      </c>
-      <c r="N157" t="n">
-        <v>101.8066666666667</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8300,28 +5914,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J158" t="n">
-        <v>110</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L158" t="n">
-        <v>102.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="N158" t="n">
-        <v>101.84</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8351,28 +5949,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J159" t="n">
-        <v>110</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L159" t="n">
-        <v>102.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>102.55</v>
-      </c>
-      <c r="N159" t="n">
-        <v>101.9166666666667</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8402,28 +5984,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J160" t="n">
-        <v>111</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0</v>
-      </c>
-      <c r="L160" t="n">
-        <v>102.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="N160" t="n">
-        <v>102.0266666666667</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8453,28 +6019,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J161" t="n">
-        <v>112</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0</v>
-      </c>
-      <c r="L161" t="n">
-        <v>102.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>102.55</v>
-      </c>
-      <c r="N161" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8504,28 +6054,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J162" t="n">
-        <v>113</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L162" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>102.3999999999999</v>
-      </c>
-      <c r="N162" t="n">
-        <v>102.1333333333333</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8555,28 +6089,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J163" t="n">
-        <v>113</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L163" t="n">
-        <v>101.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>102.25</v>
-      </c>
-      <c r="N163" t="n">
-        <v>102.1666666666667</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8606,28 +6124,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J164" t="n">
-        <v>113</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L164" t="n">
-        <v>101.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>102.1499999999999</v>
-      </c>
-      <c r="N164" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8657,28 +6159,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J165" t="n">
-        <v>113</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L165" t="n">
-        <v>101.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>102.05</v>
-      </c>
-      <c r="N165" t="n">
-        <v>102.2333333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,28 +6194,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J166" t="n">
-        <v>113</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L166" t="n">
-        <v>101.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>102</v>
-      </c>
-      <c r="N166" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8759,28 +6229,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J167" t="n">
-        <v>113</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L167" t="n">
-        <v>101.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>101.95</v>
-      </c>
-      <c r="N167" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8810,28 +6264,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J168" t="n">
-        <v>115</v>
-      </c>
-      <c r="K168" t="n">
-        <v>20</v>
-      </c>
-      <c r="L168" t="n">
-        <v>101.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>102</v>
-      </c>
-      <c r="N168" t="n">
-        <v>102.2666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8861,28 +6299,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J169" t="n">
-        <v>115</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>101.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>101.95</v>
-      </c>
-      <c r="N169" t="n">
-        <v>102.2666666666667</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8912,28 +6334,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J170" t="n">
-        <v>117</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L170" t="n">
-        <v>101.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>101.85</v>
-      </c>
-      <c r="N170" t="n">
-        <v>102.2333333333333</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8963,28 +6369,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J171" t="n">
-        <v>119</v>
-      </c>
-      <c r="K171" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L171" t="n">
-        <v>101.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>101.85</v>
-      </c>
-      <c r="N171" t="n">
-        <v>102.2333333333333</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9014,28 +6404,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J172" t="n">
-        <v>119</v>
-      </c>
-      <c r="K172" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L172" t="n">
-        <v>101.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>101.8999999999999</v>
-      </c>
-      <c r="N172" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9065,28 +6439,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J173" t="n">
-        <v>119</v>
-      </c>
-      <c r="K173" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L173" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>101.95</v>
-      </c>
-      <c r="N173" t="n">
-        <v>102.1666666666667</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9116,28 +6474,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J174" t="n">
-        <v>119</v>
-      </c>
-      <c r="K174" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L174" t="n">
-        <v>102.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>102</v>
-      </c>
-      <c r="N174" t="n">
-        <v>102.1666666666667</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9167,28 +6509,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J175" t="n">
-        <v>119</v>
-      </c>
-      <c r="K175" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L175" t="n">
-        <v>102.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>102.05</v>
-      </c>
-      <c r="N175" t="n">
-        <v>102.1666666666667</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9218,28 +6544,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J176" t="n">
-        <v>119</v>
-      </c>
-      <c r="K176" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L176" t="n">
-        <v>102.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="N176" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9269,28 +6579,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J177" t="n">
-        <v>120</v>
-      </c>
-      <c r="K177" t="n">
-        <v>20</v>
-      </c>
-      <c r="L177" t="n">
-        <v>102.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="N177" t="n">
-        <v>102.2666666666667</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9320,28 +6614,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J178" t="n">
-        <v>121</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0</v>
-      </c>
-      <c r="L178" t="n">
-        <v>102.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>102.25</v>
-      </c>
-      <c r="N178" t="n">
-        <v>102.3</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9371,28 +6649,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J179" t="n">
-        <v>122</v>
-      </c>
-      <c r="K179" t="n">
-        <v>20</v>
-      </c>
-      <c r="L179" t="n">
-        <v>102.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>102.25</v>
-      </c>
-      <c r="N179" t="n">
-        <v>102.2333333333333</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9422,28 +6684,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J180" t="n">
-        <v>123</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L180" t="n">
-        <v>102.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>102.1499999999999</v>
-      </c>
-      <c r="N180" t="n">
-        <v>102.1666666666667</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9473,28 +6719,12 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>-8.200000000000003</v>
-      </c>
-      <c r="J181" t="n">
-        <v>124.2</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-61.53846153846156</v>
-      </c>
-      <c r="L181" t="n">
-        <v>102.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>102.04</v>
-      </c>
-      <c r="N181" t="n">
-        <v>102.06</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9524,28 +6754,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J182" t="n">
-        <v>125</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L182" t="n">
-        <v>102.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>101.94</v>
-      </c>
-      <c r="N182" t="n">
-        <v>101.96</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9575,28 +6789,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J183" t="n">
-        <v>125</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L183" t="n">
-        <v>101.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>101.84</v>
-      </c>
-      <c r="N183" t="n">
-        <v>101.86</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9626,28 +6824,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J184" t="n">
-        <v>125</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L184" t="n">
-        <v>101.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>101.74</v>
-      </c>
-      <c r="N184" t="n">
-        <v>101.76</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9677,28 +6859,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>-8.200000000000003</v>
-      </c>
-      <c r="J185" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-47.05882352941182</v>
-      </c>
-      <c r="L185" t="n">
-        <v>100.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>101.68</v>
-      </c>
-      <c r="N185" t="n">
-        <v>101.6866666666667</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9728,28 +6894,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J186" t="n">
-        <v>126</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L186" t="n">
-        <v>100.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
-        <v>101.63</v>
-      </c>
-      <c r="N186" t="n">
-        <v>101.62</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9779,28 +6929,12 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>-9.700000000000003</v>
-      </c>
-      <c r="J187" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-70.14925373134329</v>
-      </c>
-      <c r="L187" t="n">
-        <v>100.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
-        <v>101.495</v>
-      </c>
-      <c r="N187" t="n">
-        <v>101.4966666666667</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9830,28 +6964,12 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J188" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-27.02702702702701</v>
-      </c>
-      <c r="L188" t="n">
-        <v>99.78999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
-        <v>101.345</v>
-      </c>
-      <c r="N188" t="n">
-        <v>101.43</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9881,28 +6999,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>-9.5</v>
-      </c>
-      <c r="J189" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-31.64556962025314</v>
-      </c>
-      <c r="L189" t="n">
-        <v>99.43999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
-        <v>101.12</v>
-      </c>
-      <c r="N189" t="n">
-        <v>101.3133333333333</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9932,28 +7034,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>-8.200000000000003</v>
-      </c>
-      <c r="J190" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0</v>
-      </c>
-      <c r="L190" t="n">
-        <v>99.31999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
-        <v>101.06</v>
-      </c>
-      <c r="N190" t="n">
-        <v>101.2066666666667</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9983,28 +7069,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>-9.400000000000006</v>
-      </c>
-      <c r="J191" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="K191" t="n">
-        <v>-4.761904761904842</v>
-      </c>
-      <c r="L191" t="n">
-        <v>99.19999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
-        <v>100.84</v>
-      </c>
-      <c r="N191" t="n">
-        <v>101.0933333333333</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10034,28 +7104,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>-9.400000000000006</v>
-      </c>
-      <c r="J192" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="K192" t="n">
-        <v>-4.761904761904842</v>
-      </c>
-      <c r="L192" t="n">
-        <v>99.15999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
-        <v>100.62</v>
-      </c>
-      <c r="N192" t="n">
-        <v>101.0133333333333</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10085,28 +7139,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>-9.900000000000006</v>
-      </c>
-      <c r="J193" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-10.11235955056189</v>
-      </c>
-      <c r="L193" t="n">
-        <v>99.06999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
-        <v>100.375</v>
-      </c>
-      <c r="N193" t="n">
-        <v>100.9166666666667</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10136,28 +7174,12 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>-8.400000000000006</v>
-      </c>
-      <c r="J194" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="K194" t="n">
-        <v>-2.083333333333367</v>
-      </c>
-      <c r="L194" t="n">
-        <v>99.12999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
-        <v>100.205</v>
-      </c>
-      <c r="N194" t="n">
-        <v>100.87</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10187,28 +7209,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>-9.900000000000006</v>
-      </c>
-      <c r="J195" t="n">
-        <v>136.9</v>
-      </c>
-      <c r="K195" t="n">
-        <v>-17.43119266055055</v>
-      </c>
-      <c r="L195" t="n">
-        <v>98.95999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
-        <v>99.95999999999997</v>
-      </c>
-      <c r="N195" t="n">
-        <v>100.7733333333333</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10238,28 +7244,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J196" t="n">
-        <v>137</v>
-      </c>
-      <c r="K196" t="n">
-        <v>-3.225806451612883</v>
-      </c>
-      <c r="L196" t="n">
-        <v>98.75999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
-        <v>99.70999999999997</v>
-      </c>
-      <c r="N196" t="n">
-        <v>100.6733333333333</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10289,28 +7279,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J197" t="n">
-        <v>140</v>
-      </c>
-      <c r="K197" t="n">
-        <v>-47.16981132075487</v>
-      </c>
-      <c r="L197" t="n">
-        <v>98.42999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
-        <v>99.25999999999996</v>
-      </c>
-      <c r="N197" t="n">
-        <v>100.4733333333333</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10340,28 +7314,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>-9.400000000000006</v>
-      </c>
-      <c r="J198" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.7874015748031072</v>
-      </c>
-      <c r="L198" t="n">
-        <v>98.28999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
-        <v>99.03999999999996</v>
-      </c>
-      <c r="N198" t="n">
-        <v>100.3266666666667</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10391,28 +7349,12 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J199" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="K199" t="n">
-        <v>-27.14285714285718</v>
-      </c>
-      <c r="L199" t="n">
-        <v>98.03999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
-        <v>98.73999999999997</v>
-      </c>
-      <c r="N199" t="n">
-        <v>100.0933333333333</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10442,28 +7384,12 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>-9.200000000000003</v>
-      </c>
-      <c r="J200" t="n">
-        <v>148.9999999999999</v>
-      </c>
-      <c r="K200" t="n">
-        <v>1.282051282051303</v>
-      </c>
-      <c r="L200" t="n">
-        <v>97.93999999999991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
-        <v>98.62999999999997</v>
-      </c>
-      <c r="N200" t="n">
-        <v>100.02</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10490,31 +7416,21 @@
         <v>101.06</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>149.1999999999999</v>
-      </c>
-      <c r="K201" t="n">
-        <v>2.531645569620296</v>
-      </c>
-      <c r="L201" t="n">
-        <v>97.97999999999992</v>
+        <v>96.09999999999999</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M201" t="n">
-        <v>98.58999999999997</v>
-      </c>
-      <c r="N201" t="n">
-        <v>99.88666666666668</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10541,31 +7457,21 @@
         <v>100.9283333333334</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
-        <v>-11.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>152.0999999999999</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-10.98901098901101</v>
-      </c>
-      <c r="L202" t="n">
-        <v>97.72999999999992</v>
+        <v>96.09999999999999</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M202" t="n">
-        <v>98.44499999999998</v>
-      </c>
-      <c r="N202" t="n">
-        <v>99.65666666666668</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10592,31 +7498,21 @@
         <v>100.7966666666667</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
-        <v>-11.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>152.0999999999999</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-20.95808383233538</v>
-      </c>
-      <c r="L203" t="n">
-        <v>97.52999999999992</v>
+        <v>96.09999999999999</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M203" t="n">
-        <v>98.29999999999998</v>
-      </c>
-      <c r="N203" t="n">
-        <v>99.42666666666668</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10643,31 +7539,21 @@
         <v>100.6833333333334</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
-        <v>-11.8</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>152.1999999999999</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-12.41830065359475</v>
-      </c>
-      <c r="L204" t="n">
-        <v>97.18999999999991</v>
+        <v>96.40000000000001</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M204" t="n">
-        <v>98.15999999999997</v>
-      </c>
-      <c r="N204" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10694,31 +7580,21 @@
         <v>100.5700000000001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
-        <v>-11.8</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>152.1999999999999</v>
-      </c>
-      <c r="K205" t="n">
-        <v>-11.84210526315791</v>
-      </c>
-      <c r="L205" t="n">
-        <v>96.9999999999999</v>
+        <v>96.2</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M205" t="n">
-        <v>97.97999999999996</v>
-      </c>
-      <c r="N205" t="n">
-        <v>98.97333333333333</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10745,31 +7621,21 @@
         <v>100.5133333333334</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
-        <v>-9.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>154.5999999999999</v>
-      </c>
-      <c r="K206" t="n">
-        <v>24.65753424657541</v>
-      </c>
-      <c r="L206" t="n">
-        <v>97.0599999999999</v>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M206" t="n">
-        <v>97.90999999999997</v>
-      </c>
-      <c r="N206" t="n">
-        <v>98.82666666666665</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10796,31 +7662,21 @@
         <v>100.4566666666667</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>-9.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>154.5999999999999</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0</v>
-      </c>
-      <c r="L207" t="n">
-        <v>97.41999999999989</v>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M207" t="n">
-        <v>97.92499999999997</v>
-      </c>
-      <c r="N207" t="n">
-        <v>98.64666666666666</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10847,31 +7703,21 @@
         <v>100.4000000000001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
-        <v>-9.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>154.5999999999999</v>
-      </c>
-      <c r="K208" t="n">
-        <v>30.95238095238108</v>
-      </c>
-      <c r="L208" t="n">
-        <v>97.41999999999987</v>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M208" t="n">
-        <v>97.85499999999998</v>
-      </c>
-      <c r="N208" t="n">
-        <v>98.49999999999999</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10898,31 +7744,21 @@
         <v>100.3116666666667</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
-        <v>-9.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>154.6999999999999</v>
-      </c>
-      <c r="K209" t="n">
-        <v>-1.754385964912184</v>
-      </c>
-      <c r="L209" t="n">
-        <v>97.68999999999987</v>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M209" t="n">
-        <v>97.86499999999997</v>
-      </c>
-      <c r="N209" t="n">
-        <v>98.38999999999997</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10949,31 +7785,21 @@
         <v>100.2400000000001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
-        <v>-9.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>154.6999999999999</v>
-      </c>
-      <c r="K210" t="n">
-        <v>-5.454545454545403</v>
-      </c>
-      <c r="L210" t="n">
-        <v>97.67999999999988</v>
+        <v>98.7</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M210" t="n">
-        <v>97.80999999999996</v>
-      </c>
-      <c r="N210" t="n">
-        <v>98.3133333333333</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11000,31 +7826,21 @@
         <v>100.1833333333334</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>-8.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>155.5999999999999</v>
-      </c>
-      <c r="K211" t="n">
-        <v>100.0000000000008</v>
-      </c>
-      <c r="L211" t="n">
-        <v>97.73999999999987</v>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M211" t="n">
-        <v>97.85999999999997</v>
-      </c>
-      <c r="N211" t="n">
-        <v>98.30666666666663</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11051,31 +7867,21 @@
         <v>100.1433333333334</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
-        <v>-8.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>155.5999999999999</v>
-      </c>
-      <c r="K212" t="n">
-        <v>100.0000000000008</v>
-      </c>
-      <c r="L212" t="n">
-        <v>98.08999999999986</v>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M212" t="n">
-        <v>97.90999999999997</v>
-      </c>
-      <c r="N212" t="n">
-        <v>98.32666666666663</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11102,31 +7908,21 @@
         <v>100.1033333333334</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
-        <v>-8.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>155.5999999999999</v>
-      </c>
-      <c r="K213" t="n">
-        <v>100.0000000000004</v>
-      </c>
-      <c r="L213" t="n">
-        <v>98.43999999999986</v>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M213" t="n">
-        <v>97.98499999999997</v>
-      </c>
-      <c r="N213" t="n">
-        <v>98.34666666666662</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11153,31 +7949,21 @@
         <v>100.0700000000001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>155.9999999999999</v>
-      </c>
-      <c r="K214" t="n">
-        <v>100.0000000000004</v>
-      </c>
-      <c r="L214" t="n">
-        <v>98.81999999999987</v>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M214" t="n">
-        <v>98.00499999999997</v>
-      </c>
-      <c r="N214" t="n">
-        <v>98.37999999999995</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11207,30 +7993,16 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J215" t="n">
-        <v>155.9999999999999</v>
-      </c>
-      <c r="K215" t="n">
-        <v>100</v>
-      </c>
-      <c r="L215" t="n">
-        <v>99.19999999999986</v>
-      </c>
-      <c r="M215" t="n">
-        <v>98.09999999999998</v>
-      </c>
-      <c r="N215" t="n">
-        <v>98.38666666666661</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -11258,28 +8030,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J216" t="n">
-        <v>155.9999999999999</v>
-      </c>
-      <c r="K216" t="n">
-        <v>100</v>
-      </c>
-      <c r="L216" t="n">
-        <v>99.33999999999986</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>98.19999999999997</v>
-      </c>
-      <c r="N216" t="n">
-        <v>98.38666666666661</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11309,28 +8065,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J217" t="n">
-        <v>155.9999999999999</v>
-      </c>
-      <c r="K217" t="n">
-        <v>100</v>
-      </c>
-      <c r="L217" t="n">
-        <v>99.47999999999988</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>98.44999999999997</v>
-      </c>
-      <c r="N217" t="n">
-        <v>98.44333333333329</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11360,28 +8100,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J218" t="n">
-        <v>155.9999999999999</v>
-      </c>
-      <c r="K218" t="n">
-        <v>100.0000000000011</v>
-      </c>
-      <c r="L218" t="n">
-        <v>99.61999999999988</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>98.51999999999998</v>
-      </c>
-      <c r="N218" t="n">
-        <v>98.44333333333329</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11411,28 +8135,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J219" t="n">
-        <v>155.9999999999999</v>
-      </c>
-      <c r="K219" t="n">
-        <v>100.0000000000011</v>
-      </c>
-      <c r="L219" t="n">
-        <v>99.74999999999989</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>98.71999999999998</v>
-      </c>
-      <c r="N219" t="n">
-        <v>98.49333333333328</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11462,28 +8170,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>-10.09999999999999</v>
-      </c>
-      <c r="J220" t="n">
-        <v>158.0999999999999</v>
-      </c>
-      <c r="K220" t="n">
-        <v>-67.99999999999955</v>
-      </c>
-      <c r="L220" t="n">
-        <v>99.66999999999989</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>98.67499999999998</v>
-      </c>
-      <c r="N220" t="n">
-        <v>98.42999999999994</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11513,28 +8205,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>-9.700000000000003</v>
-      </c>
-      <c r="J221" t="n">
-        <v>158.4999999999999</v>
-      </c>
-      <c r="K221" t="n">
-        <v>-44.82758620689681</v>
-      </c>
-      <c r="L221" t="n">
-        <v>99.53999999999988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>98.63999999999999</v>
-      </c>
-      <c r="N221" t="n">
-        <v>98.41999999999994</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11564,28 +8240,12 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>-8.599999999999994</v>
-      </c>
-      <c r="J222" t="n">
-        <v>159.5999999999999</v>
-      </c>
-      <c r="K222" t="n">
-        <v>-4.999999999999716</v>
-      </c>
-      <c r="L222" t="n">
-        <v>99.51999999999988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>98.80499999999999</v>
-      </c>
-      <c r="N222" t="n">
-        <v>98.44666666666663</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11615,28 +8275,12 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>-8.599999999999994</v>
-      </c>
-      <c r="J223" t="n">
-        <v>159.5999999999999</v>
-      </c>
-      <c r="K223" t="n">
-        <v>-16.66666666666654</v>
-      </c>
-      <c r="L223" t="n">
-        <v>99.49999999999987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>98.97</v>
-      </c>
-      <c r="N223" t="n">
-        <v>98.48999999999997</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11666,28 +8310,12 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>-8.599999999999994</v>
-      </c>
-      <c r="J224" t="n">
-        <v>159.5999999999999</v>
-      </c>
-      <c r="K224" t="n">
-        <v>-16.66666666666654</v>
-      </c>
-      <c r="L224" t="n">
-        <v>99.43999999999987</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>99.13000000000001</v>
-      </c>
-      <c r="N224" t="n">
-        <v>98.48333333333331</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11717,28 +8345,12 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J225" t="n">
-        <v>160.1999999999999</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0</v>
-      </c>
-      <c r="L225" t="n">
-        <v>99.43999999999987</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
-        <v>99.32000000000002</v>
-      </c>
-      <c r="N225" t="n">
-        <v>98.54666666666664</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11768,28 +8380,12 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="J226" t="n">
-        <v>160.6999999999999</v>
-      </c>
-      <c r="K226" t="n">
-        <v>-10.63829787234045</v>
-      </c>
-      <c r="L226" t="n">
-        <v>99.38999999999987</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>99.36500000000004</v>
-      </c>
-      <c r="N226" t="n">
-        <v>98.59666666666664</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11819,28 +8415,12 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>-9.799999999999997</v>
-      </c>
-      <c r="J227" t="n">
-        <v>161.9999999999999</v>
-      </c>
-      <c r="K227" t="n">
-        <v>-30.00000000000009</v>
-      </c>
-      <c r="L227" t="n">
-        <v>99.20999999999988</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
-        <v>99.34500000000003</v>
-      </c>
-      <c r="N227" t="n">
-        <v>98.7033333333333</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11870,28 +8450,12 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>-9.900000000000006</v>
-      </c>
-      <c r="J228" t="n">
-        <v>162.0999999999999</v>
-      </c>
-      <c r="K228" t="n">
-        <v>-31.14754098360668</v>
-      </c>
-      <c r="L228" t="n">
-        <v>99.01999999999987</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
-        <v>99.32000000000002</v>
-      </c>
-      <c r="N228" t="n">
-        <v>98.68666666666664</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11921,28 +8485,12 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J229" t="n">
-        <v>163.9999999999999</v>
-      </c>
-      <c r="K229" t="n">
-        <v>35.59322033898292</v>
-      </c>
-      <c r="L229" t="n">
-        <v>99.01999999999987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
-        <v>99.38500000000002</v>
-      </c>
-      <c r="N229" t="n">
-        <v>98.81999999999996</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11972,28 +8520,12 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J230" t="n">
-        <v>164.9999999999999</v>
-      </c>
-      <c r="K230" t="n">
-        <v>41.53846153846141</v>
-      </c>
-      <c r="L230" t="n">
-        <v>99.32999999999987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
-        <v>99.50000000000003</v>
-      </c>
-      <c r="N230" t="n">
-        <v>98.89333333333329</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12023,28 +8555,12 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>-9.700000000000003</v>
-      </c>
-      <c r="J231" t="n">
-        <v>167.6999999999999</v>
-      </c>
-      <c r="K231" t="n">
-        <v>-13.58024691358031</v>
-      </c>
-      <c r="L231" t="n">
-        <v>99.32999999999988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
-        <v>99.43500000000003</v>
-      </c>
-      <c r="N231" t="n">
-        <v>98.86999999999996</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12074,1099 +8590,12 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J232" t="n">
-        <v>171.3999999999999</v>
-      </c>
-      <c r="K232" t="n">
-        <v>22.03389830508468</v>
-      </c>
-      <c r="L232" t="n">
-        <v>99.58999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
-        <v>99.55500000000004</v>
-      </c>
-      <c r="N232" t="n">
-        <v>99.06666666666663</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="C233" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="D233" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="E233" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F233" t="n">
-        <v>400</v>
-      </c>
-      <c r="G233" t="n">
-        <v>99.28500000000007</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>-9.599999999999994</v>
-      </c>
-      <c r="J233" t="n">
-        <v>174.9999999999999</v>
-      </c>
-      <c r="K233" t="n">
-        <v>-6.493506493506492</v>
-      </c>
-      <c r="L233" t="n">
-        <v>99.48999999999988</v>
-      </c>
-      <c r="M233" t="n">
-        <v>99.49500000000005</v>
-      </c>
-      <c r="N233" t="n">
-        <v>99.1433333333333</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="C234" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="D234" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="E234" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="F234" t="n">
-        <v>400</v>
-      </c>
-      <c r="G234" t="n">
-        <v>99.22166666666674</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>-8.799999999999997</v>
-      </c>
-      <c r="J234" t="n">
-        <v>175.7999999999999</v>
-      </c>
-      <c r="K234" t="n">
-        <v>-5.128205128205112</v>
-      </c>
-      <c r="L234" t="n">
-        <v>99.46999999999989</v>
-      </c>
-      <c r="M234" t="n">
-        <v>99.45500000000004</v>
-      </c>
-      <c r="N234" t="n">
-        <v>99.24333333333331</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C235" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D235" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E235" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="F235" t="n">
-        <v>800</v>
-      </c>
-      <c r="G235" t="n">
-        <v>99.16000000000007</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>-8.700000000000003</v>
-      </c>
-      <c r="J235" t="n">
-        <v>175.8999999999999</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-1.31578947368423</v>
-      </c>
-      <c r="L235" t="n">
-        <v>99.39999999999989</v>
-      </c>
-      <c r="M235" t="n">
-        <v>99.42000000000004</v>
-      </c>
-      <c r="N235" t="n">
-        <v>99.34666666666665</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="C236" t="n">
-        <v>102</v>
-      </c>
-      <c r="D236" t="n">
-        <v>102</v>
-      </c>
-      <c r="E236" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3800</v>
-      </c>
-      <c r="G236" t="n">
-        <v>99.1433333333334</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J236" t="n">
-        <v>178.5999999999999</v>
-      </c>
-      <c r="K236" t="n">
-        <v>22.89156626506019</v>
-      </c>
-      <c r="L236" t="n">
-        <v>99.64999999999989</v>
-      </c>
-      <c r="M236" t="n">
-        <v>99.52000000000005</v>
-      </c>
-      <c r="N236" t="n">
-        <v>99.45999999999999</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>101</v>
-      </c>
-      <c r="C237" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D237" t="n">
-        <v>103</v>
-      </c>
-      <c r="E237" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F237" t="n">
-        <v>4700</v>
-      </c>
-      <c r="G237" t="n">
-        <v>99.05833333333339</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>-9.099999999999994</v>
-      </c>
-      <c r="J237" t="n">
-        <v>181.6999999999999</v>
-      </c>
-      <c r="K237" t="n">
-        <v>4.081632653061284</v>
-      </c>
-      <c r="L237" t="n">
-        <v>99.71999999999989</v>
-      </c>
-      <c r="M237" t="n">
-        <v>99.46500000000006</v>
-      </c>
-      <c r="N237" t="n">
-        <v>99.47</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>102</v>
-      </c>
-      <c r="C238" t="n">
-        <v>99</v>
-      </c>
-      <c r="D238" t="n">
-        <v>103</v>
-      </c>
-      <c r="E238" t="n">
-        <v>99</v>
-      </c>
-      <c r="F238" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G238" t="n">
-        <v>98.99166666666673</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J238" t="n">
-        <v>181.7999999999999</v>
-      </c>
-      <c r="K238" t="n">
-        <v>-5.617977528089893</v>
-      </c>
-      <c r="L238" t="n">
-        <v>99.80999999999989</v>
-      </c>
-      <c r="M238" t="n">
-        <v>99.41500000000005</v>
-      </c>
-      <c r="N238" t="n">
-        <v>99.48333333333333</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>102</v>
-      </c>
-      <c r="C239" t="n">
-        <v>102</v>
-      </c>
-      <c r="D239" t="n">
-        <v>102</v>
-      </c>
-      <c r="E239" t="n">
-        <v>102</v>
-      </c>
-      <c r="F239" t="n">
-        <v>5</v>
-      </c>
-      <c r="G239" t="n">
-        <v>98.99166666666673</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J239" t="n">
-        <v>184.7999999999999</v>
-      </c>
-      <c r="K239" t="n">
-        <v>5.050505050505055</v>
-      </c>
-      <c r="L239" t="n">
-        <v>100.0099999999999</v>
-      </c>
-      <c r="M239" t="n">
-        <v>99.51500000000006</v>
-      </c>
-      <c r="N239" t="n">
-        <v>99.59333333333333</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>102</v>
-      </c>
-      <c r="C240" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D240" t="n">
-        <v>104</v>
-      </c>
-      <c r="E240" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F240" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G240" t="n">
-        <v>98.95666666666672</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>-9.099999999999994</v>
-      </c>
-      <c r="J240" t="n">
-        <v>187.8999999999999</v>
-      </c>
-      <c r="K240" t="n">
-        <v>2.970297029703018</v>
-      </c>
-      <c r="L240" t="n">
-        <v>99.79999999999991</v>
-      </c>
-      <c r="M240" t="n">
-        <v>99.56500000000005</v>
-      </c>
-      <c r="N240" t="n">
-        <v>99.60000000000001</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>103</v>
-      </c>
-      <c r="C241" t="n">
-        <v>103</v>
-      </c>
-      <c r="D241" t="n">
-        <v>103</v>
-      </c>
-      <c r="E241" t="n">
-        <v>103</v>
-      </c>
-      <c r="F241" t="n">
-        <v>18.257</v>
-      </c>
-      <c r="G241" t="n">
-        <v>99.01000000000005</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J241" t="n">
-        <v>191.9999999999999</v>
-      </c>
-      <c r="K241" t="n">
-        <v>4.854368932038843</v>
-      </c>
-      <c r="L241" t="n">
-        <v>100.2699999999999</v>
-      </c>
-      <c r="M241" t="n">
-        <v>99.80000000000005</v>
-      </c>
-      <c r="N241" t="n">
-        <v>99.71333333333335</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>101</v>
-      </c>
-      <c r="C242" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D242" t="n">
-        <v>104</v>
-      </c>
-      <c r="E242" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G242" t="n">
-        <v>99.00833333333338</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>-9.099999999999994</v>
-      </c>
-      <c r="J242" t="n">
-        <v>196.0999999999999</v>
-      </c>
-      <c r="K242" t="n">
-        <v>2.369668246445502</v>
-      </c>
-      <c r="L242" t="n">
-        <v>99.95999999999992</v>
-      </c>
-      <c r="M242" t="n">
-        <v>99.77500000000005</v>
-      </c>
-      <c r="N242" t="n">
-        <v>99.69000000000003</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>99</v>
-      </c>
-      <c r="C243" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D243" t="n">
-        <v>99</v>
-      </c>
-      <c r="E243" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F243" t="n">
-        <v>400</v>
-      </c>
-      <c r="G243" t="n">
-        <v>99.0066666666667</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>-9.099999999999994</v>
-      </c>
-      <c r="J243" t="n">
-        <v>196.0999999999999</v>
-      </c>
-      <c r="K243" t="n">
-        <v>-1.477832512315258</v>
-      </c>
-      <c r="L243" t="n">
-        <v>100.0099999999999</v>
-      </c>
-      <c r="M243" t="n">
-        <v>99.75000000000004</v>
-      </c>
-      <c r="N243" t="n">
-        <v>99.6666666666667</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>99</v>
-      </c>
-      <c r="C244" t="n">
-        <v>104</v>
-      </c>
-      <c r="D244" t="n">
-        <v>104</v>
-      </c>
-      <c r="E244" t="n">
-        <v>99</v>
-      </c>
-      <c r="F244" t="n">
-        <v>558.691</v>
-      </c>
-      <c r="G244" t="n">
-        <v>99.09000000000005</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J244" t="n">
-        <v>201.1999999999999</v>
-      </c>
-      <c r="K244" t="n">
-        <v>18.57707509881425</v>
-      </c>
-      <c r="L244" t="n">
-        <v>100.4899999999999</v>
-      </c>
-      <c r="M244" t="n">
-        <v>99.98000000000005</v>
-      </c>
-      <c r="N244" t="n">
-        <v>99.80000000000003</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>101</v>
-      </c>
-      <c r="C245" t="n">
-        <v>103</v>
-      </c>
-      <c r="D245" t="n">
-        <v>103</v>
-      </c>
-      <c r="E245" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F245" t="n">
-        <v>897.8185999999999</v>
-      </c>
-      <c r="G245" t="n">
-        <v>99.14333333333337</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J245" t="n">
-        <v>202.1999999999999</v>
-      </c>
-      <c r="K245" t="n">
-        <v>4.237288135593227</v>
-      </c>
-      <c r="L245" t="n">
-        <v>100.8599999999999</v>
-      </c>
-      <c r="M245" t="n">
-        <v>100.13</v>
-      </c>
-      <c r="N245" t="n">
-        <v>99.90000000000003</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>103</v>
-      </c>
-      <c r="C246" t="n">
-        <v>103</v>
-      </c>
-      <c r="D246" t="n">
-        <v>103</v>
-      </c>
-      <c r="E246" t="n">
-        <v>103</v>
-      </c>
-      <c r="F246" t="n">
-        <v>3539.1814</v>
-      </c>
-      <c r="G246" t="n">
-        <v>99.19333333333337</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J246" t="n">
-        <v>202.1999999999999</v>
-      </c>
-      <c r="K246" t="n">
-        <v>20</v>
-      </c>
-      <c r="L246" t="n">
-        <v>100.96</v>
-      </c>
-      <c r="M246" t="n">
-        <v>100.305</v>
-      </c>
-      <c r="N246" t="n">
-        <v>100</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>103</v>
-      </c>
-      <c r="C247" t="n">
-        <v>103</v>
-      </c>
-      <c r="D247" t="n">
-        <v>103</v>
-      </c>
-      <c r="E247" t="n">
-        <v>103</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G247" t="n">
-        <v>99.2716666666667</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J247" t="n">
-        <v>202.1999999999999</v>
-      </c>
-      <c r="K247" t="n">
-        <v>19.60784313725492</v>
-      </c>
-      <c r="L247" t="n">
-        <v>101.3699999999999</v>
-      </c>
-      <c r="M247" t="n">
-        <v>100.545</v>
-      </c>
-      <c r="N247" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>103</v>
-      </c>
-      <c r="C248" t="n">
-        <v>105</v>
-      </c>
-      <c r="D248" t="n">
-        <v>105</v>
-      </c>
-      <c r="E248" t="n">
-        <v>103</v>
-      </c>
-      <c r="F248" t="n">
-        <v>4313.1896</v>
-      </c>
-      <c r="G248" t="n">
-        <v>99.35500000000003</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J248" t="n">
-        <v>204.1999999999999</v>
-      </c>
-      <c r="K248" t="n">
-        <v>15.46391752577321</v>
-      </c>
-      <c r="L248" t="n">
-        <v>101.9699999999999</v>
-      </c>
-      <c r="M248" t="n">
-        <v>100.89</v>
-      </c>
-      <c r="N248" t="n">
-        <v>100.2666666666667</v>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>105</v>
-      </c>
-      <c r="C249" t="n">
-        <v>105</v>
-      </c>
-      <c r="D249" t="n">
-        <v>105</v>
-      </c>
-      <c r="E249" t="n">
-        <v>105</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1572.3436</v>
-      </c>
-      <c r="G249" t="n">
-        <v>99.46333333333337</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J249" t="n">
-        <v>204.1999999999999</v>
-      </c>
-      <c r="K249" t="n">
-        <v>37.42331288343559</v>
-      </c>
-      <c r="L249" t="n">
-        <v>102.2699999999999</v>
-      </c>
-      <c r="M249" t="n">
-        <v>101.14</v>
-      </c>
-      <c r="N249" t="n">
-        <v>100.4333333333334</v>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>104</v>
-      </c>
-      <c r="C250" t="n">
-        <v>103</v>
-      </c>
-      <c r="D250" t="n">
-        <v>107</v>
-      </c>
-      <c r="E250" t="n">
-        <v>103</v>
-      </c>
-      <c r="F250" t="n">
-        <v>59152.5796</v>
-      </c>
-      <c r="G250" t="n">
-        <v>99.51666666666669</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J250" t="n">
-        <v>206.1999999999999</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0</v>
-      </c>
-      <c r="L250" t="n">
-        <v>102.6799999999999</v>
-      </c>
-      <c r="M250" t="n">
-        <v>101.24</v>
-      </c>
-      <c r="N250" t="n">
-        <v>100.6033333333334</v>
-      </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>104</v>
-      </c>
-      <c r="C251" t="n">
-        <v>103</v>
-      </c>
-      <c r="D251" t="n">
-        <v>104</v>
-      </c>
-      <c r="E251" t="n">
-        <v>103</v>
-      </c>
-      <c r="F251" t="n">
-        <v>2392</v>
-      </c>
-      <c r="G251" t="n">
-        <v>99.59000000000002</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J251" t="n">
-        <v>206.1999999999999</v>
-      </c>
-      <c r="K251" t="n">
-        <v>40.59405940594056</v>
-      </c>
-      <c r="L251" t="n">
-        <v>102.6799999999999</v>
-      </c>
-      <c r="M251" t="n">
-        <v>101.475</v>
-      </c>
-      <c r="N251" t="n">
-        <v>100.76</v>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>103</v>
-      </c>
-      <c r="C252" t="n">
-        <v>103</v>
-      </c>
-      <c r="D252" t="n">
-        <v>103</v>
-      </c>
-      <c r="E252" t="n">
-        <v>103</v>
-      </c>
-      <c r="F252" t="n">
-        <v>7096.4117</v>
-      </c>
-      <c r="G252" t="n">
-        <v>99.66333333333336</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J252" t="n">
-        <v>206.1999999999999</v>
-      </c>
-      <c r="K252" t="n">
-        <v>40.59405940594056</v>
-      </c>
-      <c r="L252" t="n">
-        <v>103.0899999999999</v>
-      </c>
-      <c r="M252" t="n">
-        <v>101.525</v>
-      </c>
-      <c r="N252" t="n">
-        <v>100.88</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>106</v>
-      </c>
-      <c r="C253" t="n">
-        <v>106</v>
-      </c>
-      <c r="D253" t="n">
-        <v>106</v>
-      </c>
-      <c r="E253" t="n">
-        <v>106</v>
-      </c>
-      <c r="F253" t="n">
-        <v>2850.08490566</v>
-      </c>
-      <c r="G253" t="n">
-        <v>99.79500000000002</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J253" t="n">
-        <v>209.1999999999999</v>
-      </c>
-      <c r="K253" t="n">
-        <v>25</v>
-      </c>
-      <c r="L253" t="n">
-        <v>103.7999999999999</v>
-      </c>
-      <c r="M253" t="n">
-        <v>101.905</v>
-      </c>
-      <c r="N253" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -7416,20 +7416,14 @@
         <v>101.06</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>96.09999999999999</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7457,20 +7451,14 @@
         <v>100.9283333333334</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>96.09999999999999</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7498,20 +7486,14 @@
         <v>100.7966666666667</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>96.09999999999999</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7539,20 +7521,14 @@
         <v>100.6833333333334</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>96.40000000000001</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7580,20 +7556,14 @@
         <v>100.5700000000001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7627,14 +7597,12 @@
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>96.2</v>
+      </c>
+      <c r="K206" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7670,10 +7638,12 @@
       <c r="J207" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>96.2</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -7711,10 +7681,12 @@
       <c r="J208" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>96.2</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -7744,20 +7716,14 @@
         <v>100.3116666666667</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>98.59999999999999</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7793,12 +7759,10 @@
       <c r="J210" t="n">
         <v>98.7</v>
       </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7826,18 +7790,18 @@
         <v>100.1833333333334</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>98.7</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -7867,18 +7831,18 @@
         <v>100.1433333333334</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>98.7</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -7908,20 +7872,14 @@
         <v>100.1033333333334</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>99.59999999999999</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7949,20 +7907,14 @@
         <v>100.0700000000001</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>99.59999999999999</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7993,16 +7945,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8030,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -8065,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -8100,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
@@ -8135,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -8170,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -8310,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -8345,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
@@ -8380,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -8415,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
@@ -8450,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>

--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:M233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" t="n">
-        <v>15661.7034</v>
+        <v>997.5</v>
       </c>
       <c r="G2" t="n">
-        <v>106.4833333333333</v>
+        <v>106.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>110</v>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
         <v>110</v>
       </c>
       <c r="E3" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>5652</v>
+        <v>15661.7034</v>
       </c>
       <c r="G3" t="n">
-        <v>106.55</v>
+        <v>106.4833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>110</v>
       </c>
       <c r="C4" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="n">
-        <v>9969.702300000001</v>
+        <v>5652</v>
       </c>
       <c r="G4" t="n">
-        <v>106.6333333333333</v>
+        <v>106.55</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="n">
         <v>111</v>
@@ -550,10 +550,10 @@
         <v>110</v>
       </c>
       <c r="F5" t="n">
-        <v>1942</v>
+        <v>9969.702300000001</v>
       </c>
       <c r="G5" t="n">
-        <v>106.7333333333333</v>
+        <v>106.6333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,28 +573,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" t="n">
         <v>110</v>
       </c>
       <c r="F6" t="n">
-        <v>400</v>
+        <v>1942</v>
       </c>
       <c r="G6" t="n">
-        <v>106.8</v>
+        <v>106.7333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -614,22 +614,22 @@
         <v>110</v>
       </c>
       <c r="D7" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" t="n">
         <v>110</v>
       </c>
       <c r="F7" t="n">
-        <v>134981.8574</v>
+        <v>400</v>
       </c>
       <c r="G7" t="n">
-        <v>106.8666666666667</v>
+        <v>106.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,28 +643,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="n">
         <v>111</v>
       </c>
       <c r="E8" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" t="n">
-        <v>1889.6774</v>
+        <v>134981.8574</v>
       </c>
       <c r="G8" t="n">
-        <v>106.95</v>
+        <v>106.8666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>560.0542</v>
+        <v>1889.6774</v>
       </c>
       <c r="G9" t="n">
-        <v>107.0166666666667</v>
+        <v>106.95</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -725,16 +725,16 @@
         <v>110</v>
       </c>
       <c r="F10" t="n">
-        <v>2088.2228</v>
+        <v>560.0542</v>
       </c>
       <c r="G10" t="n">
-        <v>107.1</v>
+        <v>107.0166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -760,10 +760,10 @@
         <v>110</v>
       </c>
       <c r="F11" t="n">
-        <v>2017.0477</v>
+        <v>2088.2228</v>
       </c>
       <c r="G11" t="n">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>110</v>
       </c>
       <c r="C12" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" t="n">
         <v>110</v>
       </c>
       <c r="E12" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F12" t="n">
-        <v>16535.7813</v>
+        <v>2017.0477</v>
       </c>
       <c r="G12" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>110</v>
+      </c>
+      <c r="C13" t="n">
         <v>109</v>
       </c>
-      <c r="C13" t="n">
-        <v>108</v>
-      </c>
       <c r="D13" t="n">
+        <v>110</v>
+      </c>
+      <c r="E13" t="n">
         <v>109</v>
       </c>
-      <c r="E13" t="n">
-        <v>108</v>
-      </c>
       <c r="F13" t="n">
-        <v>431.9687</v>
+        <v>16535.7813</v>
       </c>
       <c r="G13" t="n">
-        <v>107.35</v>
+        <v>107.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>109</v>
       </c>
       <c r="C14" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" t="n">
         <v>109</v>
       </c>
       <c r="E14" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>431.9687</v>
       </c>
       <c r="G14" t="n">
-        <v>107.45</v>
+        <v>107.35</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>109</v>
       </c>
       <c r="C15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D15" t="n">
         <v>109</v>
       </c>
       <c r="E15" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" t="n">
-        <v>2730.7708</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>107.5333333333333</v>
+        <v>107.45</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" t="n">
         <v>108</v>
       </c>
       <c r="D16" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" t="n">
         <v>108</v>
       </c>
       <c r="F16" t="n">
-        <v>4127.3257</v>
+        <v>2730.7708</v>
       </c>
       <c r="G16" t="n">
-        <v>107.6</v>
+        <v>107.5333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>108</v>
       </c>
       <c r="F17" t="n">
-        <v>4188.84</v>
+        <v>4127.3257</v>
       </c>
       <c r="G17" t="n">
-        <v>107.6666666666667</v>
+        <v>107.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>108</v>
       </c>
       <c r="F18" t="n">
-        <v>15057.1869</v>
+        <v>4188.84</v>
       </c>
       <c r="G18" t="n">
-        <v>107.7166666666667</v>
+        <v>107.6666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>108</v>
       </c>
       <c r="F19" t="n">
-        <v>1880.391</v>
+        <v>15057.1869</v>
       </c>
       <c r="G19" t="n">
-        <v>107.7666666666667</v>
+        <v>107.7166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" t="n">
-        <v>15621.5711</v>
+        <v>1880.391</v>
       </c>
       <c r="G20" t="n">
-        <v>107.85</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>109</v>
+      </c>
+      <c r="C21" t="n">
         <v>110</v>
-      </c>
-      <c r="C21" t="n">
-        <v>109</v>
       </c>
       <c r="D21" t="n">
         <v>110</v>
@@ -1110,10 +1110,10 @@
         <v>109</v>
       </c>
       <c r="F21" t="n">
-        <v>400</v>
+        <v>15621.5711</v>
       </c>
       <c r="G21" t="n">
-        <v>107.9166666666667</v>
+        <v>107.85</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>110</v>
       </c>
       <c r="C22" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" t="n">
         <v>110</v>
@@ -1145,10 +1145,10 @@
         <v>109</v>
       </c>
       <c r="F22" t="n">
-        <v>2800</v>
+        <v>400</v>
       </c>
       <c r="G22" t="n">
-        <v>108.0166666666667</v>
+        <v>107.9166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>110</v>
       </c>
       <c r="C23" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D23" t="n">
         <v>110</v>
@@ -1180,10 +1180,10 @@
         <v>109</v>
       </c>
       <c r="F23" t="n">
-        <v>943.8799</v>
+        <v>2800</v>
       </c>
       <c r="G23" t="n">
-        <v>108.1</v>
+        <v>108.0166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" t="n">
         <v>109</v>
       </c>
       <c r="D24" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E24" t="n">
         <v>109</v>
       </c>
       <c r="F24" t="n">
-        <v>7950.1178</v>
+        <v>943.8799</v>
       </c>
       <c r="G24" t="n">
-        <v>108.2</v>
+        <v>108.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" t="n">
-        <v>800</v>
+        <v>7950.1178</v>
       </c>
       <c r="G25" t="n">
-        <v>108.3166666666667</v>
+        <v>108.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>110</v>
       </c>
       <c r="F26" t="n">
-        <v>4010</v>
+        <v>800</v>
       </c>
       <c r="G26" t="n">
-        <v>108.4166666666667</v>
+        <v>108.3166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F27" t="n">
-        <v>1056.6142</v>
+        <v>4010</v>
       </c>
       <c r="G27" t="n">
-        <v>108.5333333333333</v>
+        <v>108.4166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" t="n">
         <v>111</v>
@@ -1352,13 +1352,13 @@
         <v>111</v>
       </c>
       <c r="E28" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F28" t="n">
-        <v>4500.39639639</v>
+        <v>1056.6142</v>
       </c>
       <c r="G28" t="n">
-        <v>108.6333333333333</v>
+        <v>108.5333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>111</v>
       </c>
       <c r="C29" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D29" t="n">
         <v>111</v>
       </c>
       <c r="E29" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F29" t="n">
-        <v>218.75</v>
+        <v>4500.39639639</v>
       </c>
       <c r="G29" t="n">
-        <v>108.7333333333333</v>
+        <v>108.6333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>111</v>
+      </c>
+      <c r="C30" t="n">
         <v>109</v>
       </c>
-      <c r="C30" t="n">
-        <v>107</v>
-      </c>
       <c r="D30" t="n">
+        <v>111</v>
+      </c>
+      <c r="E30" t="n">
         <v>109</v>
       </c>
-      <c r="E30" t="n">
-        <v>107</v>
-      </c>
       <c r="F30" t="n">
-        <v>11101.7967</v>
+        <v>218.75</v>
       </c>
       <c r="G30" t="n">
-        <v>108.7666666666667</v>
+        <v>108.7333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E31" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" t="n">
-        <v>5269.0193</v>
+        <v>11101.7967</v>
       </c>
       <c r="G31" t="n">
-        <v>108.85</v>
+        <v>108.7666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" t="n">
         <v>110</v>
       </c>
       <c r="D32" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F32" t="n">
-        <v>2196.4508</v>
+        <v>5269.0193</v>
       </c>
       <c r="G32" t="n">
-        <v>108.9166666666667</v>
+        <v>108.85</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E33" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F33" t="n">
-        <v>2224.6762</v>
+        <v>2196.4508</v>
       </c>
       <c r="G33" t="n">
-        <v>108.9666666666667</v>
+        <v>108.9166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,10 +1553,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" t="n">
         <v>109</v>
@@ -1565,10 +1565,10 @@
         <v>107</v>
       </c>
       <c r="F34" t="n">
-        <v>2033.6867</v>
+        <v>2224.6762</v>
       </c>
       <c r="G34" t="n">
-        <v>108.9833333333333</v>
+        <v>108.9666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,19 +1588,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" t="n">
         <v>107</v>
       </c>
       <c r="D35" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E35" t="n">
         <v>107</v>
       </c>
       <c r="F35" t="n">
-        <v>4049.4458</v>
+        <v>2033.6867</v>
       </c>
       <c r="G35" t="n">
         <v>108.9833333333333</v>
@@ -1635,10 +1635,10 @@
         <v>107</v>
       </c>
       <c r="F36" t="n">
-        <v>23.2032</v>
+        <v>4049.4458</v>
       </c>
       <c r="G36" t="n">
-        <v>108.95</v>
+        <v>108.9833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>107</v>
       </c>
       <c r="F37" t="n">
-        <v>3964.13</v>
+        <v>23.2032</v>
       </c>
       <c r="G37" t="n">
-        <v>108.9333333333333</v>
+        <v>108.95</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>107</v>
       </c>
       <c r="F38" t="n">
-        <v>2467.77</v>
+        <v>3964.13</v>
       </c>
       <c r="G38" t="n">
-        <v>108.9166666666667</v>
+        <v>108.9333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>107</v>
       </c>
       <c r="F39" t="n">
-        <v>2689.7126</v>
+        <v>2467.77</v>
       </c>
       <c r="G39" t="n">
-        <v>108.8833333333333</v>
+        <v>108.9166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>107</v>
       </c>
       <c r="F40" t="n">
-        <v>3015.6685</v>
+        <v>2689.7126</v>
       </c>
       <c r="G40" t="n">
-        <v>108.85</v>
+        <v>108.8833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>107</v>
       </c>
       <c r="F41" t="n">
-        <v>3200</v>
+        <v>3015.6685</v>
       </c>
       <c r="G41" t="n">
-        <v>108.8166666666667</v>
+        <v>108.85</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>107</v>
       </c>
       <c r="F42" t="n">
-        <v>173.5037</v>
+        <v>3200</v>
       </c>
       <c r="G42" t="n">
         <v>108.8166666666667</v>
@@ -1880,10 +1880,10 @@
         <v>107</v>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>173.5037</v>
       </c>
       <c r="G43" t="n">
-        <v>108.7833333333333</v>
+        <v>108.8166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F44" t="n">
-        <v>7507.2882</v>
+        <v>500</v>
       </c>
       <c r="G44" t="n">
-        <v>108.7666666666667</v>
+        <v>108.7833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C45" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E45" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F45" t="n">
-        <v>2921.2871</v>
+        <v>7507.2882</v>
       </c>
       <c r="G45" t="n">
-        <v>108.75</v>
+        <v>108.7666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>108</v>
       </c>
       <c r="D46" t="n">
+        <v>109</v>
+      </c>
+      <c r="E46" t="n">
         <v>108</v>
       </c>
-      <c r="E46" t="n">
-        <v>107</v>
-      </c>
       <c r="F46" t="n">
-        <v>5465.0514</v>
+        <v>2921.2871</v>
       </c>
       <c r="G46" t="n">
-        <v>108.7333333333333</v>
+        <v>108.75</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>108</v>
       </c>
       <c r="E47" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" t="n">
-        <v>87.5313</v>
+        <v>5465.0514</v>
       </c>
       <c r="G47" t="n">
         <v>108.7333333333333</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F48" t="n">
-        <v>155</v>
+        <v>87.5313</v>
       </c>
       <c r="G48" t="n">
-        <v>108.75</v>
+        <v>108.7333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>107</v>
       </c>
       <c r="C49" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D49" t="n">
+        <v>109</v>
+      </c>
+      <c r="E49" t="n">
         <v>107</v>
       </c>
-      <c r="E49" t="n">
-        <v>106</v>
-      </c>
       <c r="F49" t="n">
-        <v>10303.55</v>
+        <v>155</v>
       </c>
       <c r="G49" t="n">
-        <v>108.7166666666667</v>
+        <v>108.75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>106</v>
       </c>
       <c r="F50" t="n">
-        <v>5870.3369</v>
+        <v>10303.55</v>
       </c>
       <c r="G50" t="n">
-        <v>108.6666666666667</v>
+        <v>108.7166666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" t="n">
         <v>106</v>
       </c>
       <c r="D51" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" t="n">
         <v>106</v>
       </c>
       <c r="F51" t="n">
-        <v>400</v>
+        <v>5870.3369</v>
       </c>
       <c r="G51" t="n">
-        <v>108.6166666666667</v>
+        <v>108.6666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" t="n">
         <v>106</v>
       </c>
       <c r="D52" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" t="n">
         <v>106</v>
       </c>
       <c r="F52" t="n">
-        <v>2551.796</v>
+        <v>400</v>
       </c>
       <c r="G52" t="n">
-        <v>108.5666666666667</v>
+        <v>108.6166666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" t="n">
         <v>106</v>
       </c>
       <c r="D53" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" t="n">
         <v>106</v>
       </c>
       <c r="F53" t="n">
-        <v>8780.8107</v>
+        <v>2551.796</v>
       </c>
       <c r="G53" t="n">
-        <v>108.5</v>
+        <v>108.5666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" t="n">
         <v>106</v>
       </c>
       <c r="D54" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F54" t="n">
-        <v>13353.1023</v>
+        <v>8780.8107</v>
       </c>
       <c r="G54" t="n">
-        <v>108.4666666666667</v>
+        <v>108.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>105</v>
+      </c>
+      <c r="C55" t="n">
         <v>106</v>
-      </c>
-      <c r="C55" t="n">
-        <v>107</v>
       </c>
       <c r="D55" t="n">
         <v>107</v>
       </c>
       <c r="E55" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F55" t="n">
-        <v>5770.7949</v>
+        <v>13353.1023</v>
       </c>
       <c r="G55" t="n">
-        <v>108.4166666666667</v>
+        <v>108.4666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>106</v>
+      </c>
+      <c r="C56" t="n">
         <v>107</v>
-      </c>
-      <c r="C56" t="n">
-        <v>106</v>
       </c>
       <c r="D56" t="n">
         <v>107</v>
@@ -2335,10 +2335,10 @@
         <v>106</v>
       </c>
       <c r="F56" t="n">
-        <v>5777.8267</v>
+        <v>5770.7949</v>
       </c>
       <c r="G56" t="n">
-        <v>108.3666666666667</v>
+        <v>108.4166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C57" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D57" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F57" t="n">
-        <v>7688</v>
+        <v>5777.8267</v>
       </c>
       <c r="G57" t="n">
-        <v>108.35</v>
+        <v>108.3666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D58" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E58" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>7688</v>
       </c>
       <c r="G58" t="n">
-        <v>108.3166666666667</v>
+        <v>108.35</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C59" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D59" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E59" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F59" t="n">
-        <v>12169.3468</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
-        <v>108.2666666666667</v>
+        <v>108.3166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60" t="n">
-        <v>402</v>
+        <v>12169.3468</v>
       </c>
       <c r="G60" t="n">
-        <v>108.2166666666667</v>
+        <v>108.2666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>106</v>
       </c>
       <c r="F61" t="n">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="G61" t="n">
-        <v>108.1666666666667</v>
+        <v>108.2166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C62" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D62" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E62" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F62" t="n">
-        <v>2821.2744</v>
+        <v>6</v>
       </c>
       <c r="G62" t="n">
-        <v>108.1166666666667</v>
+        <v>108.1666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C63" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F63" t="n">
-        <v>20396.1387</v>
+        <v>2821.2744</v>
       </c>
       <c r="G63" t="n">
-        <v>108.0666666666667</v>
+        <v>108.1166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F64" t="n">
-        <v>808</v>
+        <v>20396.1387</v>
       </c>
       <c r="G64" t="n">
-        <v>108</v>
+        <v>108.0666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>105</v>
       </c>
       <c r="C65" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D65" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65" t="n">
         <v>105</v>
       </c>
       <c r="F65" t="n">
-        <v>2378</v>
+        <v>808</v>
       </c>
       <c r="G65" t="n">
-        <v>107.9166666666667</v>
+        <v>108</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D66" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F66" t="n">
-        <v>30.0327</v>
+        <v>2378</v>
       </c>
       <c r="G66" t="n">
-        <v>107.8166666666667</v>
+        <v>107.9166666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>104</v>
       </c>
       <c r="C67" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D67" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E67" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F67" t="n">
-        <v>35377.16</v>
+        <v>30.0327</v>
       </c>
       <c r="G67" t="n">
-        <v>107.7666666666667</v>
+        <v>107.8166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C68" t="n">
         <v>107</v>
@@ -2752,13 +2752,13 @@
         <v>107</v>
       </c>
       <c r="E68" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F68" t="n">
-        <v>1823.1619</v>
+        <v>35377.16</v>
       </c>
       <c r="G68" t="n">
-        <v>107.7</v>
+        <v>107.7666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>107</v>
       </c>
       <c r="F69" t="n">
-        <v>41.27</v>
+        <v>1823.1619</v>
       </c>
       <c r="G69" t="n">
-        <v>107.65</v>
+        <v>107.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2816,19 @@
         <v>107</v>
       </c>
       <c r="C70" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D70" t="n">
         <v>107</v>
       </c>
       <c r="E70" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F70" t="n">
-        <v>2963.7143</v>
+        <v>41.27</v>
       </c>
       <c r="G70" t="n">
-        <v>107.5666666666667</v>
+        <v>107.65</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>107</v>
       </c>
       <c r="C71" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D71" t="n">
         <v>107</v>
       </c>
       <c r="E71" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F71" t="n">
-        <v>890.1732</v>
+        <v>2963.7143</v>
       </c>
       <c r="G71" t="n">
-        <v>107.4666666666667</v>
+        <v>107.5666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C72" t="n">
         <v>104</v>
       </c>
       <c r="D72" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E72" t="n">
         <v>104</v>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>890.1732</v>
       </c>
       <c r="G72" t="n">
-        <v>107.3833333333333</v>
+        <v>107.4666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>104</v>
       </c>
       <c r="C73" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F73" t="n">
-        <v>25505.0642</v>
+        <v>100</v>
       </c>
       <c r="G73" t="n">
-        <v>107.3333333333333</v>
+        <v>107.3833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C74" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D74" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" t="n">
         <v>102</v>
       </c>
       <c r="F74" t="n">
-        <v>5048.8712</v>
+        <v>25505.0642</v>
       </c>
       <c r="G74" t="n">
-        <v>107.2166666666667</v>
+        <v>107.3333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>103</v>
       </c>
       <c r="C75" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D75" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F75" t="n">
-        <v>42717.8175</v>
+        <v>5048.8712</v>
       </c>
       <c r="G75" t="n">
-        <v>107.1333333333333</v>
+        <v>107.2166666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>103</v>
       </c>
       <c r="F76" t="n">
-        <v>5231.1097</v>
+        <v>42717.8175</v>
       </c>
       <c r="G76" t="n">
-        <v>107.05</v>
+        <v>107.1333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D77" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E77" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F77" t="n">
-        <v>4338.1366</v>
+        <v>5231.1097</v>
       </c>
       <c r="G77" t="n">
-        <v>106.9833333333333</v>
+        <v>107.05</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C78" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D78" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E78" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>4338.1366</v>
       </c>
       <c r="G78" t="n">
-        <v>106.9</v>
+        <v>106.9833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D79" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E79" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F79" t="n">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>102</v>
       </c>
       <c r="F80" t="n">
-        <v>15726.9184</v>
+        <v>5000</v>
       </c>
       <c r="G80" t="n">
-        <v>106.6666666666667</v>
+        <v>106.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81" t="n">
         <v>102</v>
@@ -3207,13 +3207,13 @@
         <v>102</v>
       </c>
       <c r="E81" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F81" t="n">
-        <v>23146.1066</v>
+        <v>15726.9184</v>
       </c>
       <c r="G81" t="n">
-        <v>106.55</v>
+        <v>106.6666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>101</v>
       </c>
       <c r="C82" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D82" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F82" t="n">
-        <v>35809.7598</v>
+        <v>23146.1066</v>
       </c>
       <c r="G82" t="n">
-        <v>106.4</v>
+        <v>106.55</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>101</v>
       </c>
       <c r="F83" t="n">
-        <v>2015.0366</v>
+        <v>35809.7598</v>
       </c>
       <c r="G83" t="n">
-        <v>106.2666666666667</v>
+        <v>106.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C84" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D84" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E84" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F84" t="n">
-        <v>698.7186</v>
+        <v>2015.0366</v>
       </c>
       <c r="G84" t="n">
-        <v>106.1166666666667</v>
+        <v>106.2666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C85" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D85" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E85" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F85" t="n">
-        <v>1852.1236</v>
+        <v>698.7186</v>
       </c>
       <c r="G85" t="n">
-        <v>105.9833333333333</v>
+        <v>106.1166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C86" t="n">
         <v>102</v>
@@ -3382,13 +3382,13 @@
         <v>102</v>
       </c>
       <c r="E86" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F86" t="n">
-        <v>152.547</v>
+        <v>1852.1236</v>
       </c>
       <c r="G86" t="n">
-        <v>105.85</v>
+        <v>105.9833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C87" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D87" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E87" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F87" t="n">
-        <v>3501.7585</v>
+        <v>152.547</v>
       </c>
       <c r="G87" t="n">
-        <v>105.6833333333333</v>
+        <v>105.85</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>101</v>
       </c>
       <c r="F88" t="n">
-        <v>6621.0924</v>
+        <v>3501.7585</v>
       </c>
       <c r="G88" t="n">
-        <v>105.5166666666667</v>
+        <v>105.6833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>101</v>
       </c>
       <c r="C89" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D89" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E89" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F89" t="n">
-        <v>22970.3285</v>
+        <v>6621.0924</v>
       </c>
       <c r="G89" t="n">
-        <v>105.3666666666667</v>
+        <v>105.5166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C90" t="n">
         <v>100</v>
       </c>
       <c r="D90" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" t="n">
         <v>100</v>
       </c>
       <c r="F90" t="n">
-        <v>47000</v>
+        <v>22970.3285</v>
       </c>
       <c r="G90" t="n">
-        <v>105.25</v>
+        <v>105.3666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>100</v>
       </c>
       <c r="F91" t="n">
-        <v>519.0267</v>
+        <v>47000</v>
       </c>
       <c r="G91" t="n">
-        <v>105.0833333333333</v>
+        <v>105.25</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C92" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D92" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E92" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F92" t="n">
-        <v>26272.7861</v>
+        <v>519.0267</v>
       </c>
       <c r="G92" t="n">
-        <v>104.9083333333333</v>
+        <v>105.0833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="D93" t="n">
-        <v>98</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E93" t="n">
         <v>98</v>
       </c>
       <c r="F93" t="n">
-        <v>9073.500400000001</v>
+        <v>26272.7861</v>
       </c>
       <c r="G93" t="n">
-        <v>104.725</v>
+        <v>104.9083333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>99.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="C94" t="n">
-        <v>99.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="D94" t="n">
-        <v>99.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="E94" t="n">
-        <v>99.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>9073.500400000001</v>
       </c>
       <c r="G94" t="n">
-        <v>104.5983333333333</v>
+        <v>104.725</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>99.40000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>1487.925</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>104.4716666666666</v>
+        <v>104.5983333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>1487.925</v>
       </c>
       <c r="G96" t="n">
-        <v>104.3533333333333</v>
+        <v>104.4716666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>99.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>1275.35</v>
+        <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>104.235</v>
+        <v>104.3533333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C98" t="n">
         <v>99.90000000000001</v>
@@ -3802,13 +3802,13 @@
         <v>99.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>32.9469</v>
+        <v>1275.35</v>
       </c>
       <c r="G98" t="n">
-        <v>104.1166666666666</v>
+        <v>104.235</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C99" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C99" t="n">
-        <v>100</v>
-      </c>
       <c r="D99" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>98.5</v>
+        <v>99.7</v>
       </c>
       <c r="F99" t="n">
-        <v>22356.4041</v>
+        <v>32.9469</v>
       </c>
       <c r="G99" t="n">
-        <v>104</v>
+        <v>104.1166666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C100" t="n">
         <v>100</v>
       </c>
-      <c r="C100" t="n">
-        <v>101</v>
-      </c>
       <c r="D100" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="F100" t="n">
-        <v>400</v>
+        <v>22356.4041</v>
       </c>
       <c r="G100" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>100</v>
       </c>
       <c r="F101" t="n">
-        <v>24629.8057</v>
+        <v>400</v>
       </c>
       <c r="G101" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" t="n">
         <v>101</v>
@@ -3942,13 +3942,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F102" t="n">
-        <v>7219.364</v>
+        <v>24629.8057</v>
       </c>
       <c r="G102" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>101</v>
       </c>
       <c r="F103" t="n">
-        <v>10</v>
+        <v>7219.364</v>
       </c>
       <c r="G103" t="n">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>101</v>
       </c>
       <c r="F104" t="n">
-        <v>831</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>103.5166666666666</v>
+        <v>103.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>101</v>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>831</v>
       </c>
       <c r="G105" t="n">
-        <v>103.4</v>
+        <v>103.5166666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4076,19 @@
         <v>101</v>
       </c>
       <c r="C106" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D106" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E106" t="n">
         <v>101</v>
       </c>
       <c r="F106" t="n">
-        <v>4527.4261</v>
+        <v>2000</v>
       </c>
       <c r="G106" t="n">
-        <v>103.3166666666666</v>
+        <v>103.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D107" t="n">
         <v>103</v>
       </c>
       <c r="E107" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F107" t="n">
-        <v>7322.6368</v>
+        <v>4527.4261</v>
       </c>
       <c r="G107" t="n">
-        <v>103.2166666666666</v>
+        <v>103.3166666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>102</v>
       </c>
       <c r="F108" t="n">
-        <v>5384.7916</v>
+        <v>7322.6368</v>
       </c>
       <c r="G108" t="n">
-        <v>103.1</v>
+        <v>103.2166666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C109" t="n">
         <v>102</v>
       </c>
       <c r="D109" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E109" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F109" t="n">
-        <v>23162.4297</v>
+        <v>5384.7916</v>
       </c>
       <c r="G109" t="n">
-        <v>103.0333333333333</v>
+        <v>103.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" t="n">
         <v>102</v>
@@ -4222,13 +4222,13 @@
         <v>102</v>
       </c>
       <c r="E110" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F110" t="n">
-        <v>1657.3852</v>
+        <v>23162.4297</v>
       </c>
       <c r="G110" t="n">
-        <v>102.9666666666666</v>
+        <v>103.0333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>102</v>
       </c>
       <c r="F111" t="n">
-        <v>2340.9698</v>
+        <v>1657.3852</v>
       </c>
       <c r="G111" t="n">
-        <v>102.9</v>
+        <v>102.9666666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4292,13 +4292,13 @@
         <v>102</v>
       </c>
       <c r="E112" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F112" t="n">
-        <v>22608.7196</v>
+        <v>2340.9698</v>
       </c>
       <c r="G112" t="n">
-        <v>102.8333333333333</v>
+        <v>102.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C113" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D113" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E113" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F113" t="n">
-        <v>4.9</v>
+        <v>22608.7196</v>
       </c>
       <c r="G113" t="n">
-        <v>102.7833333333333</v>
+        <v>102.8333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C114" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E114" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F114" t="n">
         <v>4.9</v>
       </c>
       <c r="G114" t="n">
-        <v>102.75</v>
+        <v>102.7833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>104</v>
       </c>
       <c r="F115" t="n">
-        <v>370.6767</v>
+        <v>4.9</v>
       </c>
       <c r="G115" t="n">
-        <v>102.7</v>
+        <v>102.75</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C116" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D116" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E116" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F116" t="n">
-        <v>969.7929</v>
+        <v>370.6767</v>
       </c>
       <c r="G116" t="n">
-        <v>102.65</v>
+        <v>102.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C117" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D117" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E117" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F117" t="n">
-        <v>1298.2969</v>
+        <v>969.7929</v>
       </c>
       <c r="G117" t="n">
-        <v>102.55</v>
+        <v>102.65</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>102</v>
       </c>
       <c r="F118" t="n">
-        <v>1061.5143</v>
+        <v>1298.2969</v>
       </c>
       <c r="G118" t="n">
-        <v>102.4666666666666</v>
+        <v>102.55</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C119" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D119" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E119" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F119" t="n">
-        <v>183.6929</v>
+        <v>1061.5143</v>
       </c>
       <c r="G119" t="n">
-        <v>102.4333333333333</v>
+        <v>102.4666666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C120" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D120" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E120" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F120" t="n">
-        <v>400</v>
+        <v>183.6929</v>
       </c>
       <c r="G120" t="n">
-        <v>102.3666666666666</v>
+        <v>102.4333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>102</v>
       </c>
       <c r="C121" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D121" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E121" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F121" t="n">
-        <v>10351.2766</v>
+        <v>400</v>
       </c>
       <c r="G121" t="n">
-        <v>102.3166666666666</v>
+        <v>102.3666666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C122" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D122" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E122" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="F122" t="n">
-        <v>16521.9988</v>
+        <v>10351.2766</v>
       </c>
       <c r="G122" t="n">
-        <v>102.2666666666666</v>
+        <v>102.3166666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>98.7</v>
+        <v>101</v>
       </c>
       <c r="C123" t="n">
-        <v>98.7</v>
+        <v>102</v>
       </c>
       <c r="D123" t="n">
-        <v>98.7</v>
+        <v>102</v>
       </c>
       <c r="E123" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>16521.9988</v>
       </c>
       <c r="G123" t="n">
-        <v>102.145</v>
+        <v>102.2666666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>101</v>
+        <v>98.7</v>
       </c>
       <c r="C124" t="n">
-        <v>101</v>
+        <v>98.7</v>
       </c>
       <c r="D124" t="n">
-        <v>101</v>
+        <v>98.7</v>
       </c>
       <c r="E124" t="n">
-        <v>101</v>
+        <v>98.7</v>
       </c>
       <c r="F124" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>102.045</v>
+        <v>102.145</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C125" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D125" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E125" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F125" t="n">
-        <v>5500.8408</v>
+        <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>101.9283333333333</v>
+        <v>102.045</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="D126" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="F126" t="n">
-        <v>11734.6148</v>
+        <v>5500.8408</v>
       </c>
       <c r="G126" t="n">
-        <v>101.8383333333333</v>
+        <v>101.9283333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4811,19 +4811,19 @@
         <v>101</v>
       </c>
       <c r="C127" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D127" t="n">
         <v>101</v>
       </c>
       <c r="E127" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>473.5014</v>
+        <v>11734.6148</v>
       </c>
       <c r="G127" t="n">
-        <v>101.7383333333333</v>
+        <v>101.8383333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +4855,10 @@
         <v>101</v>
       </c>
       <c r="F128" t="n">
-        <v>6.4402</v>
+        <v>473.5014</v>
       </c>
       <c r="G128" t="n">
-        <v>101.6383333333333</v>
+        <v>101.7383333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="C129" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="D129" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="E129" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="F129" t="n">
-        <v>400</v>
+        <v>6.4402</v>
       </c>
       <c r="G129" t="n">
-        <v>101.5166666666666</v>
+        <v>101.6383333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>98.8</v>
+        <v>99.7</v>
       </c>
       <c r="C130" t="n">
         <v>99.7</v>
@@ -4922,13 +4922,13 @@
         <v>99.7</v>
       </c>
       <c r="E130" t="n">
-        <v>98.7</v>
+        <v>99.7</v>
       </c>
       <c r="F130" t="n">
-        <v>9600</v>
+        <v>400</v>
       </c>
       <c r="G130" t="n">
-        <v>101.4283333333333</v>
+        <v>101.5166666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>99.8</v>
+        <v>98.8</v>
       </c>
       <c r="C131" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="D131" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E131" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="F131" t="n">
-        <v>2361.0277</v>
+        <v>9600</v>
       </c>
       <c r="G131" t="n">
-        <v>101.3583333333333</v>
+        <v>101.4283333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C132" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D132" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E132" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F132" t="n">
-        <v>2397.602</v>
+        <v>2361.0277</v>
       </c>
       <c r="G132" t="n">
-        <v>101.2916666666666</v>
+        <v>101.3583333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>100</v>
       </c>
       <c r="F133" t="n">
-        <v>1400</v>
+        <v>2397.602</v>
       </c>
       <c r="G133" t="n">
-        <v>101.2083333333333</v>
+        <v>101.2916666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C134" t="n">
         <v>100</v>
       </c>
       <c r="D134" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E134" t="n">
         <v>100</v>
       </c>
       <c r="F134" t="n">
-        <v>1540.0562</v>
+        <v>1400</v>
       </c>
       <c r="G134" t="n">
-        <v>101.175</v>
+        <v>101.2083333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C135" t="n">
         <v>100</v>
       </c>
       <c r="D135" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E135" t="n">
         <v>100</v>
       </c>
       <c r="F135" t="n">
-        <v>6.4402</v>
+        <v>1540.0562</v>
       </c>
       <c r="G135" t="n">
-        <v>101.125</v>
+        <v>101.175</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C136" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D136" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E136" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F136" t="n">
-        <v>800</v>
+        <v>6.4402</v>
       </c>
       <c r="G136" t="n">
-        <v>101.1083333333333</v>
+        <v>101.125</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C137" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D137" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E137" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F137" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G137" t="n">
-        <v>101.0583333333333</v>
+        <v>101.1083333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>400</v>
       </c>
       <c r="G138" t="n">
-        <v>101.025</v>
+        <v>101.0583333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C139" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D139" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E139" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F139" t="n">
-        <v>9708.34668058</v>
+        <v>400</v>
       </c>
       <c r="G139" t="n">
-        <v>101.0416666666666</v>
+        <v>101.025</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,16 +5266,16 @@
         <v>102</v>
       </c>
       <c r="C140" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D140" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E140" t="n">
         <v>102</v>
       </c>
       <c r="F140" t="n">
-        <v>1200</v>
+        <v>9708.34668058</v>
       </c>
       <c r="G140" t="n">
         <v>101.0416666666666</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C141" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D141" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E141" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F141" t="n">
-        <v>3646.2565</v>
+        <v>1200</v>
       </c>
       <c r="G141" t="n">
-        <v>101.0583333333333</v>
+        <v>101.0416666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5336,19 +5336,19 @@
         <v>103</v>
       </c>
       <c r="C142" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D142" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E142" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F142" t="n">
-        <v>1315.44331942</v>
+        <v>3646.2565</v>
       </c>
       <c r="G142" t="n">
-        <v>101.1083333333333</v>
+        <v>101.0583333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C143" t="n">
         <v>104</v>
@@ -5377,13 +5377,13 @@
         <v>104</v>
       </c>
       <c r="E143" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F143" t="n">
-        <v>48.07692307</v>
+        <v>1315.44331942</v>
       </c>
       <c r="G143" t="n">
-        <v>101.1583333333333</v>
+        <v>101.1083333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C144" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D144" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E144" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F144" t="n">
-        <v>1606.1561</v>
+        <v>48.07692307</v>
       </c>
       <c r="G144" t="n">
-        <v>101.2083333333333</v>
+        <v>101.1583333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5450,10 +5450,10 @@
         <v>103</v>
       </c>
       <c r="F145" t="n">
-        <v>800</v>
+        <v>1606.1561</v>
       </c>
       <c r="G145" t="n">
-        <v>101.225</v>
+        <v>101.2083333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,19 +5473,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C146" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D146" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E146" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F146" t="n">
-        <v>3914.8439</v>
+        <v>800</v>
       </c>
       <c r="G146" t="n">
         <v>101.225</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5520,16 +5520,16 @@
         <v>102</v>
       </c>
       <c r="F147" t="n">
-        <v>1200</v>
+        <v>3914.8439</v>
       </c>
       <c r="G147" t="n">
-        <v>101.2416666666666</v>
+        <v>101.225</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -5555,10 +5555,10 @@
         <v>102</v>
       </c>
       <c r="F148" t="n">
-        <v>5006.0369</v>
+        <v>1200</v>
       </c>
       <c r="G148" t="n">
-        <v>101.2583333333333</v>
+        <v>101.2416666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E149" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F149" t="n">
-        <v>800</v>
+        <v>5006.0369</v>
       </c>
       <c r="G149" t="n">
-        <v>101.325</v>
+        <v>101.2583333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5616,19 +5616,19 @@
         <v>104</v>
       </c>
       <c r="C150" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D150" t="n">
         <v>104</v>
       </c>
       <c r="E150" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F150" t="n">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G150" t="n">
-        <v>101.375</v>
+        <v>101.325</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,28 +5648,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C151" t="n">
         <v>103</v>
       </c>
       <c r="D151" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E151" t="n">
         <v>103</v>
       </c>
       <c r="F151" t="n">
-        <v>1210</v>
+        <v>3200</v>
       </c>
       <c r="G151" t="n">
-        <v>101.425</v>
+        <v>101.375</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -5683,28 +5683,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C152" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D152" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E152" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F152" t="n">
-        <v>400</v>
+        <v>1210</v>
       </c>
       <c r="G152" t="n">
-        <v>101.4666666666666</v>
+        <v>101.425</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
@@ -5730,16 +5730,16 @@
         <v>102</v>
       </c>
       <c r="F153" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G153" t="n">
-        <v>101.5333333333333</v>
+        <v>101.4666666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -5765,10 +5765,10 @@
         <v>102</v>
       </c>
       <c r="F154" t="n">
-        <v>279.6005</v>
+        <v>1500</v>
       </c>
       <c r="G154" t="n">
-        <v>101.5766666666666</v>
+        <v>101.5333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>102</v>
       </c>
       <c r="F155" t="n">
-        <v>137.8765</v>
+        <v>279.6005</v>
       </c>
       <c r="G155" t="n">
-        <v>101.62</v>
+        <v>101.5766666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5835,10 +5835,10 @@
         <v>102</v>
       </c>
       <c r="F156" t="n">
-        <v>400</v>
+        <v>137.8765</v>
       </c>
       <c r="G156" t="n">
-        <v>101.655</v>
+        <v>101.62</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>102</v>
       </c>
       <c r="F157" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G157" t="n">
-        <v>101.69</v>
+        <v>101.655</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>102</v>
       </c>
       <c r="F158" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G158" t="n">
-        <v>101.725</v>
+        <v>101.69</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +5940,10 @@
         <v>102</v>
       </c>
       <c r="F159" t="n">
-        <v>183.6929</v>
+        <v>400</v>
       </c>
       <c r="G159" t="n">
-        <v>101.7583333333333</v>
+        <v>101.725</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C160" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D160" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E160" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F160" t="n">
-        <v>5</v>
+        <v>183.6929</v>
       </c>
       <c r="G160" t="n">
-        <v>101.7916666666667</v>
+        <v>101.7583333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C161" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D161" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E161" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F161" t="n">
-        <v>3315.66838058</v>
+        <v>5</v>
       </c>
       <c r="G161" t="n">
-        <v>101.8083333333333</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,19 +6033,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C162" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D162" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E162" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F162" t="n">
-        <v>6254.1424</v>
+        <v>3315.66838058</v>
       </c>
       <c r="G162" t="n">
         <v>101.8083333333333</v>
@@ -6080,7 +6080,7 @@
         <v>101</v>
       </c>
       <c r="F163" t="n">
-        <v>3724.099</v>
+        <v>6254.1424</v>
       </c>
       <c r="G163" t="n">
         <v>101.8083333333333</v>
@@ -6115,7 +6115,7 @@
         <v>101</v>
       </c>
       <c r="F164" t="n">
-        <v>400</v>
+        <v>3724.099</v>
       </c>
       <c r="G164" t="n">
         <v>101.8083333333333</v>
@@ -6150,7 +6150,7 @@
         <v>101</v>
       </c>
       <c r="F165" t="n">
-        <v>6829.7191</v>
+        <v>400</v>
       </c>
       <c r="G165" t="n">
         <v>101.8083333333333</v>
@@ -6185,10 +6185,10 @@
         <v>101</v>
       </c>
       <c r="F166" t="n">
-        <v>723.6665</v>
+        <v>6829.7191</v>
       </c>
       <c r="G166" t="n">
-        <v>101.775</v>
+        <v>101.8083333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>101</v>
       </c>
       <c r="F167" t="n">
-        <v>2911.6076</v>
+        <v>723.6665</v>
       </c>
       <c r="G167" t="n">
-        <v>101.7583333333333</v>
+        <v>101.775</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E168" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F168" t="n">
-        <v>5</v>
+        <v>2911.6076</v>
       </c>
       <c r="G168" t="n">
-        <v>101.775</v>
+        <v>101.7583333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,7 +6278,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C169" t="n">
         <v>103</v>
@@ -6287,13 +6287,13 @@
         <v>103</v>
       </c>
       <c r="E169" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F169" t="n">
-        <v>940.0403</v>
+        <v>5</v>
       </c>
       <c r="G169" t="n">
-        <v>101.7916666666667</v>
+        <v>101.775</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6316,19 +6316,19 @@
         <v>101</v>
       </c>
       <c r="C170" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D170" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E170" t="n">
         <v>101</v>
       </c>
       <c r="F170" t="n">
-        <v>1058.0907</v>
+        <v>940.0403</v>
       </c>
       <c r="G170" t="n">
-        <v>101.775</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6351,19 +6351,19 @@
         <v>101</v>
       </c>
       <c r="C171" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D171" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E171" t="n">
         <v>101</v>
       </c>
       <c r="F171" t="n">
-        <v>504.8239</v>
+        <v>1058.0907</v>
       </c>
       <c r="G171" t="n">
-        <v>101.7916666666667</v>
+        <v>101.775</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C172" t="n">
         <v>103</v>
@@ -6392,13 +6392,13 @@
         <v>103</v>
       </c>
       <c r="E172" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F172" t="n">
-        <v>7699.9561</v>
+        <v>504.8239</v>
       </c>
       <c r="G172" t="n">
-        <v>101.8083333333333</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6430,7 +6430,7 @@
         <v>103</v>
       </c>
       <c r="F173" t="n">
-        <v>2933.6357</v>
+        <v>7699.9561</v>
       </c>
       <c r="G173" t="n">
         <v>101.8083333333333</v>
@@ -6465,10 +6465,10 @@
         <v>103</v>
       </c>
       <c r="F174" t="n">
-        <v>1980.204</v>
+        <v>2933.6357</v>
       </c>
       <c r="G174" t="n">
-        <v>101.7916666666667</v>
+        <v>101.8083333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6500,10 +6500,10 @@
         <v>103</v>
       </c>
       <c r="F175" t="n">
-        <v>411.2731</v>
+        <v>1980.204</v>
       </c>
       <c r="G175" t="n">
-        <v>101.775</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>103</v>
       </c>
       <c r="F176" t="n">
-        <v>982.0376</v>
+        <v>411.2731</v>
       </c>
       <c r="G176" t="n">
         <v>101.775</v>
@@ -6561,19 +6561,19 @@
         <v>103</v>
       </c>
       <c r="C177" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D177" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E177" t="n">
         <v>103</v>
       </c>
       <c r="F177" t="n">
-        <v>1008.2424</v>
+        <v>982.0376</v>
       </c>
       <c r="G177" t="n">
-        <v>101.8083333333333</v>
+        <v>101.775</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6596,19 +6596,19 @@
         <v>103</v>
       </c>
       <c r="C178" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D178" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E178" t="n">
         <v>103</v>
       </c>
       <c r="F178" t="n">
-        <v>410.0226</v>
+        <v>1008.2424</v>
       </c>
       <c r="G178" t="n">
-        <v>101.825</v>
+        <v>101.8083333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C179" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D179" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E179" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F179" t="n">
-        <v>436</v>
+        <v>410.0226</v>
       </c>
       <c r="G179" t="n">
-        <v>101.8083333333333</v>
+        <v>101.825</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C180" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D180" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E180" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="F180" t="n">
-        <v>30185.7092</v>
+        <v>436</v>
       </c>
       <c r="G180" t="n">
-        <v>101.7916666666667</v>
+        <v>101.8083333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>99.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C181" t="n">
+        <v>101</v>
+      </c>
+      <c r="D181" t="n">
+        <v>101</v>
+      </c>
+      <c r="E181" t="n">
         <v>99.8</v>
       </c>
-      <c r="D181" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E181" t="n">
-        <v>99</v>
-      </c>
       <c r="F181" t="n">
-        <v>1631.2828</v>
+        <v>30185.7092</v>
       </c>
       <c r="G181" t="n">
-        <v>101.7383333333333</v>
+        <v>101.7916666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C182" t="n">
-        <v>99</v>
+        <v>99.8</v>
       </c>
       <c r="D182" t="n">
-        <v>99</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E182" t="n">
         <v>99</v>
       </c>
       <c r="F182" t="n">
-        <v>10000</v>
+        <v>1631.2828</v>
       </c>
       <c r="G182" t="n">
-        <v>101.6883333333333</v>
+        <v>101.7383333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>99</v>
       </c>
       <c r="F183" t="n">
-        <v>7200</v>
+        <v>10000</v>
       </c>
       <c r="G183" t="n">
-        <v>101.6933333333333</v>
+        <v>101.6883333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,10 +6815,10 @@
         <v>99</v>
       </c>
       <c r="F184" t="n">
-        <v>3865.6772</v>
+        <v>7200</v>
       </c>
       <c r="G184" t="n">
-        <v>101.66</v>
+        <v>101.6933333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="C185" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="D185" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="E185" t="n">
-        <v>99.8</v>
+        <v>99</v>
       </c>
       <c r="F185" t="n">
-        <v>435.3839</v>
+        <v>3865.6772</v>
       </c>
       <c r="G185" t="n">
-        <v>101.6733333333333</v>
+        <v>101.66</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C186" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D186" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E186" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F186" t="n">
-        <v>5</v>
+        <v>435.3839</v>
       </c>
       <c r="G186" t="n">
-        <v>101.6966666666667</v>
+        <v>101.6733333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C187" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="D187" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="E187" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F187" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G187" t="n">
-        <v>101.6516666666667</v>
+        <v>101.6966666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C188" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="D188" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="E188" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F188" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G188" t="n">
-        <v>101.635</v>
+        <v>101.6516666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="C189" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="D189" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="E189" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="F189" t="n">
-        <v>290.2381</v>
+        <v>5</v>
       </c>
       <c r="G189" t="n">
-        <v>101.615</v>
+        <v>101.635</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="C190" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="D190" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="E190" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
       <c r="F190" t="n">
-        <v>28.6374</v>
+        <v>290.2381</v>
       </c>
       <c r="G190" t="n">
-        <v>101.6166666666667</v>
+        <v>101.615</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C191" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="D191" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E191" t="n">
-        <v>98.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="F191" t="n">
-        <v>4000</v>
+        <v>28.6374</v>
       </c>
       <c r="G191" t="n">
-        <v>101.5966666666667</v>
+        <v>101.6166666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7095,10 +7095,10 @@
         <v>98.59999999999999</v>
       </c>
       <c r="F192" t="n">
-        <v>12858.5955</v>
+        <v>4000</v>
       </c>
       <c r="G192" t="n">
-        <v>101.5733333333334</v>
+        <v>101.5966666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7121,19 +7121,19 @@
         <v>98.59999999999999</v>
       </c>
       <c r="C193" t="n">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D193" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>98.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F193" t="n">
-        <v>24108.6572</v>
+        <v>12858.5955</v>
       </c>
       <c r="G193" t="n">
-        <v>101.5416666666667</v>
+        <v>101.5733333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>99.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>99.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>99.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>99.59999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F194" t="n">
-        <v>1635.7727</v>
+        <v>24108.6572</v>
       </c>
       <c r="G194" t="n">
-        <v>101.535</v>
+        <v>101.5416666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C195" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D195" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E195" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F195" t="n">
-        <v>13712.7475</v>
+        <v>1635.7727</v>
       </c>
       <c r="G195" t="n">
-        <v>101.5033333333334</v>
+        <v>101.535</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C196" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D196" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F196" t="n">
-        <v>3316</v>
+        <v>13712.7475</v>
       </c>
       <c r="G196" t="n">
-        <v>101.4366666666667</v>
+        <v>101.5033333333334</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7258,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="C197" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D197" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="E197" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F197" t="n">
-        <v>43012.4138</v>
+        <v>3316</v>
       </c>
       <c r="G197" t="n">
-        <v>101.3366666666667</v>
+        <v>101.4366666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,32 +7293,38 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>96</v>
+        <v>97.5</v>
       </c>
       <c r="C198" t="n">
-        <v>98.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="D198" t="n">
-        <v>98.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="E198" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F198" t="n">
-        <v>39.3755</v>
+        <v>43012.4138</v>
       </c>
       <c r="G198" t="n">
-        <v>101.2966666666667</v>
+        <v>101.3366666666667</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>98</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7331,19 +7337,19 @@
         <v>96</v>
       </c>
       <c r="C199" t="n">
-        <v>96</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D199" t="n">
-        <v>96</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E199" t="n">
         <v>96</v>
       </c>
       <c r="F199" t="n">
-        <v>20</v>
+        <v>39.3755</v>
       </c>
       <c r="G199" t="n">
-        <v>101.18</v>
+        <v>101.2966666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7353,7 +7359,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7363,32 +7373,38 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>99.2</v>
+        <v>96</v>
       </c>
       <c r="C200" t="n">
-        <v>98.8</v>
+        <v>96</v>
       </c>
       <c r="D200" t="n">
-        <v>99.2</v>
+        <v>96</v>
       </c>
       <c r="E200" t="n">
-        <v>98.8</v>
+        <v>96</v>
       </c>
       <c r="F200" t="n">
-        <v>19.277</v>
+        <v>20</v>
       </c>
       <c r="G200" t="n">
-        <v>101.1266666666667</v>
+        <v>101.18</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>98.59999999999999</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7398,32 +7414,38 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>96.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="C201" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="D201" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="E201" t="n">
-        <v>96.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="F201" t="n">
-        <v>40</v>
+        <v>19.277</v>
       </c>
       <c r="G201" t="n">
-        <v>101.06</v>
+        <v>101.1266666666667</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>96</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7436,29 +7458,35 @@
         <v>96.09999999999999</v>
       </c>
       <c r="C202" t="n">
-        <v>96.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="D202" t="n">
-        <v>96.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="E202" t="n">
         <v>96.09999999999999</v>
       </c>
       <c r="F202" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G202" t="n">
-        <v>100.9283333333334</v>
+        <v>101.06</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>98.8</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7480,20 +7508,26 @@
         <v>96.09999999999999</v>
       </c>
       <c r="F203" t="n">
-        <v>3815.5975</v>
+        <v>10</v>
       </c>
       <c r="G203" t="n">
-        <v>100.7966666666667</v>
+        <v>100.9283333333334</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>99</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7503,32 +7537,38 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C204" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D204" t="n">
-        <v>96.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E204" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F204" t="n">
-        <v>7122.3126</v>
+        <v>3815.5975</v>
       </c>
       <c r="G204" t="n">
-        <v>100.6833333333334</v>
+        <v>100.7966666666667</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>96.09999999999999</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7538,32 +7578,38 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C205" t="n">
         <v>96.2</v>
       </c>
       <c r="D205" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E205" t="n">
         <v>96.2</v>
       </c>
       <c r="F205" t="n">
-        <v>2171.3583</v>
+        <v>7122.3126</v>
       </c>
       <c r="G205" t="n">
-        <v>100.5700000000001</v>
+        <v>100.6833333333334</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>96.09999999999999</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7573,36 +7619,36 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>98.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="C206" t="n">
-        <v>98.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="D206" t="n">
-        <v>98.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="E206" t="n">
-        <v>98.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="F206" t="n">
-        <v>5.9928</v>
+        <v>2171.3583</v>
       </c>
       <c r="G206" t="n">
-        <v>100.5133333333334</v>
+        <v>100.5700000000001</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="K206" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7621,29 +7667,25 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>97.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F207" t="n">
-        <v>6400</v>
+        <v>5.9928</v>
       </c>
       <c r="G207" t="n">
-        <v>100.4566666666667</v>
+        <v>100.5133333333334</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="K207" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M207" t="n">
@@ -7664,29 +7706,25 @@
         <v>98.59999999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>98.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F208" t="n">
-        <v>1200</v>
+        <v>6400</v>
       </c>
       <c r="G208" t="n">
-        <v>100.4000000000001</v>
+        <v>100.4566666666667</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="K208" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M208" t="n">
@@ -7701,19 +7739,19 @@
         <v>98.59999999999999</v>
       </c>
       <c r="C209" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D209" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E209" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="F209" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="G209" t="n">
-        <v>100.3116666666667</v>
+        <v>100.4000000000001</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7723,7 +7761,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7733,7 +7775,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C210" t="n">
         <v>98.7</v>
@@ -7742,27 +7784,27 @@
         <v>98.7</v>
       </c>
       <c r="E210" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F210" t="n">
-        <v>6384.5294</v>
+        <v>1600</v>
       </c>
       <c r="G210" t="n">
-        <v>100.2400000000001</v>
+        <v>100.3116666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="K210" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="L210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,22 +7814,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="C211" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D211" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E211" t="n">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="F211" t="n">
-        <v>6</v>
+        <v>6384.5294</v>
       </c>
       <c r="G211" t="n">
-        <v>100.1833333333334</v>
+        <v>100.2400000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7796,12 +7838,10 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>98.7</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M211" t="n">
@@ -7825,10 +7865,10 @@
         <v>99.59999999999999</v>
       </c>
       <c r="F212" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G212" t="n">
-        <v>100.1433333333334</v>
+        <v>100.1833333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7837,12 +7877,10 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>98.7</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M212" t="n">
@@ -7866,10 +7904,10 @@
         <v>99.59999999999999</v>
       </c>
       <c r="F213" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G213" t="n">
-        <v>100.1033333333334</v>
+        <v>100.1433333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7879,7 +7917,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7892,19 +7934,19 @@
         <v>99.59999999999999</v>
       </c>
       <c r="C214" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D214" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E214" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="F214" t="n">
-        <v>23200</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
-        <v>100.0700000000001</v>
+        <v>100.1033333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7914,7 +7956,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7924,7 +7970,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C215" t="n">
         <v>100</v>
@@ -7933,13 +7979,13 @@
         <v>100</v>
       </c>
       <c r="E215" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>23200</v>
       </c>
       <c r="G215" t="n">
-        <v>100.0366666666668</v>
+        <v>100.0700000000001</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7949,7 +7995,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7971,10 +8021,10 @@
         <v>100</v>
       </c>
       <c r="F216" t="n">
-        <v>1007.1974</v>
+        <v>10</v>
       </c>
       <c r="G216" t="n">
-        <v>100.0033333333334</v>
+        <v>100.0366666666668</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7984,7 +8034,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8006,10 +8060,10 @@
         <v>100</v>
       </c>
       <c r="F217" t="n">
-        <v>177.562</v>
+        <v>1007.1974</v>
       </c>
       <c r="G217" t="n">
-        <v>99.97000000000008</v>
+        <v>100.0033333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8019,7 +8073,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8029,7 +8087,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C218" t="n">
         <v>100</v>
@@ -8038,13 +8096,13 @@
         <v>100</v>
       </c>
       <c r="E218" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F218" t="n">
-        <v>3488.562</v>
+        <v>177.562</v>
       </c>
       <c r="G218" t="n">
-        <v>99.93666666666675</v>
+        <v>99.97000000000008</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8054,7 +8112,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8064,7 +8126,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C219" t="n">
         <v>100</v>
@@ -8073,13 +8135,13 @@
         <v>100</v>
       </c>
       <c r="E219" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F219" t="n">
-        <v>112</v>
+        <v>3488.562</v>
       </c>
       <c r="G219" t="n">
-        <v>99.90333333333342</v>
+        <v>99.93666666666675</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8089,7 +8151,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8099,22 +8165,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>97.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D220" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E220" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F220" t="n">
-        <v>20112</v>
+        <v>112</v>
       </c>
       <c r="G220" t="n">
-        <v>99.81833333333341</v>
+        <v>99.90333333333342</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8124,7 +8190,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8134,22 +8204,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C221" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D221" t="n">
-        <v>98.3</v>
+        <v>98</v>
       </c>
       <c r="E221" t="n">
-        <v>98.3</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F221" t="n">
-        <v>1241.2213</v>
+        <v>20112</v>
       </c>
       <c r="G221" t="n">
-        <v>99.75666666666675</v>
+        <v>99.81833333333341</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8159,7 +8229,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8169,22 +8243,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C222" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="D222" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E222" t="n">
-        <v>99.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F222" t="n">
-        <v>7248.1214</v>
+        <v>1241.2213</v>
       </c>
       <c r="G222" t="n">
-        <v>99.73000000000008</v>
+        <v>99.75666666666675</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8194,7 +8268,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8216,10 +8294,10 @@
         <v>99.40000000000001</v>
       </c>
       <c r="F223" t="n">
-        <v>6885.7153</v>
+        <v>7248.1214</v>
       </c>
       <c r="G223" t="n">
-        <v>99.7033333333334</v>
+        <v>99.73000000000008</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8229,7 +8307,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8239,7 +8321,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C224" t="n">
         <v>99.40000000000001</v>
@@ -8248,13 +8330,13 @@
         <v>99.40000000000001</v>
       </c>
       <c r="E224" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F224" t="n">
-        <v>15731.7514</v>
+        <v>6885.7153</v>
       </c>
       <c r="G224" t="n">
-        <v>99.67666666666673</v>
+        <v>99.7033333333334</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8264,7 +8346,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8274,22 +8360,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="C225" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D225" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E225" t="n">
-        <v>100</v>
+        <v>99.2</v>
       </c>
       <c r="F225" t="n">
-        <v>20959.3197</v>
+        <v>15731.7514</v>
       </c>
       <c r="G225" t="n">
-        <v>99.66000000000007</v>
+        <v>99.67666666666673</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8299,7 +8385,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8309,22 +8399,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="C226" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="D226" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="E226" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F226" t="n">
-        <v>498.8956</v>
+        <v>20959.3197</v>
       </c>
       <c r="G226" t="n">
-        <v>99.63500000000006</v>
+        <v>99.66000000000007</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8334,7 +8424,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8344,22 +8438,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="C227" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="D227" t="n">
-        <v>98.2</v>
+        <v>99.5</v>
       </c>
       <c r="E227" t="n">
-        <v>98.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F227" t="n">
-        <v>1166.2398</v>
+        <v>498.8956</v>
       </c>
       <c r="G227" t="n">
-        <v>99.5883333333334</v>
+        <v>99.63500000000006</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8369,7 +8463,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8379,22 +8477,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C228" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="D228" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E228" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="F228" t="n">
-        <v>259.3337</v>
+        <v>1166.2398</v>
       </c>
       <c r="G228" t="n">
-        <v>99.50666666666673</v>
+        <v>99.5883333333334</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8404,7 +8502,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8414,22 +8516,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C229" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D229" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E229" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F229" t="n">
-        <v>5</v>
+        <v>259.3337</v>
       </c>
       <c r="G229" t="n">
-        <v>99.45666666666673</v>
+        <v>99.50666666666673</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8439,7 +8541,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8452,16 +8558,16 @@
         <v>100</v>
       </c>
       <c r="C230" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D230" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E230" t="n">
         <v>100</v>
       </c>
       <c r="F230" t="n">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="G230" t="n">
         <v>99.45666666666673</v>
@@ -8474,7 +8580,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8484,22 +8594,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C231" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="D231" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="E231" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F231" t="n">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="G231" t="n">
-        <v>99.3783333333334</v>
+        <v>99.45666666666673</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8509,7 +8619,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8519,22 +8633,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="C232" t="n">
-        <v>102</v>
+        <v>98.3</v>
       </c>
       <c r="D232" t="n">
-        <v>102</v>
+        <v>98.3</v>
       </c>
       <c r="E232" t="n">
-        <v>100</v>
+        <v>98.3</v>
       </c>
       <c r="F232" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="G232" t="n">
-        <v>99.36166666666674</v>
+        <v>99.3783333333334</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8544,8 +8658,51 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>100</v>
+      </c>
+      <c r="C233" t="n">
+        <v>102</v>
+      </c>
+      <c r="D233" t="n">
+        <v>102</v>
+      </c>
+      <c r="E233" t="n">
+        <v>100</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G233" t="n">
+        <v>99.36166666666674</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M233"/>
+  <dimension ref="A1:N243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>997.5</v>
       </c>
       <c r="G2" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="H2" t="n">
         <v>106.4</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>15661.7034</v>
       </c>
       <c r="G3" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>106.4833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5652</v>
       </c>
       <c r="G4" t="n">
+        <v>108.8666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>106.55</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>9969.702300000001</v>
       </c>
       <c r="G5" t="n">
+        <v>109.0666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>106.6333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>1942</v>
       </c>
       <c r="G6" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>106.7333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>400</v>
       </c>
       <c r="G7" t="n">
+        <v>109.2666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>106.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>134981.8574</v>
       </c>
       <c r="G8" t="n">
+        <v>109.3333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>106.8666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1889.6774</v>
       </c>
       <c r="G9" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H9" t="n">
         <v>106.95</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>560.0542</v>
       </c>
       <c r="G10" t="n">
+        <v>109.5333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>107.0166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>2088.2228</v>
       </c>
       <c r="G11" t="n">
+        <v>109.5333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>107.1</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2017.0477</v>
       </c>
       <c r="G12" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H12" t="n">
         <v>107.2</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>16535.7813</v>
       </c>
       <c r="G13" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>107.3</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>431.9687</v>
       </c>
       <c r="G14" t="n">
+        <v>109.5333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>107.35</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>200</v>
       </c>
       <c r="G15" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="H15" t="n">
         <v>107.45</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2730.7708</v>
       </c>
       <c r="G16" t="n">
+        <v>109.5333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>107.5333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>4127.3257</v>
       </c>
       <c r="G17" t="n">
+        <v>109.4666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>107.6</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>4188.84</v>
       </c>
       <c r="G18" t="n">
+        <v>109.4666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>107.6666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>15057.1869</v>
       </c>
       <c r="G19" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H19" t="n">
         <v>107.7166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1880.391</v>
       </c>
       <c r="G20" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H20" t="n">
         <v>107.7666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>15621.5711</v>
       </c>
       <c r="G21" t="n">
+        <v>109.1333333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>107.85</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>400</v>
       </c>
       <c r="G22" t="n">
+        <v>109.0666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>107.9166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>2800</v>
       </c>
       <c r="G23" t="n">
+        <v>109.0666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>108.0166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>943.8799</v>
       </c>
       <c r="G24" t="n">
+        <v>108.9333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>108.1</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>7950.1178</v>
       </c>
       <c r="G25" t="n">
+        <v>108.8666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>108.2</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>800</v>
       </c>
       <c r="G26" t="n">
+        <v>108.8666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>108.3166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>4010</v>
       </c>
       <c r="G27" t="n">
+        <v>108.8666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>108.4166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1056.6142</v>
       </c>
       <c r="G28" t="n">
+        <v>109</v>
+      </c>
+      <c r="H28" t="n">
         <v>108.5333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>4500.39639639</v>
       </c>
       <c r="G29" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H29" t="n">
         <v>108.6333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>218.75</v>
       </c>
       <c r="G30" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H30" t="n">
         <v>108.7333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>11101.7967</v>
       </c>
       <c r="G31" t="n">
+        <v>109.1333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>108.7666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>5269.0193</v>
       </c>
       <c r="G32" t="n">
+        <v>109.2666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>108.85</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>2196.4508</v>
       </c>
       <c r="G33" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H33" t="n">
         <v>108.9166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>2224.6762</v>
       </c>
       <c r="G34" t="n">
+        <v>109.4666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>108.9666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2033.6867</v>
       </c>
       <c r="G35" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H35" t="n">
         <v>108.9833333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>4049.4458</v>
       </c>
       <c r="G36" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="H36" t="n">
         <v>108.9833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>23.2032</v>
       </c>
       <c r="G37" t="n">
+        <v>109.0666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>108.95</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>3964.13</v>
       </c>
       <c r="G38" t="n">
+        <v>108.8666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>108.9333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>2467.77</v>
       </c>
       <c r="G39" t="n">
+        <v>108.7333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>108.9166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>2689.7126</v>
       </c>
       <c r="G40" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="H40" t="n">
         <v>108.8833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>3015.6685</v>
       </c>
       <c r="G41" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="H41" t="n">
         <v>108.85</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3200</v>
       </c>
       <c r="G42" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="H42" t="n">
         <v>108.8166666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>173.5037</v>
       </c>
       <c r="G43" t="n">
+        <v>107.9333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>108.8166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>500</v>
       </c>
       <c r="G44" t="n">
+        <v>107.6666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>108.7833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>7507.2882</v>
       </c>
       <c r="G45" t="n">
+        <v>107.4666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>108.7666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>2921.2871</v>
       </c>
       <c r="G46" t="n">
+        <v>107.5333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>108.75</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>5465.0514</v>
       </c>
       <c r="G47" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="H47" t="n">
         <v>108.7333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>87.5313</v>
       </c>
       <c r="G48" t="n">
+        <v>107.2666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>108.7333333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>155</v>
       </c>
       <c r="G49" t="n">
+        <v>107.2666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>108.75</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>10303.55</v>
       </c>
       <c r="G50" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="H50" t="n">
         <v>108.7166666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5870.3369</v>
       </c>
       <c r="G51" t="n">
+        <v>107.1333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>108.6666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>400</v>
       </c>
       <c r="G52" t="n">
+        <v>107.0666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>108.6166666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>2551.796</v>
       </c>
       <c r="G53" t="n">
+        <v>107</v>
+      </c>
+      <c r="H53" t="n">
         <v>108.5666666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>8780.8107</v>
       </c>
       <c r="G54" t="n">
+        <v>106.9333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>108.5</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>13353.1023</v>
       </c>
       <c r="G55" t="n">
+        <v>106.8666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>108.4666666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>5770.7949</v>
       </c>
       <c r="G56" t="n">
+        <v>106.8666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>108.4166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>5777.8267</v>
       </c>
       <c r="G57" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="H57" t="n">
         <v>108.3666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>7688</v>
       </c>
       <c r="G58" t="n">
+        <v>106.8666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>108.35</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>5</v>
       </c>
       <c r="G59" t="n">
+        <v>106.8666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>108.3166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>12169.3468</v>
       </c>
       <c r="G60" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="H60" t="n">
         <v>108.2666666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>402</v>
       </c>
       <c r="G61" t="n">
+        <v>106.6666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>108.2166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>6</v>
       </c>
       <c r="G62" t="n">
+        <v>106.5333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>108.1666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>2821.2744</v>
       </c>
       <c r="G63" t="n">
+        <v>106.3333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>108.1166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>20396.1387</v>
       </c>
       <c r="G64" t="n">
+        <v>106.1333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>108.0666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>808</v>
       </c>
       <c r="G65" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="H65" t="n">
         <v>108</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>2378</v>
       </c>
       <c r="G66" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>107.9166666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>30.0327</v>
       </c>
       <c r="G67" t="n">
+        <v>106.0666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>107.8166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>35377.16</v>
       </c>
       <c r="G68" t="n">
+        <v>106.1333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>107.7666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>1823.1619</v>
       </c>
       <c r="G69" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="H69" t="n">
         <v>107.7</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>41.27</v>
       </c>
       <c r="G70" t="n">
+        <v>106.2666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>107.65</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>2963.7143</v>
       </c>
       <c r="G71" t="n">
+        <v>106.1333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>107.5666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>890.1732</v>
       </c>
       <c r="G72" t="n">
+        <v>106</v>
+      </c>
+      <c r="H72" t="n">
         <v>107.4666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
+        <v>105.7333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>107.3833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>25505.0642</v>
       </c>
       <c r="G74" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="H74" t="n">
         <v>107.3333333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>5048.8712</v>
       </c>
       <c r="G75" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="H75" t="n">
         <v>107.2166666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>42717.8175</v>
       </c>
       <c r="G76" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="H76" t="n">
         <v>107.1333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>5231.1097</v>
       </c>
       <c r="G77" t="n">
+        <v>105</v>
+      </c>
+      <c r="H77" t="n">
         <v>107.05</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>4338.1366</v>
       </c>
       <c r="G78" t="n">
+        <v>104.9333333333334</v>
+      </c>
+      <c r="H78" t="n">
         <v>106.9833333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>3</v>
       </c>
       <c r="G79" t="n">
+        <v>104.7333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>106.9</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>5000</v>
       </c>
       <c r="G80" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="H80" t="n">
         <v>106.8</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>15726.9184</v>
       </c>
       <c r="G81" t="n">
+        <v>104.1333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>106.6666666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>23146.1066</v>
       </c>
       <c r="G82" t="n">
+        <v>104</v>
+      </c>
+      <c r="H82" t="n">
         <v>106.55</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>35809.7598</v>
       </c>
       <c r="G83" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>106.4</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>2015.0366</v>
       </c>
       <c r="G84" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="H84" t="n">
         <v>106.2666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>698.7186</v>
       </c>
       <c r="G85" t="n">
+        <v>102.7333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>106.1166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1852.1236</v>
       </c>
       <c r="G86" t="n">
+        <v>102.5333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>105.9833333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>152.547</v>
       </c>
       <c r="G87" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>105.85</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>3501.7585</v>
       </c>
       <c r="G88" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="H88" t="n">
         <v>105.6833333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>6621.0924</v>
       </c>
       <c r="G89" t="n">
+        <v>101.9333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>105.5166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>22970.3285</v>
       </c>
       <c r="G90" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>105.3666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>47000</v>
       </c>
       <c r="G91" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="H91" t="n">
         <v>105.25</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>519.0267</v>
       </c>
       <c r="G92" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="H92" t="n">
         <v>105.0833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>26272.7861</v>
       </c>
       <c r="G93" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="H93" t="n">
         <v>104.9083333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>9073.500400000001</v>
       </c>
       <c r="G94" t="n">
+        <v>100.7666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>104.725</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
+        <v>100.5933333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>104.5983333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>1487.925</v>
       </c>
       <c r="G96" t="n">
+        <v>100.42</v>
+      </c>
+      <c r="H96" t="n">
         <v>104.4716666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
+        <v>100.28</v>
+      </c>
+      <c r="H97" t="n">
         <v>104.3533333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>1275.35</v>
       </c>
       <c r="G98" t="n">
+        <v>100.2066666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>104.235</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>32.9469</v>
       </c>
       <c r="G99" t="n">
+        <v>100.1333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>104.1166666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>22356.4041</v>
       </c>
       <c r="G100" t="n">
+        <v>100.1333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>104</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>400</v>
       </c>
       <c r="G101" t="n">
+        <v>100.0666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>103.9</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>24629.8057</v>
       </c>
       <c r="G102" t="n">
+        <v>100</v>
+      </c>
+      <c r="H102" t="n">
         <v>103.8</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>7219.364</v>
       </c>
       <c r="G103" t="n">
+        <v>100</v>
+      </c>
+      <c r="H103" t="n">
         <v>103.7</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
+        <v>100</v>
+      </c>
+      <c r="H104" t="n">
         <v>103.6</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>831</v>
       </c>
       <c r="G105" t="n">
+        <v>100.0666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>103.5166666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>2000</v>
       </c>
       <c r="G106" t="n">
+        <v>100.1333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>103.4</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>4527.4261</v>
       </c>
       <c r="G107" t="n">
+        <v>100.3333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>103.3166666666666</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>7322.6368</v>
       </c>
       <c r="G108" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H108" t="n">
         <v>103.2166666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>5384.7916</v>
       </c>
       <c r="G109" t="n">
+        <v>100.7666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>103.1</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>23162.4297</v>
       </c>
       <c r="G110" t="n">
+        <v>100.94</v>
+      </c>
+      <c r="H110" t="n">
         <v>103.0333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>1657.3852</v>
       </c>
       <c r="G111" t="n">
+        <v>101.1133333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>102.9666666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>2340.9698</v>
       </c>
       <c r="G112" t="n">
+        <v>101.2533333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>102.9</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>22608.7196</v>
       </c>
       <c r="G113" t="n">
+        <v>101.3933333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>102.8333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>4.9</v>
       </c>
       <c r="G114" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>102.7833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>4.9</v>
       </c>
       <c r="G115" t="n">
+        <v>101.8666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>102.75</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>370.6767</v>
       </c>
       <c r="G116" t="n">
+        <v>102.0666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>102.7</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>969.7929</v>
       </c>
       <c r="G117" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="H117" t="n">
         <v>102.65</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>1298.2969</v>
       </c>
       <c r="G118" t="n">
+        <v>102.2666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>102.55</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>1061.5143</v>
       </c>
       <c r="G119" t="n">
+        <v>102.3333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>102.4666666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>183.6929</v>
       </c>
       <c r="G120" t="n">
+        <v>102.4666666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>102.4333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>400</v>
       </c>
       <c r="G121" t="n">
+        <v>102.5333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>102.3666666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>10351.2766</v>
       </c>
       <c r="G122" t="n">
+        <v>102.5333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>102.3166666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>16521.9988</v>
       </c>
       <c r="G123" t="n">
+        <v>102.5333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>102.2666666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
+        <v>102.3133333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>102.145</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>5</v>
       </c>
       <c r="G125" t="n">
+        <v>102.2466666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>102.045</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>5500.8408</v>
       </c>
       <c r="G126" t="n">
+        <v>102.0466666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>101.9283333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>11734.6148</v>
       </c>
       <c r="G127" t="n">
+        <v>101.82</v>
+      </c>
+      <c r="H127" t="n">
         <v>101.8383333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>473.5014</v>
       </c>
       <c r="G128" t="n">
+        <v>101.7533333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>101.7383333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>6.4402</v>
       </c>
       <c r="G129" t="n">
+        <v>101.62</v>
+      </c>
+      <c r="H129" t="n">
         <v>101.6383333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>400</v>
       </c>
       <c r="G130" t="n">
+        <v>101.3333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>101.5166666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>9600</v>
       </c>
       <c r="G131" t="n">
+        <v>101.0466666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>101.4283333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>2361.0277</v>
       </c>
       <c r="G132" t="n">
+        <v>100.8333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>101.3583333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>2397.602</v>
       </c>
       <c r="G133" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H133" t="n">
         <v>101.2916666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>1400</v>
       </c>
       <c r="G134" t="n">
+        <v>100.5666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>101.2083333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>1540.0562</v>
       </c>
       <c r="G135" t="n">
+        <v>100.3666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>101.175</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>6.4402</v>
       </c>
       <c r="G136" t="n">
+        <v>100.2333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>101.125</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>800</v>
       </c>
       <c r="G137" t="n">
+        <v>100.1666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>101.1083333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>400</v>
       </c>
       <c r="G138" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H138" t="n">
         <v>101.0583333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>400</v>
       </c>
       <c r="G139" t="n">
+        <v>100.2533333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>101.025</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>9708.34668058</v>
       </c>
       <c r="G140" t="n">
+        <v>100.3866666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>101.0416666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>1200</v>
       </c>
       <c r="G141" t="n">
+        <v>100.5866666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>101.0416666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>3646.2565</v>
       </c>
       <c r="G142" t="n">
+        <v>100.88</v>
+      </c>
+      <c r="H142" t="n">
         <v>101.0583333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>1315.44331942</v>
       </c>
       <c r="G143" t="n">
+        <v>101.08</v>
+      </c>
+      <c r="H143" t="n">
         <v>101.1083333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>48.07692307</v>
       </c>
       <c r="G144" t="n">
+        <v>101.28</v>
+      </c>
+      <c r="H144" t="n">
         <v>101.1583333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>1606.1561</v>
       </c>
       <c r="G145" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="H145" t="n">
         <v>101.2083333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>800</v>
       </c>
       <c r="G146" t="n">
+        <v>101.72</v>
+      </c>
+      <c r="H146" t="n">
         <v>101.225</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>3914.8439</v>
       </c>
       <c r="G147" t="n">
+        <v>101.8666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>101.225</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>1200</v>
       </c>
       <c r="G148" t="n">
+        <v>102</v>
+      </c>
+      <c r="H148" t="n">
         <v>101.2416666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>5006.0369</v>
       </c>
       <c r="G149" t="n">
+        <v>102.1333333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>101.2583333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>800</v>
       </c>
       <c r="G150" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H150" t="n">
         <v>101.325</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>3200</v>
       </c>
       <c r="G151" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="H151" t="n">
         <v>101.375</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>1210</v>
       </c>
       <c r="G152" t="n">
+        <v>102.6666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>101.425</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>400</v>
       </c>
       <c r="G153" t="n">
+        <v>102.7333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>101.4666666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>1500</v>
       </c>
       <c r="G154" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="H154" t="n">
         <v>101.5333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>279.6005</v>
       </c>
       <c r="G155" t="n">
+        <v>102.7333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>101.5766666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>137.8765</v>
       </c>
       <c r="G156" t="n">
+        <v>102.7333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>101.62</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>400</v>
       </c>
       <c r="G157" t="n">
+        <v>102.6666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>101.655</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>1200</v>
       </c>
       <c r="G158" t="n">
+        <v>102.5333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>101.69</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>400</v>
       </c>
       <c r="G159" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H159" t="n">
         <v>101.725</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>183.6929</v>
       </c>
       <c r="G160" t="n">
+        <v>102.3333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>101.7583333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>5</v>
       </c>
       <c r="G161" t="n">
+        <v>102.3333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>101.7916666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>3315.66838058</v>
       </c>
       <c r="G162" t="n">
+        <v>102.3333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>101.8083333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>6254.1424</v>
       </c>
       <c r="G163" t="n">
+        <v>102.2666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>101.8083333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>3724.099</v>
       </c>
       <c r="G164" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="H164" t="n">
         <v>101.8083333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>400</v>
       </c>
       <c r="G165" t="n">
+        <v>102</v>
+      </c>
+      <c r="H165" t="n">
         <v>101.8083333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>6829.7191</v>
       </c>
       <c r="G166" t="n">
+        <v>101.8666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>101.8083333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>723.6665</v>
       </c>
       <c r="G167" t="n">
+        <v>101.7333333333333</v>
+      </c>
+      <c r="H167" t="n">
         <v>101.775</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>2911.6076</v>
       </c>
       <c r="G168" t="n">
+        <v>101.6666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>101.7583333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>5</v>
       </c>
       <c r="G169" t="n">
+        <v>101.7333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>101.775</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>940.0403</v>
       </c>
       <c r="G170" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H170" t="n">
         <v>101.7916666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>1058.0907</v>
       </c>
       <c r="G171" t="n">
+        <v>101.7333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>101.775</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>504.8239</v>
       </c>
       <c r="G172" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H172" t="n">
         <v>101.7916666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>7699.9561</v>
       </c>
       <c r="G173" t="n">
+        <v>101.8666666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>101.8083333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>2933.6357</v>
       </c>
       <c r="G174" t="n">
+        <v>101.9333333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>101.8083333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>1980.204</v>
       </c>
       <c r="G175" t="n">
+        <v>102</v>
+      </c>
+      <c r="H175" t="n">
         <v>101.7916666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>411.2731</v>
       </c>
       <c r="G176" t="n">
+        <v>102</v>
+      </c>
+      <c r="H176" t="n">
         <v>101.775</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>982.0376</v>
       </c>
       <c r="G177" t="n">
+        <v>102.0666666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>101.775</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>1008.2424</v>
       </c>
       <c r="G178" t="n">
+        <v>102.2666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>101.8083333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>410.0226</v>
       </c>
       <c r="G179" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="H179" t="n">
         <v>101.825</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>436</v>
       </c>
       <c r="G180" t="n">
+        <v>102.4666666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>101.8083333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>30185.7092</v>
       </c>
       <c r="G181" t="n">
+        <v>102.4666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>101.7916666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>1631.2828</v>
       </c>
       <c r="G182" t="n">
+        <v>102.3866666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>101.7383333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>10000</v>
       </c>
       <c r="G183" t="n">
+        <v>102.2533333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>101.6883333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,25 @@
         <v>7200</v>
       </c>
       <c r="G184" t="n">
+        <v>101.9866666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>101.6933333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>99</v>
+      </c>
+      <c r="L184" t="n">
+        <v>99</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7411,29 @@
         <v>3865.6772</v>
       </c>
       <c r="G185" t="n">
+        <v>101.72</v>
+      </c>
+      <c r="H185" t="n">
         <v>101.66</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>99</v>
+      </c>
+      <c r="L185" t="n">
+        <v>99</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7457,29 @@
         <v>435.3839</v>
       </c>
       <c r="G186" t="n">
+        <v>101.64</v>
+      </c>
+      <c r="H186" t="n">
         <v>101.6733333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>99</v>
+      </c>
+      <c r="L186" t="n">
+        <v>99</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7503,25 @@
         <v>5</v>
       </c>
       <c r="G187" t="n">
+        <v>101.44</v>
+      </c>
+      <c r="H187" t="n">
         <v>101.6966666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="L187" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7545,27 @@
         <v>6</v>
       </c>
       <c r="G188" t="n">
+        <v>101.1266666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>101.6516666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7589,27 @@
         <v>5</v>
       </c>
       <c r="G189" t="n">
+        <v>100.9266666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>101.635</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7633,21 @@
         <v>290.2381</v>
       </c>
       <c r="G190" t="n">
+        <v>100.6266666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>101.615</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7671,21 @@
         <v>28.6374</v>
       </c>
       <c r="G191" t="n">
+        <v>100.4133333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>101.6166666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7709,21 @@
         <v>4000</v>
       </c>
       <c r="G192" t="n">
+        <v>100.12</v>
+      </c>
+      <c r="H192" t="n">
         <v>101.5966666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7747,21 @@
         <v>12858.5955</v>
       </c>
       <c r="G193" t="n">
+        <v>99.75999999999999</v>
+      </c>
+      <c r="H193" t="n">
         <v>101.5733333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7785,21 @@
         <v>24108.6572</v>
       </c>
       <c r="G194" t="n">
+        <v>99.43333333333332</v>
+      </c>
+      <c r="H194" t="n">
         <v>101.5416666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7823,21 @@
         <v>1635.7727</v>
       </c>
       <c r="G195" t="n">
+        <v>99.27333333333331</v>
+      </c>
+      <c r="H195" t="n">
         <v>101.535</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7861,21 @@
         <v>13712.7475</v>
       </c>
       <c r="G196" t="n">
+        <v>99.07999999999997</v>
+      </c>
+      <c r="H196" t="n">
         <v>101.5033333333334</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7899,21 @@
         <v>3316</v>
       </c>
       <c r="G197" t="n">
+        <v>98.95999999999998</v>
+      </c>
+      <c r="H197" t="n">
         <v>101.4366666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,24 +7937,21 @@
         <v>43012.4138</v>
       </c>
       <c r="G198" t="n">
+        <v>98.69333333333331</v>
+      </c>
+      <c r="H198" t="n">
         <v>101.3366666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7349,22 +7975,21 @@
         <v>39.3755</v>
       </c>
       <c r="G199" t="n">
+        <v>98.66666666666664</v>
+      </c>
+      <c r="H199" t="n">
         <v>101.2966666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7388,24 +8013,21 @@
         <v>20</v>
       </c>
       <c r="G200" t="n">
+        <v>98.46666666666664</v>
+      </c>
+      <c r="H200" t="n">
         <v>101.18</v>
       </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,24 +8051,21 @@
         <v>19.277</v>
       </c>
       <c r="G201" t="n">
+        <v>98.39999999999996</v>
+      </c>
+      <c r="H201" t="n">
         <v>101.1266666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7470,24 +8089,21 @@
         <v>40</v>
       </c>
       <c r="G202" t="n">
+        <v>98.3333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>101.06</v>
       </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>98.8</v>
+        <v>0</v>
       </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7511,24 +8127,21 @@
         <v>10</v>
       </c>
       <c r="G203" t="n">
+        <v>98.18666666666664</v>
+      </c>
+      <c r="H203" t="n">
         <v>100.9283333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7552,24 +8165,21 @@
         <v>3815.5975</v>
       </c>
       <c r="G204" t="n">
+        <v>97.92666666666663</v>
+      </c>
+      <c r="H204" t="n">
         <v>100.7966666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>96.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7593,24 +8203,21 @@
         <v>7122.3126</v>
       </c>
       <c r="G205" t="n">
+        <v>97.7733333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>100.6833333333334</v>
       </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>96.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7634,22 +8241,21 @@
         <v>2171.3583</v>
       </c>
       <c r="G206" t="n">
+        <v>97.5333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>100.5700000000001</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7673,22 +8279,25 @@
         <v>5.9928</v>
       </c>
       <c r="G207" t="n">
+        <v>97.5333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>100.5133333333334</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7712,22 +8321,27 @@
         <v>6400</v>
       </c>
       <c r="G208" t="n">
+        <v>97.5333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>100.4566666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+      <c r="L208" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7751,22 +8365,27 @@
         <v>1200</v>
       </c>
       <c r="G209" t="n">
+        <v>97.56666666666663</v>
+      </c>
+      <c r="H209" t="n">
         <v>100.4000000000001</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="L209" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7790,22 +8409,21 @@
         <v>1600</v>
       </c>
       <c r="G210" t="n">
+        <v>97.50666666666665</v>
+      </c>
+      <c r="H210" t="n">
         <v>100.3116666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7829,22 +8447,21 @@
         <v>6384.5294</v>
       </c>
       <c r="G211" t="n">
+        <v>97.54666666666665</v>
+      </c>
+      <c r="H211" t="n">
         <v>100.2400000000001</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,22 +8485,21 @@
         <v>6</v>
       </c>
       <c r="G212" t="n">
+        <v>97.65333333333332</v>
+      </c>
+      <c r="H212" t="n">
         <v>100.1833333333334</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7907,22 +8523,21 @@
         <v>2000</v>
       </c>
       <c r="G213" t="n">
+        <v>97.95999999999998</v>
+      </c>
+      <c r="H213" t="n">
         <v>100.1433333333334</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7946,22 +8561,21 @@
         <v>400</v>
       </c>
       <c r="G214" t="n">
+        <v>98.02666666666664</v>
+      </c>
+      <c r="H214" t="n">
         <v>100.1033333333334</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7985,22 +8599,21 @@
         <v>23200</v>
       </c>
       <c r="G215" t="n">
+        <v>98.29333333333331</v>
+      </c>
+      <c r="H215" t="n">
         <v>100.0700000000001</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8024,22 +8637,21 @@
         <v>10</v>
       </c>
       <c r="G216" t="n">
+        <v>98.37333333333331</v>
+      </c>
+      <c r="H216" t="n">
         <v>100.0366666666668</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8063,22 +8675,21 @@
         <v>1007.1974</v>
       </c>
       <c r="G217" t="n">
+        <v>98.43999999999998</v>
+      </c>
+      <c r="H217" t="n">
         <v>100.0033333333334</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8102,22 +8713,21 @@
         <v>177.562</v>
       </c>
       <c r="G218" t="n">
+        <v>98.69999999999999</v>
+      </c>
+      <c r="H218" t="n">
         <v>99.97000000000008</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8141,22 +8751,21 @@
         <v>3488.562</v>
       </c>
       <c r="G219" t="n">
+        <v>98.95999999999999</v>
+      </c>
+      <c r="H219" t="n">
         <v>99.93666666666675</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8180,22 +8789,21 @@
         <v>112</v>
       </c>
       <c r="G220" t="n">
+        <v>99.21333333333332</v>
+      </c>
+      <c r="H220" t="n">
         <v>99.90333333333342</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8219,22 +8827,21 @@
         <v>20112</v>
       </c>
       <c r="G221" t="n">
+        <v>99.32666666666665</v>
+      </c>
+      <c r="H221" t="n">
         <v>99.81833333333341</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8258,22 +8865,21 @@
         <v>1241.2213</v>
       </c>
       <c r="G222" t="n">
+        <v>99.30666666666666</v>
+      </c>
+      <c r="H222" t="n">
         <v>99.75666666666675</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8297,22 +8903,21 @@
         <v>7248.1214</v>
       </c>
       <c r="G223" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="H223" t="n">
         <v>99.73000000000008</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8336,22 +8941,21 @@
         <v>6885.7153</v>
       </c>
       <c r="G224" t="n">
+        <v>99.41333333333336</v>
+      </c>
+      <c r="H224" t="n">
         <v>99.7033333333334</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8375,22 +8979,21 @@
         <v>15731.7514</v>
       </c>
       <c r="G225" t="n">
+        <v>99.46000000000002</v>
+      </c>
+      <c r="H225" t="n">
         <v>99.67666666666673</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8414,22 +9017,21 @@
         <v>20959.3197</v>
       </c>
       <c r="G226" t="n">
+        <v>99.54666666666668</v>
+      </c>
+      <c r="H226" t="n">
         <v>99.66000000000007</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8453,22 +9055,21 @@
         <v>498.8956</v>
       </c>
       <c r="G227" t="n">
+        <v>99.54000000000002</v>
+      </c>
+      <c r="H227" t="n">
         <v>99.63500000000006</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8492,22 +9093,21 @@
         <v>1166.2398</v>
       </c>
       <c r="G228" t="n">
+        <v>99.4466666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>99.5883333333334</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8531,22 +9131,21 @@
         <v>259.3337</v>
       </c>
       <c r="G229" t="n">
+        <v>99.34666666666671</v>
+      </c>
+      <c r="H229" t="n">
         <v>99.50666666666673</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8570,22 +9169,21 @@
         <v>5</v>
       </c>
       <c r="G230" t="n">
+        <v>99.34666666666671</v>
+      </c>
+      <c r="H230" t="n">
         <v>99.45666666666673</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8609,22 +9207,21 @@
         <v>10000</v>
       </c>
       <c r="G231" t="n">
+        <v>99.41333333333337</v>
+      </c>
+      <c r="H231" t="n">
         <v>99.45666666666673</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8648,22 +9245,21 @@
         <v>400</v>
       </c>
       <c r="G232" t="n">
+        <v>99.30000000000003</v>
+      </c>
+      <c r="H232" t="n">
         <v>99.3783333333334</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8687,22 +9283,401 @@
         <v>1500</v>
       </c>
       <c r="G233" t="n">
+        <v>99.43333333333337</v>
+      </c>
+      <c r="H233" t="n">
         <v>99.36166666666674</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C234" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D234" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E234" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F234" t="n">
+        <v>400</v>
+      </c>
+      <c r="G234" t="n">
+        <v>99.3266666666667</v>
+      </c>
+      <c r="H234" t="n">
+        <v>99.28500000000007</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C235" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F235" t="n">
+        <v>400</v>
+      </c>
+      <c r="G235" t="n">
+        <v>99.27333333333337</v>
+      </c>
+      <c r="H235" t="n">
+        <v>99.22166666666674</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C236" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D236" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E236" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F236" t="n">
+        <v>800</v>
+      </c>
+      <c r="G236" t="n">
+        <v>99.3666666666667</v>
+      </c>
+      <c r="H236" t="n">
+        <v>99.16000000000007</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C237" t="n">
+        <v>102</v>
+      </c>
+      <c r="D237" t="n">
+        <v>102</v>
+      </c>
+      <c r="E237" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F237" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G237" t="n">
+        <v>99.61333333333337</v>
+      </c>
+      <c r="H237" t="n">
+        <v>99.1433333333334</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>101</v>
+      </c>
+      <c r="C238" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D238" t="n">
+        <v>103</v>
+      </c>
+      <c r="E238" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F238" t="n">
+        <v>4700</v>
+      </c>
+      <c r="G238" t="n">
+        <v>99.58000000000003</v>
+      </c>
+      <c r="H238" t="n">
+        <v>99.05833333333339</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>102</v>
+      </c>
+      <c r="C239" t="n">
+        <v>99</v>
+      </c>
+      <c r="D239" t="n">
+        <v>103</v>
+      </c>
+      <c r="E239" t="n">
+        <v>99</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G239" t="n">
+        <v>99.55333333333336</v>
+      </c>
+      <c r="H239" t="n">
+        <v>98.99166666666673</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>102</v>
+      </c>
+      <c r="C240" t="n">
+        <v>102</v>
+      </c>
+      <c r="D240" t="n">
+        <v>102</v>
+      </c>
+      <c r="E240" t="n">
+        <v>102</v>
+      </c>
+      <c r="F240" t="n">
+        <v>5</v>
+      </c>
+      <c r="G240" t="n">
+        <v>99.72666666666669</v>
+      </c>
+      <c r="H240" t="n">
+        <v>98.99166666666673</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>102</v>
+      </c>
+      <c r="C241" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D241" t="n">
+        <v>104</v>
+      </c>
+      <c r="E241" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G241" t="n">
+        <v>99.65333333333336</v>
+      </c>
+      <c r="H241" t="n">
+        <v>98.95666666666672</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>103</v>
+      </c>
+      <c r="C242" t="n">
+        <v>103</v>
+      </c>
+      <c r="D242" t="n">
+        <v>103</v>
+      </c>
+      <c r="E242" t="n">
+        <v>103</v>
+      </c>
+      <c r="F242" t="n">
+        <v>18.257</v>
+      </c>
+      <c r="G242" t="n">
+        <v>99.8866666666667</v>
+      </c>
+      <c r="H242" t="n">
+        <v>99.01000000000005</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>101</v>
+      </c>
+      <c r="C243" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D243" t="n">
+        <v>104</v>
+      </c>
+      <c r="E243" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G243" t="n">
+        <v>99.93333333333337</v>
+      </c>
+      <c r="H243" t="n">
+        <v>99.00833333333338</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N301"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>19256.78215639001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>21346.68215639001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>21331.68215639001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>22385.68215639001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>29036.55025639001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>29036.55025639001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>30978.06825639001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>38564.54555639001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>38553.51940826001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>49666.38850826002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>29703.83971122002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>34102.08741122002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>28469.76641122002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>30778.57198370002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4213,15 @@
         <v>12290.82918370002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>18901.34668370002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4477,15 @@
         <v>16523.34668370002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4543,15 @@
         <v>51870.47398370002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4576,15 @@
         <v>51870.47398370002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4708,15 @@
         <v>48016.58648370003</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,15 @@
         <v>73521.65068370002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,15 @@
         <v>111190.5969837</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4840,15 @@
         <v>111190.5969837</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4873,15 @@
         <v>115528.7335837</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +4906,15 @@
         <v>115525.7335837</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +4939,15 @@
         <v>110525.7335837</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +4972,15 @@
         <v>110525.7335837</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5005,15 @@
         <v>110525.7335837</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5104,15 @@
         <v>74017.25518370004</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5170,15 @@
         <v>75869.37878370004</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +5203,15 @@
         <v>72367.62028370005</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5269,15 @@
         <v>49397.29178370004</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,15 @@
         <v>49397.29178370004</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5335,15 @@
         <v>49397.29178370004</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5368,15 @@
         <v>23124.50568370004</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5856,18 +5401,15 @@
         <v>14051.00528370004</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5892,18 +5434,15 @@
         <v>14061.00528370004</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5928,18 +5467,15 @@
         <v>14061.00528370004</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6000,18 +5533,15 @@
         <v>14071.00528370004</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +5566,15 @@
         <v>14071.00528370004</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8628,18 +7942,15 @@
         <v>7909.700103120039</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9096,22 +8371,15 @@
         <v>-33240.24819687996</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="n">
-        <v>99</v>
-      </c>
-      <c r="K242" t="n">
-        <v>99</v>
-      </c>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9138,2406 +8406,2157 @@
       <c r="H243" t="n">
         <v>1</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="n">
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C244" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D244" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E244" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F244" t="n">
+        <v>435.3839</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-32804.86429687996</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>100</v>
+      </c>
+      <c r="C245" t="n">
+        <v>100</v>
+      </c>
+      <c r="D245" t="n">
+        <v>100</v>
+      </c>
+      <c r="E245" t="n">
+        <v>100</v>
+      </c>
+      <c r="F245" t="n">
+        <v>5</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-32799.86429687996</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C246" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D246" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E246" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F246" t="n">
+        <v>6</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-32805.86429687996</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>100</v>
+      </c>
+      <c r="C247" t="n">
+        <v>100</v>
+      </c>
+      <c r="D247" t="n">
+        <v>100</v>
+      </c>
+      <c r="E247" t="n">
+        <v>100</v>
+      </c>
+      <c r="F247" t="n">
+        <v>5</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-32800.86429687996</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C248" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>290.2381</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-33091.10239687996</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C249" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D249" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E249" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F249" t="n">
+        <v>28.6374</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-33062.46499687996</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C250" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D250" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E250" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F250" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-37062.46499687996</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C251" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D251" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E251" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F251" t="n">
+        <v>12858.5955</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-37062.46499687996</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C252" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="D252" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E252" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F252" t="n">
+        <v>24108.6572</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-61171.12219687997</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C253" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D253" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E253" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1635.7727</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-59535.34949687996</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C254" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="D254" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E254" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F254" t="n">
+        <v>13712.7475</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-73248.09699687996</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>98</v>
+      </c>
+      <c r="C255" t="n">
+        <v>98</v>
+      </c>
+      <c r="D255" t="n">
+        <v>98</v>
+      </c>
+      <c r="E255" t="n">
+        <v>98</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3316</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-76564.09699687996</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C256" t="n">
+        <v>95</v>
+      </c>
+      <c r="D256" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="E256" t="n">
+        <v>95</v>
+      </c>
+      <c r="F256" t="n">
+        <v>43012.4138</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-119576.51079688</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>96</v>
+      </c>
+      <c r="C257" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D257" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E257" t="n">
+        <v>96</v>
+      </c>
+      <c r="F257" t="n">
+        <v>39.3755</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-119537.13529688</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>96</v>
+      </c>
+      <c r="C258" t="n">
+        <v>96</v>
+      </c>
+      <c r="D258" t="n">
+        <v>96</v>
+      </c>
+      <c r="E258" t="n">
+        <v>96</v>
+      </c>
+      <c r="F258" t="n">
+        <v>20</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-119557.13529688</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C259" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D259" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F259" t="n">
+        <v>19.277</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-119537.85829688</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C260" t="n">
         <v>99</v>
       </c>
-      <c r="K243" t="n">
+      <c r="D260" t="n">
         <v>99</v>
       </c>
-      <c r="L243" t="inlineStr">
+      <c r="E260" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F260" t="n">
+        <v>40</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-119497.85829688</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C261" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D261" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E261" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F261" t="n">
+        <v>10</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-119507.85829688</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3815.5975</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-119507.85829688</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C263" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E263" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>7122.3126</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-112385.54569688</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C264" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D264" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E264" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2171.3583</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-112385.54569688</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C265" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D265" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E265" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F265" t="n">
+        <v>5.9928</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-112379.55289688</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C266" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D266" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E266" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F266" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-112379.55289688</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C267" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D267" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E267" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-112379.55289688</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C268" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="D268" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="E268" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-110779.55289688</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="C269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="D269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="E269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="F269" t="n">
+        <v>6384.5294</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-110779.55289688</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2</v>
+      </c>
+      <c r="I269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C270" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D270" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E270" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F270" t="n">
+        <v>6</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-110773.55289688</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2</v>
+      </c>
+      <c r="I270" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J270" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C244" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D244" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E244" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F244" t="n">
-        <v>435.3839</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-32804.86429687996</v>
-      </c>
-      <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="n">
-        <v>99</v>
-      </c>
-      <c r="K244" t="n">
-        <v>99</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C271" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D271" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E271" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-110773.55289688</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
+      <c r="I271" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J271" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F272" t="n">
+        <v>400</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-110773.55289688</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2</v>
+      </c>
+      <c r="I272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C273" t="n">
         <v>100</v>
       </c>
-      <c r="C245" t="n">
+      <c r="D273" t="n">
         <v>100</v>
       </c>
-      <c r="D245" t="n">
-        <v>100</v>
-      </c>
-      <c r="E245" t="n">
-        <v>100</v>
-      </c>
-      <c r="F245" t="n">
-        <v>5</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-32799.86429687996</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C246" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D246" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E246" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F246" t="n">
-        <v>6</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-32805.86429687996</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>100</v>
-      </c>
-      <c r="C247" t="n">
-        <v>100</v>
-      </c>
-      <c r="D247" t="n">
-        <v>100</v>
-      </c>
-      <c r="E247" t="n">
-        <v>100</v>
-      </c>
-      <c r="F247" t="n">
-        <v>5</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-32800.86429687996</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K247" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="C248" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="D248" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="E248" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="F248" t="n">
-        <v>290.2381</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-33091.10239687996</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C249" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D249" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E249" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F249" t="n">
-        <v>28.6374</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-33062.46499687996</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C250" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D250" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E250" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F250" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-37062.46499687996</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C251" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D251" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E251" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F251" t="n">
-        <v>12858.5955</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-37062.46499687996</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C252" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D252" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E252" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F252" t="n">
-        <v>24108.6572</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-61171.12219687997</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
+      <c r="E273" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C253" t="n">
+      <c r="F273" t="n">
+        <v>23200</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2</v>
+      </c>
+      <c r="I273" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="D253" t="n">
+      <c r="J273" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="E253" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1635.7727</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-59535.34949687996</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="C254" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D254" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="E254" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F254" t="n">
-        <v>13712.7475</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-73248.09699687996</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>98</v>
-      </c>
-      <c r="C255" t="n">
-        <v>98</v>
-      </c>
-      <c r="D255" t="n">
-        <v>98</v>
-      </c>
-      <c r="E255" t="n">
-        <v>98</v>
-      </c>
-      <c r="F255" t="n">
-        <v>3316</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-76564.09699687996</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C256" t="n">
-        <v>95</v>
-      </c>
-      <c r="D256" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="E256" t="n">
-        <v>95</v>
-      </c>
-      <c r="F256" t="n">
-        <v>43012.4138</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-119576.51079688</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>96</v>
-      </c>
-      <c r="C257" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D257" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E257" t="n">
-        <v>96</v>
-      </c>
-      <c r="F257" t="n">
-        <v>39.3755</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-119537.13529688</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>96</v>
-      </c>
-      <c r="C258" t="n">
-        <v>96</v>
-      </c>
-      <c r="D258" t="n">
-        <v>96</v>
-      </c>
-      <c r="E258" t="n">
-        <v>96</v>
-      </c>
-      <c r="F258" t="n">
-        <v>20</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-119557.13529688</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="C259" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="D259" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="E259" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="F259" t="n">
-        <v>19.277</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-119537.85829688</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>96</v>
-      </c>
-      <c r="K259" t="n">
-        <v>96</v>
-      </c>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="C260" t="n">
-        <v>99</v>
-      </c>
-      <c r="D260" t="n">
-        <v>99</v>
-      </c>
-      <c r="E260" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="F260" t="n">
-        <v>40</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-119497.85829688</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="K260" t="n">
-        <v>96</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="C261" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D261" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="E261" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="F261" t="n">
-        <v>10</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-119507.85829688</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>96</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="C262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="E262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="F262" t="n">
-        <v>3815.5975</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-119507.85829688</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="K262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C263" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D263" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E263" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F263" t="n">
-        <v>7122.3126</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-112385.54569688</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="K263" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="E264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F264" t="n">
-        <v>2171.3583</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-112385.54569688</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="K264" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C265" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D265" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E265" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F265" t="n">
-        <v>5.9928</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-112379.55289688</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="K265" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C266" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D266" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E266" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F266" t="n">
-        <v>6400</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-112379.55289688</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="K266" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F267" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-112379.55289688</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="K267" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C268" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D268" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="E268" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F268" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-110779.55289688</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="K268" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="K273" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="C269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="E269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="F269" t="n">
-        <v>6384.5294</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-110779.55289688</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="K269" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>100</v>
+      </c>
+      <c r="C274" t="n">
+        <v>100</v>
+      </c>
+      <c r="D274" t="n">
+        <v>100</v>
+      </c>
+      <c r="E274" t="n">
+        <v>100</v>
+      </c>
+      <c r="F274" t="n">
+        <v>10</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2</v>
+      </c>
+      <c r="I274" t="n">
+        <v>100</v>
+      </c>
+      <c r="J274" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>100</v>
+      </c>
+      <c r="C275" t="n">
+        <v>100</v>
+      </c>
+      <c r="D275" t="n">
+        <v>100</v>
+      </c>
+      <c r="E275" t="n">
+        <v>100</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1007.1974</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2</v>
+      </c>
+      <c r="I275" t="n">
+        <v>100</v>
+      </c>
+      <c r="J275" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C270" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D270" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E270" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F270" t="n">
-        <v>6</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-110773.55289688</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="K270" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>100</v>
+      </c>
+      <c r="C276" t="n">
+        <v>100</v>
+      </c>
+      <c r="D276" t="n">
+        <v>100</v>
+      </c>
+      <c r="E276" t="n">
+        <v>100</v>
+      </c>
+      <c r="F276" t="n">
+        <v>177.562</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C271" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D271" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E271" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F271" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-110773.55289688</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L271" t="inlineStr">
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C277" t="n">
+        <v>100</v>
+      </c>
+      <c r="D277" t="n">
+        <v>100</v>
+      </c>
+      <c r="E277" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3488.562</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H277" t="n">
+        <v>2</v>
+      </c>
+      <c r="I277" t="n">
+        <v>100</v>
+      </c>
+      <c r="J277" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C272" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D272" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E272" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F272" t="n">
-        <v>400</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-110773.55289688</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L272" t="inlineStr">
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C278" t="n">
+        <v>100</v>
+      </c>
+      <c r="D278" t="n">
+        <v>100</v>
+      </c>
+      <c r="E278" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F278" t="n">
+        <v>112</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C273" t="n">
-        <v>100</v>
-      </c>
-      <c r="D273" t="n">
-        <v>100</v>
-      </c>
-      <c r="E273" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F273" t="n">
-        <v>23200</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C279" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D279" t="n">
+        <v>98</v>
+      </c>
+      <c r="E279" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F279" t="n">
+        <v>20112</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-107685.55289688</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2</v>
+      </c>
+      <c r="I279" t="n">
         <v>100</v>
       </c>
-      <c r="C274" t="n">
-        <v>100</v>
-      </c>
-      <c r="D274" t="n">
-        <v>100</v>
-      </c>
-      <c r="E274" t="n">
-        <v>100</v>
-      </c>
-      <c r="F274" t="n">
-        <v>10</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L274" t="inlineStr">
+      <c r="J279" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>100</v>
-      </c>
-      <c r="C275" t="n">
-        <v>100</v>
-      </c>
-      <c r="D275" t="n">
-        <v>100</v>
-      </c>
-      <c r="E275" t="n">
-        <v>100</v>
-      </c>
-      <c r="F275" t="n">
-        <v>1007.1974</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C280" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D280" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E280" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1241.2213</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-106444.33159688</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>100</v>
-      </c>
-      <c r="C276" t="n">
-        <v>100</v>
-      </c>
-      <c r="D276" t="n">
-        <v>100</v>
-      </c>
-      <c r="E276" t="n">
-        <v>100</v>
-      </c>
-      <c r="F276" t="n">
-        <v>177.562</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C281" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D281" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E281" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F281" t="n">
+        <v>7248.1214</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-99196.21019687995</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C277" t="n">
-        <v>100</v>
-      </c>
-      <c r="D277" t="n">
-        <v>100</v>
-      </c>
-      <c r="E277" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F277" t="n">
-        <v>3488.562</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C282" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D282" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E282" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F282" t="n">
+        <v>6885.7153</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-99196.21019687995</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="C278" t="n">
-        <v>100</v>
-      </c>
-      <c r="D278" t="n">
-        <v>100</v>
-      </c>
-      <c r="E278" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F278" t="n">
-        <v>112</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L278" t="inlineStr">
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C283" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D283" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E283" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F283" t="n">
+        <v>15731.7514</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-99196.21019687995</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C279" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D279" t="n">
-        <v>98</v>
-      </c>
-      <c r="E279" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F279" t="n">
-        <v>20112</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-107685.55289688</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>100</v>
+      </c>
+      <c r="C284" t="n">
+        <v>100</v>
+      </c>
+      <c r="D284" t="n">
+        <v>100</v>
+      </c>
+      <c r="E284" t="n">
+        <v>100</v>
+      </c>
+      <c r="F284" t="n">
+        <v>20959.3197</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-78236.89049687996</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C280" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D280" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E280" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F280" t="n">
-        <v>1241.2213</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-106444.33159688</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L280" t="inlineStr">
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D285" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E285" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>498.8956</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-78735.78609687997</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C281" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="D281" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E281" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F281" t="n">
-        <v>7248.1214</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-99196.21019687995</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C286" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="D286" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="E286" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1166.2398</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-79902.02589687996</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C282" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="D282" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E282" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F282" t="n">
-        <v>6885.7153</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-99196.21019687995</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C287" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="D287" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E287" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F287" t="n">
+        <v>259.3337</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-80161.35959687996</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="C283" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="D283" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E283" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="F283" t="n">
-        <v>15731.7514</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-99196.21019687995</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L283" t="inlineStr">
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>100</v>
+      </c>
+      <c r="C288" t="n">
+        <v>100</v>
+      </c>
+      <c r="D288" t="n">
+        <v>100</v>
+      </c>
+      <c r="E288" t="n">
+        <v>100</v>
+      </c>
+      <c r="F288" t="n">
+        <v>5</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-80156.35959687996</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
         <v>100</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C289" t="n">
+        <v>101</v>
+      </c>
+      <c r="D289" t="n">
+        <v>101</v>
+      </c>
+      <c r="E289" t="n">
         <v>100</v>
       </c>
-      <c r="D284" t="n">
-        <v>100</v>
-      </c>
-      <c r="E284" t="n">
-        <v>100</v>
-      </c>
-      <c r="F284" t="n">
-        <v>20959.3197</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-78236.89049687996</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="F289" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-70156.35959687996</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="C285" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="D285" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="E285" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="F285" t="n">
-        <v>498.8956</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-78735.78609687997</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L285" t="inlineStr">
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C290" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D290" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E290" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F290" t="n">
+        <v>400</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-70556.35959687996</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="C286" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="D286" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="E286" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1166.2398</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-79902.02589687996</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L286" t="inlineStr">
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>100</v>
+      </c>
+      <c r="C291" t="n">
+        <v>102</v>
+      </c>
+      <c r="D291" t="n">
+        <v>102</v>
+      </c>
+      <c r="E291" t="n">
+        <v>100</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-69056.35959687996</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2</v>
+      </c>
+      <c r="I291" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="J291" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="C287" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="D287" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="E287" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F287" t="n">
-        <v>259.3337</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-80161.35959687996</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L287" t="inlineStr">
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C292" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D292" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E292" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F292" t="n">
+        <v>400</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-69456.35959687996</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2</v>
+      </c>
+      <c r="I292" t="n">
+        <v>102</v>
+      </c>
+      <c r="J292" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>100</v>
-      </c>
-      <c r="C288" t="n">
-        <v>100</v>
-      </c>
-      <c r="D288" t="n">
-        <v>100</v>
-      </c>
-      <c r="E288" t="n">
-        <v>100</v>
-      </c>
-      <c r="F288" t="n">
-        <v>5</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-80156.35959687996</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C293" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D293" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E293" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F293" t="n">
+        <v>400</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-69056.35959687996</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2</v>
+      </c>
+      <c r="I293" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J293" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>100</v>
-      </c>
-      <c r="C289" t="n">
-        <v>101</v>
-      </c>
-      <c r="D289" t="n">
-        <v>101</v>
-      </c>
-      <c r="E289" t="n">
-        <v>100</v>
-      </c>
-      <c r="F289" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-70156.35959687996</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L289" t="inlineStr">
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C294" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D294" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E294" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F294" t="n">
+        <v>800</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-68256.35959687996</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2</v>
+      </c>
+      <c r="I294" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="J294" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C290" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D290" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E290" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F290" t="n">
-        <v>400</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-70556.35959687996</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L290" t="inlineStr">
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C295" t="n">
+        <v>102</v>
+      </c>
+      <c r="D295" t="n">
+        <v>102</v>
+      </c>
+      <c r="E295" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F295" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-64456.35959687996</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2</v>
+      </c>
+      <c r="I295" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="J295" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>100</v>
-      </c>
-      <c r="C291" t="n">
-        <v>102</v>
-      </c>
-      <c r="D291" t="n">
-        <v>102</v>
-      </c>
-      <c r="E291" t="n">
-        <v>100</v>
-      </c>
-      <c r="F291" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-69056.35959687996</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L291" t="inlineStr">
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>101</v>
+      </c>
+      <c r="C296" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D296" t="n">
+        <v>103</v>
+      </c>
+      <c r="E296" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F296" t="n">
+        <v>4700</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-69156.35959687996</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="C292" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="D292" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="E292" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F292" t="n">
-        <v>400</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-69456.35959687996</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L292" t="inlineStr">
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>102</v>
+      </c>
+      <c r="C297" t="n">
+        <v>99</v>
+      </c>
+      <c r="D297" t="n">
+        <v>103</v>
+      </c>
+      <c r="E297" t="n">
+        <v>99</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-67856.35959687996</v>
+      </c>
+      <c r="H297" t="n">
+        <v>2</v>
+      </c>
+      <c r="I297" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="J297" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="C293" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="D293" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="E293" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="F293" t="n">
-        <v>400</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-69056.35959687996</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L293" t="inlineStr">
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>102</v>
+      </c>
+      <c r="C298" t="n">
+        <v>102</v>
+      </c>
+      <c r="D298" t="n">
+        <v>102</v>
+      </c>
+      <c r="E298" t="n">
+        <v>102</v>
+      </c>
+      <c r="F298" t="n">
+        <v>5</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-67851.35959687996</v>
+      </c>
+      <c r="H298" t="n">
+        <v>2</v>
+      </c>
+      <c r="I298" t="n">
+        <v>99</v>
+      </c>
+      <c r="J298" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>102</v>
+      </c>
+      <c r="C299" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D299" t="n">
+        <v>104</v>
+      </c>
+      <c r="E299" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-69151.35959687996</v>
+      </c>
+      <c r="H299" t="n">
+        <v>2</v>
+      </c>
+      <c r="I299" t="n">
+        <v>102</v>
+      </c>
+      <c r="J299" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="C294" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D294" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E294" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="F294" t="n">
-        <v>800</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-68256.35959687996</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L294" t="inlineStr">
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="C295" t="n">
-        <v>102</v>
-      </c>
-      <c r="D295" t="n">
-        <v>102</v>
-      </c>
-      <c r="E295" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="F295" t="n">
-        <v>3800</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-64456.35959687996</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L295" t="inlineStr">
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>103</v>
+      </c>
+      <c r="C300" t="n">
+        <v>103</v>
+      </c>
+      <c r="D300" t="n">
+        <v>103</v>
+      </c>
+      <c r="E300" t="n">
+        <v>103</v>
+      </c>
+      <c r="F300" t="n">
+        <v>18.257</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-69133.10259687997</v>
+      </c>
+      <c r="H300" t="n">
+        <v>2</v>
+      </c>
+      <c r="I300" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="J300" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>101</v>
-      </c>
-      <c r="C296" t="n">
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>101</v>
+      </c>
+      <c r="C301" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="D296" t="n">
-        <v>103</v>
-      </c>
-      <c r="E296" t="n">
+      <c r="D301" t="n">
+        <v>104</v>
+      </c>
+      <c r="E301" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="F296" t="n">
-        <v>4700</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-69156.35959687996</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L296" t="inlineStr">
+      <c r="F301" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-71633.10259687997</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2</v>
+      </c>
+      <c r="I301" t="n">
+        <v>103</v>
+      </c>
+      <c r="J301" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>102</v>
-      </c>
-      <c r="C297" t="n">
-        <v>99</v>
-      </c>
-      <c r="D297" t="n">
-        <v>103</v>
-      </c>
-      <c r="E297" t="n">
-        <v>99</v>
-      </c>
-      <c r="F297" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-67856.35959687996</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>102</v>
-      </c>
-      <c r="C298" t="n">
-        <v>102</v>
-      </c>
-      <c r="D298" t="n">
-        <v>102</v>
-      </c>
-      <c r="E298" t="n">
-        <v>102</v>
-      </c>
-      <c r="F298" t="n">
-        <v>5</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-67851.35959687996</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>102</v>
-      </c>
-      <c r="C299" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D299" t="n">
-        <v>104</v>
-      </c>
-      <c r="E299" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F299" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-69151.35959687996</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>103</v>
-      </c>
-      <c r="C300" t="n">
-        <v>103</v>
-      </c>
-      <c r="D300" t="n">
-        <v>103</v>
-      </c>
-      <c r="E300" t="n">
-        <v>103</v>
-      </c>
-      <c r="F300" t="n">
-        <v>18.257</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-69133.10259687997</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>101</v>
-      </c>
-      <c r="C301" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D301" t="n">
-        <v>104</v>
-      </c>
-      <c r="E301" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F301" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-71633.10259687997</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>19256.78215639001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>21346.68215639001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>21331.68215639001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>22385.68215639001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>29036.55025639001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>29036.55025639001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>30978.06825639001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>38564.54555639001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>38553.51940826001</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>49666.38850826002</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>29703.83971122002</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>34102.08741122002</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>28469.76641122002</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>29328.89568370002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>29328.89568370002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>13667.19228370002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>19319.19228370002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>29288.89458370002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>29288.89458370002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>30778.57198370002</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>13250.76778370002</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>13450.76778370002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>26341.56808370002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>25941.56808370002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>28741.56808370002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>27797.68818370002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>27797.68818370002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>28597.68818370002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>28597.68818370002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>29654.30238370002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>29654.30238370002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>29435.55238370002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>18333.75568370002</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>23602.77498370002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>23602.77498370002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>21378.09878370001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>11837.12388370002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14758.41098370002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>14758.41098370002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>14758.41098370002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>14913.41098370002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>10380.65588370002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4602.829183700016</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>12290.82918370002</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>518.4823837000167</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>18901.34668370002</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>16523.34668370002</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>51870.47398370002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>51870.47398370002</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>51870.47398370002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>48016.58648370003</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>73521.65068370002</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>111190.5969837</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>111190.5969837</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>115528.7335837</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>115525.7335837</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>110525.7335837</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>110525.7335837</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>110525.7335837</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>74017.25518370004</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>75869.37878370004</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>72367.62028370005</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>49397.29178370004</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>49397.29178370004</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>49397.29178370004</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>23124.50568370004</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>14051.00528370004</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>14061.00528370004</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>14061.00528370004</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>14071.00528370004</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>14071.00528370004</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>7909.700103120039</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-33240.24819687996</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-32804.86429687996</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-32805.86429687996</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-33062.46499687996</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9031,10 +9031,14 @@
         <v>-119507.85829688</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="J262" t="n">
+        <v>96.09999999999999</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
@@ -9064,11 +9068,19 @@
         <v>-112385.54569688</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="J263" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9109,19 @@
         <v>-112385.54569688</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="J264" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,10 +9150,14 @@
         <v>-112379.55289688</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="J265" t="n">
+        <v>96.2</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
@@ -9163,11 +9187,19 @@
         <v>-112379.55289688</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="J266" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9228,19 @@
         <v>-112379.55289688</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="J267" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9269,19 @@
         <v>-110779.55289688</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="J268" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,15 +9310,19 @@
         <v>-110779.55289688</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>98.7</v>
       </c>
       <c r="J269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+        <v>96.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,17 +9351,17 @@
         <v>-110773.55289688</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>98.7</v>
       </c>
       <c r="J270" t="n">
-        <v>98.7</v>
+        <v>96.2</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -9340,17 +9392,17 @@
         <v>-110773.55289688</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="J271" t="n">
-        <v>98.7</v>
+        <v>96.2</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9381,15 +9433,17 @@
         <v>-110773.55289688</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>99.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="K272" t="inlineStr"/>
+        <v>96.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9418,17 +9472,15 @@
         <v>-87573.55289687996</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>99.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9459,13 +9511,11 @@
         <v>-87573.55289687996</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9500,13 +9550,11 @@
         <v>-87573.55289687996</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9545,7 +9593,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9580,13 +9628,11 @@
         <v>-87573.55289687996</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9625,7 +9671,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9660,13 +9706,11 @@
         <v>-107685.55289688</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9705,7 +9749,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9744,7 +9788,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9783,7 +9827,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9822,7 +9866,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9861,7 +9905,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -9900,7 +9944,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -9939,7 +9983,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -9978,7 +10022,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10017,7 +10061,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10056,7 +10100,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10095,7 +10139,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10130,13 +10174,11 @@
         <v>-69056.35959687996</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>98.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10171,13 +10213,11 @@
         <v>-69456.35959687996</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10212,13 +10252,11 @@
         <v>-69056.35959687996</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>98.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10253,13 +10291,11 @@
         <v>-68256.35959687996</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>99.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10294,13 +10330,11 @@
         <v>-64456.35959687996</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>99.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10339,7 +10373,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10374,13 +10408,11 @@
         <v>-67856.35959687996</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>98.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10415,13 +10447,11 @@
         <v>-67851.35959687996</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10456,13 +10486,11 @@
         <v>-69151.35959687996</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10497,13 +10525,11 @@
         <v>-69133.10259687997</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>98.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10538,13 +10564,11 @@
         <v>-71633.10259687997</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10557,6 +10581,6 @@
       <c r="M301" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>16690.14225639001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>34102.08741122002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>28469.76641122002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>29328.89568370002</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>29328.89568370002</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>13667.19228370002</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>19319.19228370002</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>29288.89458370002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>29288.89458370002</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>30778.57198370002</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>13250.76778370002</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>13450.76778370002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>10719.99698370002</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>26341.56808370002</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>25941.56808370002</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>28741.56808370002</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>27797.68818370002</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>27797.68818370002</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>28597.68818370002</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>28597.68818370002</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>29654.30238370002</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>29654.30238370002</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>29435.55238370002</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>18333.75568370002</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>23602.77498370002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>23602.77498370002</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>21378.09878370001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>19344.41208370002</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>11837.12388370002</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14758.41098370002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>14758.41098370002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>14758.41098370002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>14913.41098370002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4609.860983700017</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>10380.65588370002</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4602.829183700016</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>518.4823837000167</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>51870.47398370002</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -8833,11 +8833,17 @@
         <v>-119576.51079688</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>98</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +8872,17 @@
         <v>-119537.13529688</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>95</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8911,17 @@
         <v>-119557.13529688</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>98.59999999999999</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +8950,17 @@
         <v>-119537.85829688</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>96</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +8989,17 @@
         <v>-119497.85829688</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>98.8</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9028,17 @@
         <v>-119507.85829688</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>99</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9036,10 +9072,12 @@
       <c r="I262" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="J262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9073,12 +9111,10 @@
       <c r="I263" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="J263" t="n">
-        <v>96.09999999999999</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
@@ -9114,12 +9150,10 @@
       <c r="I264" t="n">
         <v>96.2</v>
       </c>
-      <c r="J264" t="n">
-        <v>96.09999999999999</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9155,10 +9189,12 @@
       <c r="I265" t="n">
         <v>96.2</v>
       </c>
-      <c r="J265" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9192,12 +9228,10 @@
       <c r="I266" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="J266" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L266" t="n">
@@ -9228,17 +9262,13 @@
         <v>-112379.55289688</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="J267" t="n">
-        <v>96.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9269,17 +9299,13 @@
         <v>-110779.55289688</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="J268" t="n">
-        <v>96.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L268" t="n">
@@ -9310,14 +9336,10 @@
         <v>-110779.55289688</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="J269" t="n">
-        <v>96.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9351,14 +9373,10 @@
         <v>-110773.55289688</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="J270" t="n">
-        <v>96.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9392,14 +9410,10 @@
         <v>-110773.55289688</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="J271" t="n">
-        <v>96.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9436,9 +9450,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9475,9 +9487,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,9 +9524,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9553,9 +9561,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9592,9 +9598,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,9 +9635,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9670,9 +9672,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9709,9 +9709,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9748,9 +9746,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9787,9 +9783,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9826,9 +9820,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9865,9 +9857,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9904,9 +9894,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9943,9 +9931,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9982,9 +9968,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10021,9 +10005,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10060,9 +10042,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10099,9 +10079,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10138,9 +10116,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10177,9 +10153,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10216,9 +10190,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10255,9 +10227,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10294,9 +10264,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10333,9 +10301,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10372,9 +10338,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10411,9 +10375,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10450,9 +10412,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10489,9 +10449,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10528,9 +10486,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10567,9 +10523,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>96.2</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10581,6 +10535,6 @@
       <c r="M301" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -781,7 +781,7 @@
         <v>16690.14225639001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>15130.14225639001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>17682.14225639001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>29076.58411122002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>13667.19228370002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>19319.19228370002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>29288.89458370002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>29288.89458370002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>28888.89458370002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>30778.57198370002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>30218.51778370002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>29435.55238370002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -8833,888 +8833,810 @@
         <v>-119576.51079688</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>96</v>
+      </c>
+      <c r="C257" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D257" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E257" t="n">
+        <v>96</v>
+      </c>
+      <c r="F257" t="n">
+        <v>39.3755</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-119537.13529688</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>96</v>
+      </c>
+      <c r="C258" t="n">
+        <v>96</v>
+      </c>
+      <c r="D258" t="n">
+        <v>96</v>
+      </c>
+      <c r="E258" t="n">
+        <v>96</v>
+      </c>
+      <c r="F258" t="n">
+        <v>20</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-119557.13529688</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C259" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D259" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F259" t="n">
+        <v>19.277</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-119537.85829688</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C260" t="n">
+        <v>99</v>
+      </c>
+      <c r="D260" t="n">
+        <v>99</v>
+      </c>
+      <c r="E260" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F260" t="n">
+        <v>40</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-119497.85829688</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C261" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D261" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E261" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F261" t="n">
+        <v>10</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-119507.85829688</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="C262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="D262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="E262" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3815.5975</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-119507.85829688</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="C263" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="E263" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>7122.3126</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-112385.54569688</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="C264" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D264" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="E264" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2171.3583</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-112385.54569688</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C265" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D265" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E265" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F265" t="n">
+        <v>5.9928</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-112379.55289688</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="J265" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C266" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D266" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E266" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F266" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-112379.55289688</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="J266" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C267" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="D267" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="E267" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-112379.55289688</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C268" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="D268" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="E268" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-110779.55289688</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="C269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="D269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="E269" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="F269" t="n">
+        <v>6384.5294</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-110779.55289688</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C270" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D270" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E270" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F270" t="n">
+        <v>6</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-110773.55289688</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J270" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C271" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D271" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E271" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-110773.55289688</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E272" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F272" t="n">
+        <v>400</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-110773.55289688</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C273" t="n">
+        <v>100</v>
+      </c>
+      <c r="D273" t="n">
+        <v>100</v>
+      </c>
+      <c r="E273" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F273" t="n">
+        <v>23200</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>100</v>
+      </c>
+      <c r="C274" t="n">
+        <v>100</v>
+      </c>
+      <c r="D274" t="n">
+        <v>100</v>
+      </c>
+      <c r="E274" t="n">
+        <v>100</v>
+      </c>
+      <c r="F274" t="n">
+        <v>10</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>100</v>
+      </c>
+      <c r="C275" t="n">
+        <v>100</v>
+      </c>
+      <c r="D275" t="n">
+        <v>100</v>
+      </c>
+      <c r="E275" t="n">
+        <v>100</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1007.1974</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>100</v>
+      </c>
+      <c r="C276" t="n">
+        <v>100</v>
+      </c>
+      <c r="D276" t="n">
+        <v>100</v>
+      </c>
+      <c r="E276" t="n">
+        <v>100</v>
+      </c>
+      <c r="F276" t="n">
+        <v>177.562</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C277" t="n">
+        <v>100</v>
+      </c>
+      <c r="D277" t="n">
+        <v>100</v>
+      </c>
+      <c r="E277" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3488.562</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="C278" t="n">
+        <v>100</v>
+      </c>
+      <c r="D278" t="n">
+        <v>100</v>
+      </c>
+      <c r="E278" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="F278" t="n">
+        <v>112</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-87573.55289687996</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="C279" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="D279" t="n">
         <v>98</v>
       </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
+      <c r="E279" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F279" t="n">
+        <v>20112</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-107685.55289688</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>100</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>96</v>
-      </c>
-      <c r="C257" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D257" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E257" t="n">
-        <v>96</v>
-      </c>
-      <c r="F257" t="n">
-        <v>39.3755</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-119537.13529688</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>95</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>96</v>
-      </c>
-      <c r="C258" t="n">
-        <v>96</v>
-      </c>
-      <c r="D258" t="n">
-        <v>96</v>
-      </c>
-      <c r="E258" t="n">
-        <v>96</v>
-      </c>
-      <c r="F258" t="n">
-        <v>20</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-119557.13529688</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="C259" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="D259" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="E259" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="F259" t="n">
-        <v>19.277</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-119537.85829688</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>96</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="C260" t="n">
-        <v>99</v>
-      </c>
-      <c r="D260" t="n">
-        <v>99</v>
-      </c>
-      <c r="E260" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="F260" t="n">
-        <v>40</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-119497.85829688</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>98.8</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="C261" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D261" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="E261" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="F261" t="n">
-        <v>10</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-119507.85829688</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>99</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="C262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="D262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="E262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="F262" t="n">
-        <v>3815.5975</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-119507.85829688</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C263" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D263" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E263" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F263" t="n">
-        <v>7122.3126</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-112385.54569688</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="C264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="D264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="E264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="F264" t="n">
-        <v>2171.3583</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-112385.54569688</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C265" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D265" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E265" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F265" t="n">
-        <v>5.9928</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-112379.55289688</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C266" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D266" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E266" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F266" t="n">
-        <v>6400</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-112379.55289688</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="D267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="E267" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F267" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-112379.55289688</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="C268" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D268" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="E268" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="F268" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-110779.55289688</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="C269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="D269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="E269" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="F269" t="n">
-        <v>6384.5294</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-110779.55289688</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C270" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D270" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E270" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F270" t="n">
-        <v>6</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-110773.55289688</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C271" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D271" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E271" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F271" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-110773.55289688</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C272" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D272" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E272" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F272" t="n">
-        <v>400</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-110773.55289688</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C273" t="n">
-        <v>100</v>
-      </c>
-      <c r="D273" t="n">
-        <v>100</v>
-      </c>
-      <c r="E273" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F273" t="n">
-        <v>23200</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>100</v>
-      </c>
-      <c r="C274" t="n">
-        <v>100</v>
-      </c>
-      <c r="D274" t="n">
-        <v>100</v>
-      </c>
-      <c r="E274" t="n">
-        <v>100</v>
-      </c>
-      <c r="F274" t="n">
-        <v>10</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>100</v>
-      </c>
-      <c r="C275" t="n">
-        <v>100</v>
-      </c>
-      <c r="D275" t="n">
-        <v>100</v>
-      </c>
-      <c r="E275" t="n">
-        <v>100</v>
-      </c>
-      <c r="F275" t="n">
-        <v>1007.1974</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>100</v>
-      </c>
-      <c r="C276" t="n">
-        <v>100</v>
-      </c>
-      <c r="D276" t="n">
-        <v>100</v>
-      </c>
-      <c r="E276" t="n">
-        <v>100</v>
-      </c>
-      <c r="F276" t="n">
-        <v>177.562</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C277" t="n">
-        <v>100</v>
-      </c>
-      <c r="D277" t="n">
-        <v>100</v>
-      </c>
-      <c r="E277" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F277" t="n">
-        <v>3488.562</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="C278" t="n">
-        <v>100</v>
-      </c>
-      <c r="D278" t="n">
-        <v>100</v>
-      </c>
-      <c r="E278" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="F278" t="n">
-        <v>112</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="C279" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="D279" t="n">
-        <v>98</v>
-      </c>
-      <c r="E279" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="F279" t="n">
-        <v>20112</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-107685.55289688</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9743,9 +9665,11 @@
         <v>-106444.33159688</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>97.90000000000001</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -9780,9 +9704,11 @@
         <v>-99196.21019687995</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>98.3</v>
+      </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -9817,9 +9743,11 @@
         <v>-99196.21019687995</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>99.40000000000001</v>
+      </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -9854,9 +9782,11 @@
         <v>-99196.21019687995</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>99.40000000000001</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -9891,9 +9821,11 @@
         <v>-78236.89049687996</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>99.40000000000001</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -9928,9 +9860,11 @@
         <v>-78735.78609687997</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>100</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -9965,9 +9899,11 @@
         <v>-79902.02589687996</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>99.5</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10002,9 +9938,11 @@
         <v>-80161.35959687996</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>98.2</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10039,9 +9977,11 @@
         <v>-80156.35959687996</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>98.09999999999999</v>
+      </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10076,9 +10016,11 @@
         <v>-70156.35959687996</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>100</v>
+      </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
@@ -10150,9 +10092,11 @@
         <v>-69056.35959687996</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>98.3</v>
+      </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10187,9 +10131,11 @@
         <v>-69456.35959687996</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>102</v>
+      </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10224,9 +10170,11 @@
         <v>-69056.35959687996</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>98.40000000000001</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10261,9 +10209,11 @@
         <v>-68256.35959687996</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>99.2</v>
+      </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10298,9 +10248,11 @@
         <v>-64456.35959687996</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>99.3</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10335,9 +10287,11 @@
         <v>-69156.35959687996</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>102</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10372,9 +10326,11 @@
         <v>-67856.35959687996</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>98.90000000000001</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10409,9 +10365,11 @@
         <v>-67851.35959687996</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>99</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10483,9 +10441,11 @@
         <v>-69133.10259687997</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>98.90000000000001</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10520,9 +10480,11 @@
         <v>-71633.10259687997</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>103</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>

--- a/BackTest/2019-11-12 BackTest SALT.xlsx
+++ b/BackTest/2019-11-12 BackTest SALT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M301"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>928</v>
       </c>
       <c r="G2" t="n">
-        <v>-40180.15580076</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>92467.10345715001</v>
       </c>
       <c r="G3" t="n">
-        <v>52286.94765639001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>20450.64</v>
       </c>
       <c r="G4" t="n">
-        <v>31836.30765639001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>328</v>
       </c>
       <c r="G5" t="n">
-        <v>32164.30765639001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11457.9151</v>
       </c>
       <c r="G6" t="n">
-        <v>32164.30765639001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>8.9087</v>
       </c>
       <c r="G7" t="n">
-        <v>32164.30765639001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>8549.6062</v>
       </c>
       <c r="G8" t="n">
-        <v>32164.30765639001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>12866.1654</v>
       </c>
       <c r="G9" t="n">
-        <v>19298.14225639001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>7318</v>
       </c>
       <c r="G10" t="n">
-        <v>11980.14225639001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1729</v>
       </c>
       <c r="G11" t="n">
-        <v>10251.14225639001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>6439</v>
       </c>
       <c r="G12" t="n">
-        <v>16690.14225639001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1560</v>
       </c>
       <c r="G13" t="n">
-        <v>15130.14225639001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>440</v>
       </c>
       <c r="G14" t="n">
-        <v>15130.14225639001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2552</v>
       </c>
       <c r="G15" t="n">
-        <v>17682.14225639001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>363</v>
       </c>
       <c r="G16" t="n">
-        <v>17682.14225639001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1574.6399</v>
       </c>
       <c r="G17" t="n">
-        <v>19256.78215639001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3245.656</v>
       </c>
       <c r="G18" t="n">
-        <v>19256.78215639001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3496.5098</v>
       </c>
       <c r="G19" t="n">
-        <v>19256.78215639001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2273</v>
       </c>
       <c r="G20" t="n">
-        <v>19256.78215639001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2383</v>
       </c>
       <c r="G21" t="n">
-        <v>16873.78215639001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>155</v>
       </c>
       <c r="G22" t="n">
-        <v>16873.78215639001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>111</v>
       </c>
       <c r="G23" t="n">
-        <v>16762.78215639001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>210</v>
       </c>
       <c r="G24" t="n">
-        <v>16762.78215639001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>4475.9</v>
       </c>
       <c r="G25" t="n">
-        <v>21238.68215639001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2548</v>
       </c>
       <c r="G26" t="n">
-        <v>21238.68215639001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>108</v>
       </c>
       <c r="G27" t="n">
-        <v>21346.68215639001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>21331.68215639001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1054</v>
       </c>
       <c r="G29" t="n">
-        <v>22385.68215639001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>5805.0248</v>
       </c>
       <c r="G30" t="n">
-        <v>22385.68215639001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>6650.8681</v>
       </c>
       <c r="G31" t="n">
-        <v>29036.55025639001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3290.1408</v>
       </c>
       <c r="G32" t="n">
-        <v>29036.55025639001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3075.482</v>
       </c>
       <c r="G33" t="n">
-        <v>29036.55025639001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1941.518</v>
       </c>
       <c r="G34" t="n">
-        <v>30978.06825639001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>42807.4637</v>
       </c>
       <c r="G35" t="n">
-        <v>73785.53195639001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>35220.9864</v>
       </c>
       <c r="G36" t="n">
-        <v>38564.54555639001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>6903.0874</v>
       </c>
       <c r="G37" t="n">
-        <v>38564.54555639001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>3662.96330275</v>
       </c>
       <c r="G38" t="n">
-        <v>42227.50885914001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>10441.2082</v>
       </c>
       <c r="G39" t="n">
-        <v>42227.50885914001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>11629.67904127</v>
       </c>
       <c r="G40" t="n">
-        <v>42227.50885914001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4801.39903067</v>
       </c>
       <c r="G41" t="n">
-        <v>37426.10982847001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>4485.1404</v>
       </c>
       <c r="G42" t="n">
-        <v>41911.25022847002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>12103.5354</v>
       </c>
       <c r="G43" t="n">
-        <v>29807.71482847002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>280.3798</v>
       </c>
       <c r="G44" t="n">
-        <v>30088.09462847001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1645.0765</v>
       </c>
       <c r="G45" t="n">
-        <v>30088.09462847001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>204.66800458</v>
       </c>
       <c r="G46" t="n">
-        <v>29883.42662389002</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1219.35815321</v>
       </c>
       <c r="G47" t="n">
-        <v>29883.42662389002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2205.76591926</v>
       </c>
       <c r="G48" t="n">
-        <v>29883.42662389002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>8670.092784369999</v>
       </c>
       <c r="G49" t="n">
-        <v>38553.51940826001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>5254.28961129</v>
       </c>
       <c r="G50" t="n">
-        <v>38553.51940826001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>3694.25607885</v>
       </c>
       <c r="G51" t="n">
-        <v>38553.51940826001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>11112.8691</v>
       </c>
       <c r="G52" t="n">
-        <v>49666.38850826002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>19962.54879704</v>
       </c>
       <c r="G53" t="n">
-        <v>29703.83971122002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>4398.2477</v>
       </c>
       <c r="G54" t="n">
-        <v>34102.08741122002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>5025.5033</v>
       </c>
       <c r="G55" t="n">
-        <v>29076.58411122002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>14306.11552752</v>
       </c>
       <c r="G56" t="n">
-        <v>29076.58411122002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>8722.0388</v>
       </c>
       <c r="G57" t="n">
-        <v>29076.58411122002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>606.8176999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>28469.76641122002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>859.1292724800001</v>
       </c>
       <c r="G59" t="n">
-        <v>29328.89568370002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>997.5</v>
       </c>
       <c r="G60" t="n">
-        <v>29328.89568370002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>15661.7034</v>
       </c>
       <c r="G61" t="n">
-        <v>13667.19228370002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>5652</v>
       </c>
       <c r="G62" t="n">
-        <v>19319.19228370002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>9969.702300000001</v>
       </c>
       <c r="G63" t="n">
-        <v>29288.89458370002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1942</v>
       </c>
       <c r="G64" t="n">
-        <v>29288.89458370002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>400</v>
       </c>
       <c r="G65" t="n">
-        <v>28888.89458370002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>134981.8574</v>
       </c>
       <c r="G66" t="n">
-        <v>28888.89458370002</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1889.6774</v>
       </c>
       <c r="G67" t="n">
-        <v>30778.57198370002</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>560.0542</v>
       </c>
       <c r="G68" t="n">
-        <v>30218.51778370002</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>2088.2228</v>
       </c>
       <c r="G69" t="n">
-        <v>30218.51778370002</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2017.0477</v>
       </c>
       <c r="G70" t="n">
-        <v>30218.51778370002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>16535.7813</v>
       </c>
       <c r="G71" t="n">
-        <v>13682.73648370002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>431.9687</v>
       </c>
       <c r="G72" t="n">
-        <v>13250.76778370002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>200</v>
       </c>
       <c r="G73" t="n">
-        <v>13450.76778370002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>2730.7708</v>
       </c>
       <c r="G74" t="n">
-        <v>10719.99698370002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>4127.3257</v>
       </c>
       <c r="G75" t="n">
-        <v>10719.99698370002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>4188.84</v>
       </c>
       <c r="G76" t="n">
-        <v>10719.99698370002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>15057.1869</v>
       </c>
       <c r="G77" t="n">
-        <v>10719.99698370002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1880.391</v>
       </c>
       <c r="G78" t="n">
-        <v>10719.99698370002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>15621.5711</v>
       </c>
       <c r="G79" t="n">
-        <v>26341.56808370002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>400</v>
       </c>
       <c r="G80" t="n">
-        <v>25941.56808370002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2800</v>
       </c>
       <c r="G81" t="n">
-        <v>28741.56808370002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>943.8799</v>
       </c>
       <c r="G82" t="n">
-        <v>27797.68818370002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>7950.1178</v>
       </c>
       <c r="G83" t="n">
-        <v>27797.68818370002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>800</v>
       </c>
       <c r="G84" t="n">
-        <v>28597.68818370002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>4010</v>
       </c>
       <c r="G85" t="n">
-        <v>28597.68818370002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1056.6142</v>
       </c>
       <c r="G86" t="n">
-        <v>29654.30238370002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>4500.39639639</v>
       </c>
       <c r="G87" t="n">
-        <v>29654.30238370002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>218.75</v>
       </c>
       <c r="G88" t="n">
-        <v>29435.55238370002</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>11101.7967</v>
       </c>
       <c r="G89" t="n">
-        <v>18333.75568370002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>5269.0193</v>
       </c>
       <c r="G90" t="n">
-        <v>23602.77498370002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>2196.4508</v>
       </c>
       <c r="G91" t="n">
-        <v>23602.77498370002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>2224.6762</v>
       </c>
       <c r="G92" t="n">
-        <v>21378.09878370001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>2033.6867</v>
       </c>
       <c r="G93" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>4049.4458</v>
       </c>
       <c r="G94" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>23.2032</v>
       </c>
       <c r="G95" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>3964.13</v>
       </c>
       <c r="G96" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>2467.77</v>
       </c>
       <c r="G97" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>2689.7126</v>
       </c>
       <c r="G98" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>3015.6685</v>
       </c>
       <c r="G99" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>3200</v>
       </c>
       <c r="G100" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>173.5037</v>
       </c>
       <c r="G101" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>500</v>
       </c>
       <c r="G102" t="n">
-        <v>19344.41208370002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>7507.2882</v>
       </c>
       <c r="G103" t="n">
-        <v>11837.12388370002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>2921.2871</v>
       </c>
       <c r="G104" t="n">
-        <v>14758.41098370002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>5465.0514</v>
       </c>
       <c r="G105" t="n">
-        <v>14758.41098370002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>87.5313</v>
       </c>
       <c r="G106" t="n">
-        <v>14758.41098370002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>155</v>
       </c>
       <c r="G107" t="n">
-        <v>14913.41098370002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>10303.55</v>
       </c>
       <c r="G108" t="n">
-        <v>4609.860983700017</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>5870.3369</v>
       </c>
       <c r="G109" t="n">
-        <v>4609.860983700017</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>400</v>
       </c>
       <c r="G110" t="n">
-        <v>4609.860983700017</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>2551.796</v>
       </c>
       <c r="G111" t="n">
-        <v>4609.860983700017</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>8780.8107</v>
       </c>
       <c r="G112" t="n">
-        <v>4609.860983700017</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>13353.1023</v>
       </c>
       <c r="G113" t="n">
-        <v>4609.860983700017</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>5770.7949</v>
       </c>
       <c r="G114" t="n">
-        <v>10380.65588370002</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>5777.8267</v>
       </c>
       <c r="G115" t="n">
-        <v>4602.829183700016</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>7688</v>
       </c>
       <c r="G116" t="n">
-        <v>12290.82918370002</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>12285.82918370002</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>12169.3468</v>
       </c>
       <c r="G118" t="n">
-        <v>116.4823837000167</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>402</v>
       </c>
       <c r="G119" t="n">
-        <v>518.4823837000167</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>6</v>
       </c>
       <c r="G120" t="n">
-        <v>518.4823837000167</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>2821.2744</v>
       </c>
       <c r="G121" t="n">
-        <v>-2302.792016299983</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>20396.1387</v>
       </c>
       <c r="G122" t="n">
-        <v>18093.34668370002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>808</v>
       </c>
       <c r="G123" t="n">
-        <v>18901.34668370002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>2378</v>
       </c>
       <c r="G124" t="n">
-        <v>16523.34668370002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>30.0327</v>
       </c>
       <c r="G125" t="n">
-        <v>16493.31398370002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>35377.16</v>
       </c>
       <c r="G126" t="n">
-        <v>51870.47398370002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>1823.1619</v>
       </c>
       <c r="G127" t="n">
-        <v>51870.47398370002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>41.27</v>
       </c>
       <c r="G128" t="n">
-        <v>51870.47398370002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>2963.7143</v>
       </c>
       <c r="G129" t="n">
-        <v>48906.75968370002</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>890.1732</v>
       </c>
       <c r="G130" t="n">
-        <v>48016.58648370003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>48016.58648370003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>25505.0642</v>
       </c>
       <c r="G132" t="n">
-        <v>73521.65068370002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>5048.8712</v>
       </c>
       <c r="G133" t="n">
-        <v>68472.77948370003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>42717.8175</v>
       </c>
       <c r="G134" t="n">
-        <v>111190.5969837</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>5231.1097</v>
       </c>
       <c r="G135" t="n">
-        <v>111190.5969837</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>4338.1366</v>
       </c>
       <c r="G136" t="n">
-        <v>115528.7335837</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>3</v>
       </c>
       <c r="G137" t="n">
-        <v>115525.7335837</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>5000</v>
       </c>
       <c r="G138" t="n">
-        <v>110525.7335837</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>15726.9184</v>
       </c>
       <c r="G139" t="n">
-        <v>110525.7335837</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>23146.1066</v>
       </c>
       <c r="G140" t="n">
-        <v>110525.7335837</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>35809.7598</v>
       </c>
       <c r="G141" t="n">
-        <v>74715.97378370003</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>2015.0366</v>
       </c>
       <c r="G142" t="n">
-        <v>74715.97378370003</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>698.7186</v>
       </c>
       <c r="G143" t="n">
-        <v>74017.25518370004</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>1852.1236</v>
       </c>
       <c r="G144" t="n">
-        <v>75869.37878370004</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>152.547</v>
       </c>
       <c r="G145" t="n">
-        <v>75869.37878370004</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>3501.7585</v>
       </c>
       <c r="G146" t="n">
-        <v>72367.62028370005</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>6621.0924</v>
       </c>
       <c r="G147" t="n">
-        <v>72367.62028370005</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>22970.3285</v>
       </c>
       <c r="G148" t="n">
-        <v>49397.29178370004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>47000</v>
       </c>
       <c r="G149" t="n">
-        <v>49397.29178370004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>519.0267</v>
       </c>
       <c r="G150" t="n">
-        <v>49397.29178370004</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>26272.7861</v>
       </c>
       <c r="G151" t="n">
-        <v>23124.50568370004</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>9073.500400000001</v>
       </c>
       <c r="G152" t="n">
-        <v>14051.00528370004</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>14061.00528370004</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>1487.925</v>
       </c>
       <c r="G154" t="n">
-        <v>14061.00528370004</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>10</v>
       </c>
       <c r="G155" t="n">
-        <v>14071.00528370004</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>1275.35</v>
       </c>
       <c r="G156" t="n">
-        <v>14071.00528370004</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>32.9469</v>
       </c>
       <c r="G157" t="n">
-        <v>14071.00528370004</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>22356.4041</v>
       </c>
       <c r="G158" t="n">
-        <v>36427.40938370004</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>400</v>
       </c>
       <c r="G159" t="n">
-        <v>36827.40938370004</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>24629.8057</v>
       </c>
       <c r="G160" t="n">
-        <v>36827.40938370004</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>7219.364</v>
       </c>
       <c r="G161" t="n">
-        <v>36827.40938370004</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>10</v>
       </c>
       <c r="G162" t="n">
-        <v>36827.40938370004</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>831</v>
       </c>
       <c r="G163" t="n">
-        <v>36827.40938370004</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>2000</v>
       </c>
       <c r="G164" t="n">
-        <v>36827.40938370004</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>4527.4261</v>
       </c>
       <c r="G165" t="n">
-        <v>41354.83548370004</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>7322.6368</v>
       </c>
       <c r="G166" t="n">
-        <v>34032.19868370004</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>5384.7916</v>
       </c>
       <c r="G167" t="n">
-        <v>34032.19868370004</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>23162.4297</v>
       </c>
       <c r="G168" t="n">
-        <v>34032.19868370004</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>1657.3852</v>
       </c>
       <c r="G169" t="n">
-        <v>34032.19868370004</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>2340.9698</v>
       </c>
       <c r="G170" t="n">
-        <v>34032.19868370004</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>22608.7196</v>
       </c>
       <c r="G171" t="n">
-        <v>34032.19868370004</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>4.9</v>
       </c>
       <c r="G172" t="n">
-        <v>34037.09868370004</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>4.9</v>
       </c>
       <c r="G173" t="n">
-        <v>34041.99868370004</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>370.6767</v>
       </c>
       <c r="G174" t="n">
-        <v>34041.99868370004</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>969.7929</v>
       </c>
       <c r="G175" t="n">
-        <v>33072.20578370004</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>1298.2969</v>
       </c>
       <c r="G176" t="n">
-        <v>31773.90888370004</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>1061.5143</v>
       </c>
       <c r="G177" t="n">
-        <v>31773.90888370004</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>183.6929</v>
       </c>
       <c r="G178" t="n">
-        <v>31957.60178370004</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>400</v>
       </c>
       <c r="G179" t="n">
-        <v>31557.60178370004</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>10351.2766</v>
       </c>
       <c r="G180" t="n">
-        <v>41908.87838370004</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>16521.9988</v>
       </c>
       <c r="G181" t="n">
-        <v>25386.87958370004</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>10</v>
       </c>
       <c r="G182" t="n">
-        <v>25376.87958370004</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>5</v>
       </c>
       <c r="G183" t="n">
-        <v>25381.87958370004</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>5500.8408</v>
       </c>
       <c r="G184" t="n">
-        <v>19881.03878370004</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>11734.6148</v>
       </c>
       <c r="G185" t="n">
-        <v>8146.423983700039</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>473.5014</v>
       </c>
       <c r="G186" t="n">
-        <v>8619.925383700038</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>6.4402</v>
       </c>
       <c r="G187" t="n">
-        <v>8619.925383700038</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>400</v>
       </c>
       <c r="G188" t="n">
-        <v>8219.925383700038</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>9600</v>
       </c>
       <c r="G189" t="n">
-        <v>8219.925383700038</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>2361.0277</v>
       </c>
       <c r="G190" t="n">
-        <v>10580.95308370004</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>2397.602</v>
       </c>
       <c r="G191" t="n">
-        <v>12978.55508370004</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>1400</v>
       </c>
       <c r="G192" t="n">
-        <v>12978.55508370004</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>1540.0562</v>
       </c>
       <c r="G193" t="n">
-        <v>12978.55508370004</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>6.4402</v>
       </c>
       <c r="G194" t="n">
-        <v>12978.55508370004</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>800</v>
       </c>
       <c r="G195" t="n">
-        <v>13778.55508370004</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>400</v>
       </c>
       <c r="G196" t="n">
-        <v>13378.55508370004</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>400</v>
       </c>
       <c r="G197" t="n">
-        <v>13378.55508370004</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>9708.34668058</v>
       </c>
       <c r="G198" t="n">
-        <v>23086.90176428004</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>1200</v>
       </c>
       <c r="G199" t="n">
-        <v>21886.90176428004</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>3646.2565</v>
       </c>
       <c r="G200" t="n">
-        <v>25533.15826428004</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>1315.44331942</v>
       </c>
       <c r="G201" t="n">
-        <v>26848.60158370004</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>48.07692307</v>
       </c>
       <c r="G202" t="n">
-        <v>26848.60158370004</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>1606.1561</v>
       </c>
       <c r="G203" t="n">
-        <v>25242.44548370004</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>800</v>
       </c>
       <c r="G204" t="n">
-        <v>25242.44548370004</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>3914.8439</v>
       </c>
       <c r="G205" t="n">
-        <v>21327.60158370004</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>1200</v>
       </c>
       <c r="G206" t="n">
-        <v>21327.60158370004</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>5006.0369</v>
       </c>
       <c r="G207" t="n">
-        <v>21327.60158370004</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>800</v>
       </c>
       <c r="G208" t="n">
-        <v>22127.60158370004</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>3200</v>
       </c>
       <c r="G209" t="n">
-        <v>18927.60158370004</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>1210</v>
       </c>
       <c r="G210" t="n">
-        <v>18927.60158370004</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>400</v>
       </c>
       <c r="G211" t="n">
-        <v>18527.60158370004</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>1500</v>
       </c>
       <c r="G212" t="n">
-        <v>18527.60158370004</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>279.6005</v>
       </c>
       <c r="G213" t="n">
-        <v>18527.60158370004</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>137.8765</v>
       </c>
       <c r="G214" t="n">
-        <v>18527.60158370004</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>400</v>
       </c>
       <c r="G215" t="n">
-        <v>18527.60158370004</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>1200</v>
       </c>
       <c r="G216" t="n">
-        <v>18527.60158370004</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>400</v>
       </c>
       <c r="G217" t="n">
-        <v>18527.60158370004</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>183.6929</v>
       </c>
       <c r="G218" t="n">
-        <v>18527.60158370004</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>5</v>
       </c>
       <c r="G219" t="n">
-        <v>18532.60158370004</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>3315.66838058</v>
       </c>
       <c r="G220" t="n">
-        <v>15216.93320312004</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>6254.1424</v>
       </c>
       <c r="G221" t="n">
-        <v>8962.790803120039</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>3724.099</v>
       </c>
       <c r="G222" t="n">
-        <v>8962.790803120039</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>400</v>
       </c>
       <c r="G223" t="n">
-        <v>8962.790803120039</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>6829.7191</v>
       </c>
       <c r="G224" t="n">
-        <v>8962.790803120039</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>723.6665</v>
       </c>
       <c r="G225" t="n">
-        <v>8962.790803120039</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>2911.6076</v>
       </c>
       <c r="G226" t="n">
-        <v>8962.790803120039</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>5</v>
       </c>
       <c r="G227" t="n">
-        <v>8967.790803120039</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>940.0403</v>
       </c>
       <c r="G228" t="n">
-        <v>8967.790803120039</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>1058.0907</v>
       </c>
       <c r="G229" t="n">
-        <v>7909.700103120039</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>504.8239</v>
       </c>
       <c r="G230" t="n">
-        <v>8414.524003120039</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>7699.9561</v>
       </c>
       <c r="G231" t="n">
-        <v>8414.524003120039</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>2933.6357</v>
       </c>
       <c r="G232" t="n">
-        <v>8414.524003120039</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>1980.204</v>
       </c>
       <c r="G233" t="n">
-        <v>8414.524003120039</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>411.2731</v>
       </c>
       <c r="G234" t="n">
-        <v>8414.524003120039</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>982.0376</v>
       </c>
       <c r="G235" t="n">
-        <v>8414.524003120039</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>1008.2424</v>
       </c>
       <c r="G236" t="n">
-        <v>9422.766403120038</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>410.0226</v>
       </c>
       <c r="G237" t="n">
-        <v>9012.743803120038</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>436</v>
       </c>
       <c r="G238" t="n">
-        <v>8576.743803120038</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>30185.7092</v>
       </c>
       <c r="G239" t="n">
-        <v>-21608.96539687996</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>1631.2828</v>
       </c>
       <c r="G240" t="n">
-        <v>-23240.24819687996</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,19 @@
         <v>10000</v>
       </c>
       <c r="G241" t="n">
-        <v>-33240.24819687996</v>
+        <v>1</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>99.8</v>
+      </c>
+      <c r="I241" t="n">
+        <v>99.8</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7647,23 @@
         <v>7200</v>
       </c>
       <c r="G242" t="n">
-        <v>-33240.24819687996</v>
+        <v>1</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I242" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7685,23 @@
         <v>3865.6772</v>
       </c>
       <c r="G243" t="n">
-        <v>-33240.24819687996</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>99</v>
+      </c>
+      <c r="I243" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7723,15 @@
         <v>435.3839</v>
       </c>
       <c r="G244" t="n">
-        <v>-32804.86429687996</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7753,15 @@
         <v>5</v>
       </c>
       <c r="G245" t="n">
-        <v>-32799.86429687996</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7783,15 @@
         <v>6</v>
       </c>
       <c r="G246" t="n">
-        <v>-32805.86429687996</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7813,19 @@
         <v>5</v>
       </c>
       <c r="G247" t="n">
-        <v>-32800.86429687996</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>98.3</v>
+      </c>
+      <c r="I247" t="n">
+        <v>98.3</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7847,23 @@
         <v>290.2381</v>
       </c>
       <c r="G248" t="n">
-        <v>-33091.10239687996</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="I248" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7885,23 @@
         <v>28.6374</v>
       </c>
       <c r="G249" t="n">
-        <v>-33062.46499687996</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>98.5</v>
+      </c>
+      <c r="I249" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7923,19 @@
         <v>4000</v>
       </c>
       <c r="G250" t="n">
-        <v>-37062.46499687996</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>99.8</v>
+      </c>
+      <c r="I250" t="n">
+        <v>99.8</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7957,23 @@
         <v>12858.5955</v>
       </c>
       <c r="G251" t="n">
-        <v>-37062.46499687996</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I251" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7995,23 @@
         <v>24108.6572</v>
       </c>
       <c r="G252" t="n">
-        <v>-61171.12219687997</v>
+        <v>1</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I252" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8033,23 @@
         <v>1635.7727</v>
       </c>
       <c r="G253" t="n">
-        <v>-59535.34949687996</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>98.09999999999999</v>
+      </c>
+      <c r="I253" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8071,23 @@
         <v>13712.7475</v>
       </c>
       <c r="G254" t="n">
-        <v>-73248.09699687996</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I254" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8109,23 @@
         <v>3316</v>
       </c>
       <c r="G255" t="n">
-        <v>-76564.09699687996</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>98.09999999999999</v>
+      </c>
+      <c r="I255" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8147,23 @@
         <v>43012.4138</v>
       </c>
       <c r="G256" t="n">
-        <v>-119576.51079688</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>98</v>
+      </c>
+      <c r="I256" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8185,23 @@
         <v>39.3755</v>
       </c>
       <c r="G257" t="n">
-        <v>-119537.13529688</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="I257" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8223,23 @@
         <v>20</v>
       </c>
       <c r="G258" t="n">
-        <v>-119557.13529688</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>98.59999999999999</v>
+      </c>
+      <c r="I258" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8261,23 @@
         <v>19.277</v>
       </c>
       <c r="G259" t="n">
-        <v>-119537.85829688</v>
+        <v>1</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>96</v>
+      </c>
+      <c r="I259" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8299,21 @@
         <v>40</v>
       </c>
       <c r="G260" t="n">
-        <v>-119497.85829688</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8335,21 @@
         <v>10</v>
       </c>
       <c r="G261" t="n">
-        <v>-119507.85829688</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8371,23 @@
         <v>3815.5975</v>
       </c>
       <c r="G262" t="n">
-        <v>-119507.85829688</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>96.09999999999999</v>
+      </c>
+      <c r="I262" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8409,23 @@
         <v>7122.3126</v>
       </c>
       <c r="G263" t="n">
-        <v>-112385.54569688</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>96.09999999999999</v>
+      </c>
+      <c r="I263" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8447,23 @@
         <v>2171.3583</v>
       </c>
       <c r="G264" t="n">
-        <v>-112385.54569688</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>96.2</v>
+      </c>
+      <c r="I264" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,22 +8485,23 @@
         <v>5.9928</v>
       </c>
       <c r="G265" t="n">
-        <v>-112379.55289688</v>
+        <v>1</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>96.2</v>
       </c>
       <c r="I265" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="J265" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>99.8</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9164,26 +8523,23 @@
         <v>6400</v>
       </c>
       <c r="G266" t="n">
-        <v>-112379.55289688</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I266" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="J266" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="K266" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J266" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9205,24 +8561,21 @@
         <v>1200</v>
       </c>
       <c r="G267" t="n">
-        <v>-112379.55289688</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="K267" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J267" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9244,18 +8597,21 @@
         <v>1600</v>
       </c>
       <c r="G268" t="n">
-        <v>-110779.55289688</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9277,18 +8633,21 @@
         <v>6384.5294</v>
       </c>
       <c r="G269" t="n">
-        <v>-110779.55289688</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9310,22 +8669,21 @@
         <v>6</v>
       </c>
       <c r="G270" t="n">
-        <v>-110773.55289688</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="J270" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>99.8</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9347,24 +8705,21 @@
         <v>2000</v>
       </c>
       <c r="G271" t="n">
-        <v>-110773.55289688</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="K271" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9386,24 +8741,21 @@
         <v>400</v>
       </c>
       <c r="G272" t="n">
-        <v>-110773.55289688</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="K272" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9425,18 +8777,21 @@
         <v>23200</v>
       </c>
       <c r="G273" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9458,18 +8813,21 @@
         <v>10</v>
       </c>
       <c r="G274" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9491,18 +8849,21 @@
         <v>1007.1974</v>
       </c>
       <c r="G275" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9524,18 +8885,21 @@
         <v>177.562</v>
       </c>
       <c r="G276" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9557,18 +8921,21 @@
         <v>3488.562</v>
       </c>
       <c r="G277" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9590,18 +8957,21 @@
         <v>112</v>
       </c>
       <c r="G278" t="n">
-        <v>-87573.55289687996</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9623,24 +8993,21 @@
         <v>20112</v>
       </c>
       <c r="G279" t="n">
-        <v>-107685.55289688</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="n">
-        <v>100</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J279" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9662,24 +9029,21 @@
         <v>1241.2213</v>
       </c>
       <c r="G280" t="n">
-        <v>-106444.33159688</v>
-      </c>
-      <c r="H280" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9701,24 +9065,21 @@
         <v>7248.1214</v>
       </c>
       <c r="G281" t="n">
-        <v>-99196.21019687995</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9740,24 +9101,21 @@
         <v>6885.7153</v>
       </c>
       <c r="G282" t="n">
-        <v>-99196.21019687995</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9779,24 +9137,21 @@
         <v>15731.7514</v>
       </c>
       <c r="G283" t="n">
-        <v>-99196.21019687995</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9818,24 +9173,21 @@
         <v>20959.3197</v>
       </c>
       <c r="G284" t="n">
-        <v>-78236.89049687996</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9857,24 +9209,21 @@
         <v>498.8956</v>
       </c>
       <c r="G285" t="n">
-        <v>-78735.78609687997</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="n">
-        <v>100</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9896,24 +9245,21 @@
         <v>1166.2398</v>
       </c>
       <c r="G286" t="n">
-        <v>-79902.02589687996</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9935,24 +9281,21 @@
         <v>259.3337</v>
       </c>
       <c r="G287" t="n">
-        <v>-80161.35959687996</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9974,24 +9317,21 @@
         <v>5</v>
       </c>
       <c r="G288" t="n">
-        <v>-80156.35959687996</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10013,24 +9353,21 @@
         <v>10000</v>
       </c>
       <c r="G289" t="n">
-        <v>-70156.35959687996</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="n">
-        <v>100</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10052,22 +9389,21 @@
         <v>400</v>
       </c>
       <c r="G290" t="n">
-        <v>-70556.35959687996</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10089,24 +9425,21 @@
         <v>1500</v>
       </c>
       <c r="G291" t="n">
-        <v>-69056.35959687996</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10128,24 +9461,21 @@
         <v>400</v>
       </c>
       <c r="G292" t="n">
-        <v>-69456.35959687996</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="n">
-        <v>102</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10167,24 +9497,21 @@
         <v>400</v>
       </c>
       <c r="G293" t="n">
-        <v>-69056.35959687996</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10206,24 +9533,21 @@
         <v>800</v>
       </c>
       <c r="G294" t="n">
-        <v>-68256.35959687996</v>
-      </c>
-      <c r="H294" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10245,24 +9569,21 @@
         <v>3800</v>
       </c>
       <c r="G295" t="n">
-        <v>-64456.35959687996</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10284,24 +9605,21 @@
         <v>4700</v>
       </c>
       <c r="G296" t="n">
-        <v>-69156.35959687996</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="n">
-        <v>102</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10323,24 +9641,21 @@
         <v>1300</v>
       </c>
       <c r="G297" t="n">
-        <v>-67856.35959687996</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10362,24 +9677,21 @@
         <v>5</v>
       </c>
       <c r="G298" t="n">
-        <v>-67851.35959687996</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="n">
-        <v>99</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10401,22 +9713,21 @@
         <v>1300</v>
       </c>
       <c r="G299" t="n">
-        <v>-69151.35959687996</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10438,24 +9749,21 @@
         <v>18.257</v>
       </c>
       <c r="G300" t="n">
-        <v>-69133.10259687997</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10477,24 +9785,21 @@
         <v>2500</v>
       </c>
       <c r="G301" t="n">
-        <v>-71633.10259687997</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="n">
-        <v>103</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
+        <v>99.8</v>
+      </c>
+      <c r="J301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
